--- a/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Dec-2025/جدول التجمع يوم 8-12-2025.xlsx
+++ b/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Dec-2025/جدول التجمع يوم 8-12-2025.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Daily Report Data" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Report Data'!$A$1:$H$857</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Report Data'!$A$1:$H$856</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="795">
   <si>
     <t>بدايةالشيفت</t>
   </si>
@@ -1522,834 +1522,855 @@
     <t>من 6 م</t>
   </si>
   <si>
+    <t>حسن أسامة</t>
+  </si>
+  <si>
+    <t>اشرقت نشأت</t>
+  </si>
+  <si>
+    <t>ميدان العباسة</t>
+  </si>
+  <si>
+    <t>محمد احمد</t>
+  </si>
+  <si>
+    <t>محمود احمد</t>
+  </si>
+  <si>
+    <t>نورهان رفيق</t>
+  </si>
+  <si>
+    <t>بسنت سليم</t>
+  </si>
+  <si>
+    <t>المعتز بالله سليمان</t>
+  </si>
+  <si>
+    <t>تيم ليدر - محمد فتحي</t>
+  </si>
+  <si>
+    <t>سعد عبدالنبي</t>
+  </si>
+  <si>
+    <t>وليد محمد</t>
+  </si>
+  <si>
+    <t>سارة عشماوي</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>800 فدان</t>
+  </si>
+  <si>
+    <t>تيم ليدر - عمرو عزام</t>
+  </si>
+  <si>
+    <t>دجلة بالمز</t>
+  </si>
+  <si>
+    <t>سها عمر</t>
+  </si>
+  <si>
+    <t>مصطفى طارق</t>
+  </si>
+  <si>
+    <t>محمد منصور</t>
+  </si>
+  <si>
+    <t>ياسمين أيمن محمد سيف</t>
+  </si>
+  <si>
+    <t>عمرو غفار</t>
+  </si>
+  <si>
+    <t>1125665026 / 1207654247</t>
+  </si>
+  <si>
+    <t>سامسون جورام</t>
+  </si>
+  <si>
+    <t>ملاك محمد</t>
+  </si>
+  <si>
+    <t>حازم دياب</t>
+  </si>
+  <si>
+    <t>احمد الصادق</t>
+  </si>
+  <si>
+    <t>علي احمد</t>
+  </si>
+  <si>
+    <t>أمل علاء الدين توكس</t>
+  </si>
+  <si>
+    <t>Estance John (استانس جون)</t>
+  </si>
+  <si>
+    <t>محمد اسامة</t>
+  </si>
+  <si>
+    <t>علي عبد النبي</t>
+  </si>
+  <si>
+    <t>أحمد عبد العظيم</t>
+  </si>
+  <si>
+    <t>رحيم مصطفى</t>
+  </si>
+  <si>
+    <t>فاطمة فوزي</t>
+  </si>
+  <si>
+    <t>عبدالرحمن ايهاب</t>
+  </si>
+  <si>
+    <t>ماثيو عماد</t>
+  </si>
+  <si>
+    <t>جون مدحت</t>
+  </si>
+  <si>
+    <t>عبد الله سليمان</t>
+  </si>
+  <si>
+    <t>تيم ليدر - محمد عبد الله</t>
+  </si>
+  <si>
+    <t>رقية زكريا</t>
+  </si>
+  <si>
+    <t>طالبية</t>
+  </si>
+  <si>
+    <t>زهرة الجاك</t>
+  </si>
+  <si>
+    <t>العشرين</t>
+  </si>
+  <si>
+    <t>يوسف ناصر</t>
+  </si>
+  <si>
+    <t>1286978689 / 249961368405 / 1065721642</t>
+  </si>
+  <si>
+    <t>صالح عمير</t>
+  </si>
+  <si>
+    <t>مجذوب عوض</t>
+  </si>
+  <si>
+    <t>طارق احمد السيسي</t>
+  </si>
+  <si>
+    <t>1554232307 / 249913279077</t>
+  </si>
+  <si>
+    <t>سماح محجوب صالح</t>
+  </si>
+  <si>
+    <t>عبد الرحمن عشري</t>
+  </si>
+  <si>
+    <t>عمر مدبولي</t>
+  </si>
+  <si>
+    <t>رحمة مدثر</t>
+  </si>
+  <si>
+    <t>مينا كارل</t>
+  </si>
+  <si>
+    <t>يحيى أحمد محمد طلب</t>
+  </si>
+  <si>
+    <t>منى صلاح</t>
+  </si>
+  <si>
+    <t>روان مدحت</t>
+  </si>
+  <si>
+    <t>أحمد أسامة صلاح</t>
+  </si>
+  <si>
+    <t>عمر بكري</t>
+  </si>
+  <si>
+    <t>يوسف طارق</t>
+  </si>
+  <si>
+    <t>يوسف خليل</t>
+  </si>
+  <si>
+    <t>1031434723/ 1080875417</t>
+  </si>
+  <si>
+    <t>عمر مصطفى</t>
+  </si>
+  <si>
+    <t>ندى نجد</t>
+  </si>
+  <si>
+    <t>علي الجندي</t>
+  </si>
+  <si>
+    <t>1102858041/1124701660</t>
+  </si>
+  <si>
+    <t>محمد نور</t>
+  </si>
+  <si>
+    <t>شادي احمد</t>
+  </si>
+  <si>
+    <t>ريان علي نور</t>
+  </si>
+  <si>
+    <t>تبيان أزهري</t>
+  </si>
+  <si>
+    <t>1501744558/1153843978</t>
+  </si>
+  <si>
+    <t>روحية عليتان صلاح الدين</t>
+  </si>
+  <si>
+    <t>كشرى هند الحي العاشر</t>
+  </si>
+  <si>
+    <t>1044758200 / 249904396614</t>
+  </si>
+  <si>
+    <t>عبدالله اشرف</t>
+  </si>
+  <si>
+    <t>طارق نصر محمد</t>
+  </si>
+  <si>
+    <t>عبد الله أحمد فتح الله</t>
+  </si>
+  <si>
+    <t>1044183469/249112356639</t>
+  </si>
+  <si>
+    <t>بنورة عز الدين</t>
+  </si>
+  <si>
+    <t>محمود مصطفى</t>
+  </si>
+  <si>
+    <t>شهد جلال</t>
+  </si>
+  <si>
+    <t>عز الدين اشرف</t>
+  </si>
+  <si>
+    <t>شريف عرفة أنور</t>
+  </si>
+  <si>
+    <t>رامز طارق رشاد</t>
+  </si>
+  <si>
+    <t>رفيق منصور</t>
+  </si>
+  <si>
+    <t>مارتن ناير</t>
+  </si>
+  <si>
+    <t>محمد امجد</t>
+  </si>
+  <si>
+    <t>سجا عبد السلام</t>
+  </si>
+  <si>
+    <t>احمد قرضاوي</t>
+  </si>
+  <si>
+    <t>تيم ليدر - احمد عبدالقادر</t>
+  </si>
+  <si>
+    <t>وئام تاج الدين</t>
+  </si>
+  <si>
+    <t>رأفة صلاح</t>
+  </si>
+  <si>
+    <t>محمد محسن</t>
+  </si>
+  <si>
+    <t>1069935066 / 1282029756</t>
+  </si>
+  <si>
+    <t>نور هشام</t>
+  </si>
+  <si>
+    <t>محمد احمد اسماعيل</t>
+  </si>
+  <si>
+    <t>جوري أمير فاروق عبدالعال</t>
+  </si>
+  <si>
+    <t>عبدالله هارون</t>
+  </si>
+  <si>
+    <t>هاجر محمد فكري</t>
+  </si>
+  <si>
+    <t>محمد فتح الرحمن ابراهيم</t>
+  </si>
+  <si>
+    <t>خان ستيف</t>
+  </si>
+  <si>
+    <t>هدى عز</t>
+  </si>
+  <si>
+    <t>امجد احمد</t>
+  </si>
+  <si>
+    <t>عبد الرحمن وليد</t>
+  </si>
+  <si>
+    <t>نور الدين محمود</t>
+  </si>
+  <si>
+    <t>صلاح حسن صلاح</t>
+  </si>
+  <si>
+    <t>سهيلة هاني</t>
+  </si>
+  <si>
+    <t>اسلام الغمري</t>
+  </si>
+  <si>
+    <t>دنيا جابر</t>
+  </si>
+  <si>
+    <t>ليال عادل خالد الأمين</t>
+  </si>
+  <si>
+    <t>اية الحج</t>
+  </si>
+  <si>
+    <t>يوسف قاسم</t>
+  </si>
+  <si>
+    <t>عبد العزيز مجدي</t>
+  </si>
+  <si>
+    <t>هبة علي</t>
+  </si>
+  <si>
+    <t>1280410652/966530800596 / 1143556948</t>
+  </si>
+  <si>
+    <t>امجد عادل</t>
+  </si>
+  <si>
+    <t>فراس بن أسامة</t>
+  </si>
+  <si>
+    <t>ملاك معتصم</t>
+  </si>
+  <si>
+    <t>من 10 م</t>
+  </si>
+  <si>
+    <t>1012396158 / 2349079401734</t>
+  </si>
+  <si>
+    <t>عبد الحميد إبراهيم إيانولوا</t>
+  </si>
+  <si>
+    <t>كشك اللحمه</t>
+  </si>
+  <si>
+    <t>يوسف حسن</t>
+  </si>
+  <si>
+    <t>فارس عصام الدين حسن خليفة</t>
+  </si>
+  <si>
+    <t>هادي عادل</t>
+  </si>
+  <si>
+    <t>كريم محمد علي عبد الجواد</t>
+  </si>
+  <si>
+    <t>سهيلة عاطف</t>
+  </si>
+  <si>
+    <t>مجدي منديل</t>
+  </si>
+  <si>
+    <t>حسن السيد</t>
+  </si>
+  <si>
+    <t>محمد عبد الباسط</t>
+  </si>
+  <si>
+    <t>ملاك انطون مهنا</t>
+  </si>
+  <si>
+    <t>تبيان سماوال عوض</t>
+  </si>
+  <si>
+    <t>1024194988  / 1224030197</t>
+  </si>
+  <si>
+    <t>محمد ابراهيم</t>
+  </si>
+  <si>
+    <t>هبة الله نوفل</t>
+  </si>
+  <si>
+    <t>آية محمد الصديق</t>
+  </si>
+  <si>
+    <t>يسرا أحمد محمد المصطفى</t>
+  </si>
+  <si>
+    <t>إياد خيري</t>
+  </si>
+  <si>
+    <t>عمرو خالد</t>
+  </si>
+  <si>
+    <t>Has a car</t>
+  </si>
+  <si>
+    <t>دان أحمد</t>
+  </si>
+  <si>
+    <t>1154256785 / 1070212444</t>
+  </si>
+  <si>
+    <t>محمد ياسر</t>
+  </si>
+  <si>
+    <t>محمود أنيس</t>
+  </si>
+  <si>
+    <t>زياد ثابت</t>
+  </si>
+  <si>
+    <t>هرم ستي</t>
+  </si>
+  <si>
+    <t>زينب عبدالله محمدالحسن</t>
+  </si>
+  <si>
+    <t>1222484297/61478776673</t>
+  </si>
+  <si>
+    <t>سليم عطا</t>
+  </si>
+  <si>
+    <t>مصطفى عبد الباسط</t>
+  </si>
+  <si>
+    <t>علي ابراهيم علي</t>
+  </si>
+  <si>
+    <t>خالد الهادي سعيد</t>
+  </si>
+  <si>
+    <t>عبدالله عمار</t>
+  </si>
+  <si>
+    <t>حبيبة خالد سلامة</t>
+  </si>
+  <si>
+    <t>من 3 م</t>
+  </si>
+  <si>
+    <t>لمى كرم</t>
+  </si>
+  <si>
+    <t>مايا مهدي</t>
+  </si>
+  <si>
+    <t>منيبة كرار</t>
+  </si>
+  <si>
+    <t>فياض حمدي</t>
+  </si>
+  <si>
+    <t>ياسين صبري</t>
+  </si>
+  <si>
+    <t>من 9 م</t>
+  </si>
+  <si>
+    <t>مصطفى محمد</t>
+  </si>
+  <si>
+    <t>1220116359 / 1023356963</t>
+  </si>
+  <si>
+    <t>راوية الصافي</t>
+  </si>
+  <si>
+    <t>إياد محمد</t>
+  </si>
+  <si>
+    <t>مؤمن عبد القدير سراج الدين</t>
+  </si>
+  <si>
+    <t>ابو سمرة ميدان التحرير</t>
+  </si>
+  <si>
+    <t>بال جون</t>
+  </si>
+  <si>
+    <t>لوجينا أحمد كامل</t>
+  </si>
+  <si>
+    <t>حازم حسام</t>
+  </si>
+  <si>
+    <t>امين عبد الحي</t>
+  </si>
+  <si>
+    <t>محمود عبد العليم</t>
+  </si>
+  <si>
+    <t>مصعب صديق</t>
+  </si>
+  <si>
+    <t>عمر بدوي</t>
+  </si>
+  <si>
+    <t>جودي موسى</t>
+  </si>
+  <si>
+    <t>تيم ليدر - عمرو ماجد</t>
+  </si>
+  <si>
+    <t>التوحيد والنور الاتوستراد</t>
+  </si>
+  <si>
+    <t>احمد مختار</t>
+  </si>
+  <si>
+    <t>يحيى لطفي</t>
+  </si>
+  <si>
+    <t>رضوى المصري</t>
+  </si>
+  <si>
+    <t>عبدالوهاب مالك</t>
+  </si>
+  <si>
+    <t>1212874368 / 967777756816</t>
+  </si>
+  <si>
+    <t>ماهر علي دهب</t>
+  </si>
+  <si>
+    <t>الاء ابراهيم عبد العزيز محمد</t>
+  </si>
+  <si>
+    <t>يوسف صديق</t>
+  </si>
+  <si>
+    <t>سجا عامر</t>
+  </si>
+  <si>
+    <t>ليلى حمدي</t>
+  </si>
+  <si>
+    <t>عمر الفاتح</t>
+  </si>
+  <si>
+    <t>لوكا اميل</t>
+  </si>
+  <si>
+    <t>1225392073 / 1550558440</t>
+  </si>
+  <si>
+    <t>يوسف طاهر</t>
+  </si>
+  <si>
+    <t>أسيل سامي</t>
+  </si>
+  <si>
+    <t>يوسف غرانت</t>
+  </si>
+  <si>
+    <t>جاسم أسامة</t>
+  </si>
+  <si>
+    <t>محمد ابوبكر</t>
+  </si>
+  <si>
+    <t>عمر عادل</t>
+  </si>
+  <si>
+    <t>ياسين عمرو</t>
+  </si>
+  <si>
+    <t>إياد ياسر</t>
+  </si>
+  <si>
+    <t>مازن اشرف</t>
+  </si>
+  <si>
+    <t>عبد الرؤوف محمود</t>
+  </si>
+  <si>
+    <t>سيف الشامي</t>
+  </si>
+  <si>
+    <t>الجزيره</t>
+  </si>
+  <si>
+    <t>محمد مصطفى</t>
+  </si>
+  <si>
+    <t>حسام الدين وليد مصطفى</t>
+  </si>
+  <si>
+    <t>1556802729/249966553605</t>
+  </si>
+  <si>
+    <t>محمد نادر عوض</t>
+  </si>
+  <si>
+    <t>مصطفى حازم</t>
+  </si>
+  <si>
+    <t>سعيد الليثي</t>
+  </si>
+  <si>
+    <t>الحي العاشر</t>
+  </si>
+  <si>
+    <t>هبة عثمان أحمد الطاهر</t>
+  </si>
+  <si>
+    <t>ممدوح تبدي</t>
+  </si>
+  <si>
+    <t>عمرو تامر</t>
+  </si>
+  <si>
+    <t>ندى أحمد جاسم</t>
+  </si>
+  <si>
+    <t>دانيا ياسر</t>
+  </si>
+  <si>
+    <t>1128109338_00249901091101</t>
+  </si>
+  <si>
+    <t>كريم الدين امير صلاح</t>
+  </si>
+  <si>
+    <t>مدثر أسامة</t>
+  </si>
+  <si>
+    <t>1559986500/249119446025</t>
+  </si>
+  <si>
+    <t>رائد ياسر</t>
+  </si>
+  <si>
+    <t>1500837996/249929419400</t>
+  </si>
+  <si>
+    <t>احمد عبد العظيم</t>
+  </si>
+  <si>
+    <t>المجداد احمد</t>
+  </si>
+  <si>
+    <t>سيف وائل</t>
+  </si>
+  <si>
+    <t>عبدالله غاندي عبدالله النويري</t>
+  </si>
+  <si>
+    <t>أندرو عادل إسحاق</t>
+  </si>
+  <si>
+    <t>حسام محمد نبيل حمدي</t>
+  </si>
+  <si>
+    <t>عبد الله جمال</t>
+  </si>
+  <si>
+    <t>أمل نبيل</t>
+  </si>
+  <si>
+    <t>1080766074 / 249920520446</t>
+  </si>
+  <si>
+    <t>جعفر منهل</t>
+  </si>
+  <si>
+    <t>بسنت أحمد سمير</t>
+  </si>
+  <si>
+    <t>حبيبة خالد</t>
+  </si>
+  <si>
+    <t>مريم ابو بكر</t>
+  </si>
+  <si>
+    <t>دهب محمد</t>
+  </si>
+  <si>
+    <t>بوابة تانية قديمة</t>
+  </si>
+  <si>
+    <t>اسلام وسام</t>
+  </si>
+  <si>
+    <t>محمد عبدون</t>
+  </si>
+  <si>
+    <t>يوسف عامر</t>
+  </si>
+  <si>
+    <t>حسام الامين</t>
+  </si>
+  <si>
+    <t>يمنى امير عبد الله</t>
+  </si>
+  <si>
+    <t>1503323941/ 24911891811</t>
+  </si>
+  <si>
+    <t>خالد وليد</t>
+  </si>
+  <si>
+    <t>فاطمة الزين</t>
+  </si>
+  <si>
+    <t>منتصر الوسيلة</t>
+  </si>
+  <si>
+    <t>ميكائيل عبدالله</t>
+  </si>
+  <si>
+    <t>ميدان الجزيرة</t>
+  </si>
+  <si>
+    <t>آدم منصور</t>
+  </si>
+  <si>
+    <t>مراد مصطفى كمال</t>
+  </si>
+  <si>
+    <t>مازن الباجوري</t>
+  </si>
+  <si>
+    <t>مصطفى مدحت</t>
+  </si>
+  <si>
+    <t>نور الدين</t>
+  </si>
+  <si>
+    <t>1044637937/1108373366</t>
+  </si>
+  <si>
+    <t>محمد البدري بابكر</t>
+  </si>
+  <si>
+    <t>بوابه 24</t>
+  </si>
+  <si>
+    <t>روان عصمت</t>
+  </si>
+  <si>
+    <t>ريم عباس</t>
+  </si>
+  <si>
+    <t>مريم حسن</t>
+  </si>
+  <si>
+    <t>1158774994/ 1551575778</t>
+  </si>
+  <si>
+    <t>محمد خالد</t>
+  </si>
+  <si>
+    <t>أحمد مصطفى كامل</t>
+  </si>
+  <si>
+    <t>ضحى عامر</t>
+  </si>
+  <si>
+    <t>1273412666/249969118005</t>
+  </si>
+  <si>
+    <t>باسل معتز</t>
+  </si>
+  <si>
+    <t>مريم رشوان</t>
+  </si>
+  <si>
+    <t>محمد ابو بكر</t>
+  </si>
+  <si>
+    <t>محمد علاء</t>
+  </si>
+  <si>
+    <t>1557655853 / 249965691878</t>
+  </si>
+  <si>
+    <t>عبد المنعم خالد</t>
+  </si>
+  <si>
+    <t>249122099066/1551258200</t>
+  </si>
+  <si>
+    <t>عثمان نورالدين</t>
+  </si>
+  <si>
+    <t>هتون ناجي</t>
+  </si>
+  <si>
+    <t>ندى سعد</t>
+  </si>
+  <si>
+    <t>احمد المنياوي</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>مؤمن صلاح</t>
+  </si>
+  <si>
+    <t>محمود حسن</t>
+  </si>
+  <si>
     <t>مريم محمد احمد</t>
   </si>
   <si>
-    <t>حسن أسامة</t>
-  </si>
-  <si>
-    <t>اشرقت نشأت</t>
-  </si>
-  <si>
-    <t>ميدان العباسة</t>
-  </si>
-  <si>
-    <t>محمد احمد</t>
-  </si>
-  <si>
-    <t>محمود احمد</t>
-  </si>
-  <si>
-    <t>نورهان رفيق</t>
-  </si>
-  <si>
-    <t>بسنت سليم</t>
-  </si>
-  <si>
-    <t>المعتز بالله سليمان</t>
-  </si>
-  <si>
-    <t>تيم ليدر - محمد فتحي</t>
-  </si>
-  <si>
-    <t>سعد عبدالنبي</t>
-  </si>
-  <si>
-    <t>وليد محمد</t>
-  </si>
-  <si>
-    <t>سارة عشماوي</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>800 فدان</t>
-  </si>
-  <si>
-    <t>تيم ليدر - عمرو عزام</t>
-  </si>
-  <si>
-    <t>دجلة بالمز</t>
-  </si>
-  <si>
-    <t>سها عمر</t>
-  </si>
-  <si>
-    <t>مصطفى طارق</t>
-  </si>
-  <si>
-    <t>محمد منصور</t>
-  </si>
-  <si>
-    <t>ياسمين أيمن محمد سيف</t>
-  </si>
-  <si>
-    <t>عمرو غفار</t>
-  </si>
-  <si>
-    <t>1125665026 / 1207654247</t>
-  </si>
-  <si>
-    <t>سامسون جورام</t>
-  </si>
-  <si>
-    <t>ملاك محمد</t>
-  </si>
-  <si>
-    <t>حازم دياب</t>
-  </si>
-  <si>
-    <t>احمد الصادق</t>
-  </si>
-  <si>
-    <t>علي احمد</t>
-  </si>
-  <si>
-    <t>أمل علاء الدين توكس</t>
-  </si>
-  <si>
-    <t>Estance John (استانس جون)</t>
-  </si>
-  <si>
-    <t>محمد اسامة</t>
-  </si>
-  <si>
-    <t>علي عبد النبي</t>
-  </si>
-  <si>
-    <t>أحمد عبد العظيم</t>
-  </si>
-  <si>
-    <t>رحيم مصطفى</t>
-  </si>
-  <si>
-    <t>فاطمة فوزي</t>
-  </si>
-  <si>
-    <t>عبدالرحمن ايهاب</t>
-  </si>
-  <si>
-    <t>ماثيو عماد</t>
-  </si>
-  <si>
-    <t>جون مدحت</t>
-  </si>
-  <si>
-    <t>عبد الله سليمان</t>
-  </si>
-  <si>
-    <t>تيم ليدر - محمد عبد الله</t>
-  </si>
-  <si>
-    <t>رقية زكريا</t>
-  </si>
-  <si>
-    <t>طالبية</t>
-  </si>
-  <si>
-    <t>زهرة الجاك</t>
-  </si>
-  <si>
-    <t>العشرين</t>
-  </si>
-  <si>
-    <t>يوسف ناصر</t>
-  </si>
-  <si>
-    <t>1286978689 / 249961368405 / 1065721642</t>
-  </si>
-  <si>
-    <t>صالح عمير</t>
-  </si>
-  <si>
-    <t>مجذوب عوض</t>
-  </si>
-  <si>
-    <t>طارق احمد السيسي</t>
-  </si>
-  <si>
-    <t>1554232307 / 249913279077</t>
-  </si>
-  <si>
-    <t>سماح محجوب صالح</t>
-  </si>
-  <si>
-    <t>عبد الرحمن عشري</t>
-  </si>
-  <si>
-    <t>عمر مدبولي</t>
-  </si>
-  <si>
-    <t>رحمة مدثر</t>
-  </si>
-  <si>
-    <t>مينا كارل</t>
-  </si>
-  <si>
-    <t>يحيى أحمد محمد طلب</t>
-  </si>
-  <si>
-    <t>منى صلاح</t>
-  </si>
-  <si>
-    <t>روان مدحت</t>
-  </si>
-  <si>
-    <t>أحمد أسامة صلاح</t>
-  </si>
-  <si>
-    <t>عمر بكري</t>
-  </si>
-  <si>
-    <t>يوسف طارق</t>
-  </si>
-  <si>
-    <t>يوسف خليل</t>
-  </si>
-  <si>
-    <t>1031434723/ 1080875417</t>
-  </si>
-  <si>
-    <t>عمر مصطفى</t>
-  </si>
-  <si>
-    <t>ندى نجد</t>
-  </si>
-  <si>
-    <t>علي الجندي</t>
-  </si>
-  <si>
-    <t>1102858041/1124701660</t>
-  </si>
-  <si>
-    <t>محمد نور</t>
-  </si>
-  <si>
-    <t>شادي احمد</t>
-  </si>
-  <si>
-    <t>ريان علي نور</t>
-  </si>
-  <si>
-    <t>تبيان أزهري</t>
-  </si>
-  <si>
-    <t>1501744558/1153843978</t>
-  </si>
-  <si>
-    <t>روحية عليتان صلاح الدين</t>
-  </si>
-  <si>
-    <t>كشرى هند الحي العاشر</t>
-  </si>
-  <si>
-    <t>1044758200 / 249904396614</t>
-  </si>
-  <si>
-    <t>عبدالله اشرف</t>
-  </si>
-  <si>
-    <t>طارق نصر محمد</t>
-  </si>
-  <si>
-    <t>عبد الله أحمد فتح الله</t>
-  </si>
-  <si>
-    <t>1044183469/249112356639</t>
-  </si>
-  <si>
-    <t>بنورة عز الدين</t>
-  </si>
-  <si>
-    <t>محمود مصطفى</t>
-  </si>
-  <si>
-    <t>شهد جلال</t>
-  </si>
-  <si>
-    <t>عز الدين اشرف</t>
-  </si>
-  <si>
-    <t>شريف عرفة أنور</t>
-  </si>
-  <si>
-    <t>رامز طارق رشاد</t>
-  </si>
-  <si>
-    <t>رفيق منصور</t>
-  </si>
-  <si>
-    <t>محمد امجد</t>
-  </si>
-  <si>
-    <t>سجا عبد السلام</t>
-  </si>
-  <si>
-    <t>احمد قرضاوي</t>
-  </si>
-  <si>
-    <t>تيم ليدر - احمد عبدالقادر</t>
-  </si>
-  <si>
-    <t>وئام تاج الدين</t>
-  </si>
-  <si>
-    <t>رأفة صلاح</t>
-  </si>
-  <si>
-    <t>محمد محسن</t>
-  </si>
-  <si>
-    <t>1069935066 / 1282029756</t>
-  </si>
-  <si>
-    <t>نور هشام</t>
-  </si>
-  <si>
-    <t>محمد احمد اسماعيل</t>
-  </si>
-  <si>
-    <t>جوري أمير فاروق عبدالعال</t>
-  </si>
-  <si>
-    <t>عبدالله هارون</t>
-  </si>
-  <si>
-    <t>هاجر محمد فكري</t>
-  </si>
-  <si>
-    <t>حباب خالد</t>
-  </si>
-  <si>
-    <t>محمد فتح الرحمن ابراهيم</t>
-  </si>
-  <si>
-    <t>خان ستيف</t>
-  </si>
-  <si>
-    <t>هدى عز</t>
-  </si>
-  <si>
-    <t>امجد احمد</t>
-  </si>
-  <si>
-    <t>عبد الرحمن وليد</t>
-  </si>
-  <si>
-    <t>نور الدين محمود</t>
-  </si>
-  <si>
-    <t>صلاح حسن صلاح</t>
-  </si>
-  <si>
-    <t>سهيلة هاني</t>
-  </si>
-  <si>
-    <t>اسلام الغمري</t>
-  </si>
-  <si>
-    <t>دنيا جابر</t>
-  </si>
-  <si>
-    <t>ليال عادل خالد الأمين</t>
-  </si>
-  <si>
-    <t>اية الحج</t>
-  </si>
-  <si>
-    <t>يوسف قاسم</t>
-  </si>
-  <si>
-    <t>عبد العزيز مجدي</t>
-  </si>
-  <si>
-    <t>هبة علي</t>
-  </si>
-  <si>
-    <t>1280410652/966530800596 / 1143556948</t>
-  </si>
-  <si>
-    <t>امجد عادل</t>
-  </si>
-  <si>
-    <t>فراس بن أسامة</t>
-  </si>
-  <si>
-    <t>1012396158 / 2349079401734</t>
-  </si>
-  <si>
-    <t>عبد الحميد إبراهيم إيانولوا</t>
-  </si>
-  <si>
-    <t>كشك اللحمه</t>
-  </si>
-  <si>
-    <t>يوسف حسن</t>
-  </si>
-  <si>
-    <t>فارس عصام الدين حسن خليفة</t>
-  </si>
-  <si>
-    <t>هادي عادل</t>
-  </si>
-  <si>
-    <t>كريم محمد علي عبد الجواد</t>
-  </si>
-  <si>
-    <t>سهيلة عاطف</t>
-  </si>
-  <si>
-    <t>مجدي منديل</t>
-  </si>
-  <si>
-    <t>حسن السيد</t>
-  </si>
-  <si>
-    <t>محمد عبد الباسط</t>
-  </si>
-  <si>
-    <t>ملاك انطون مهنا</t>
-  </si>
-  <si>
-    <t>تبيان سماوال عوض</t>
-  </si>
-  <si>
-    <t>1024194988  / 1224030197</t>
-  </si>
-  <si>
-    <t>محمد ابراهيم</t>
-  </si>
-  <si>
-    <t>هبة الله نوفل</t>
-  </si>
-  <si>
-    <t>آية محمد الصديق</t>
-  </si>
-  <si>
-    <t>يسرا أحمد محمد المصطفى</t>
-  </si>
-  <si>
-    <t>إياد خيري</t>
-  </si>
-  <si>
-    <t>عمرو خالد</t>
-  </si>
-  <si>
-    <t>Has a car</t>
-  </si>
-  <si>
-    <t>دان أحمد</t>
-  </si>
-  <si>
-    <t>1154256785 / 1070212444</t>
-  </si>
-  <si>
-    <t>محمد ياسر</t>
-  </si>
-  <si>
-    <t>محمود أنيس</t>
-  </si>
-  <si>
-    <t>زياد ثابت</t>
-  </si>
-  <si>
-    <t>هرم ستي</t>
-  </si>
-  <si>
-    <t>زينب عبدالله محمدالحسن</t>
-  </si>
-  <si>
-    <t>1222484297/61478776673</t>
-  </si>
-  <si>
-    <t>سليم عطا</t>
-  </si>
-  <si>
-    <t>مصطفى عبد الباسط</t>
-  </si>
-  <si>
-    <t>علي ابراهيم علي</t>
-  </si>
-  <si>
-    <t>خالد الهادي سعيد</t>
-  </si>
-  <si>
-    <t>عبدالله عمار</t>
-  </si>
-  <si>
-    <t>حبيبة خالد سلامة</t>
-  </si>
-  <si>
-    <t>من 3 م</t>
-  </si>
-  <si>
-    <t>لمى كرم</t>
-  </si>
-  <si>
-    <t>مايا مهدي</t>
-  </si>
-  <si>
-    <t>منيبة كرار</t>
-  </si>
-  <si>
-    <t>فياض حمدي</t>
-  </si>
-  <si>
-    <t>مصطفى محمد</t>
-  </si>
-  <si>
-    <t>المجداد احمد</t>
-  </si>
-  <si>
-    <t>1220116359 / 1023356963</t>
-  </si>
-  <si>
-    <t>راوية الصافي</t>
-  </si>
-  <si>
-    <t>إياد محمد</t>
-  </si>
-  <si>
-    <t>مؤمن عبد القدير سراج الدين</t>
-  </si>
-  <si>
-    <t>ابو سمرة ميدان التحرير</t>
-  </si>
-  <si>
-    <t>بال جون</t>
-  </si>
-  <si>
-    <t>لوجينا أحمد كامل</t>
-  </si>
-  <si>
-    <t>حازم حسام</t>
-  </si>
-  <si>
-    <t>امين عبد الحي</t>
-  </si>
-  <si>
-    <t>محمود عبد العليم</t>
-  </si>
-  <si>
-    <t>مصعب صديق</t>
-  </si>
-  <si>
-    <t>عمر بدوي</t>
-  </si>
-  <si>
-    <t>جودي موسى</t>
-  </si>
-  <si>
-    <t>تيم ليدر - عمرو ماجد</t>
-  </si>
-  <si>
-    <t>التوحيد والنور الاتوستراد</t>
-  </si>
-  <si>
-    <t>احمد مختار</t>
-  </si>
-  <si>
-    <t>يحيى لطفي</t>
-  </si>
-  <si>
-    <t>رضوى المصري</t>
-  </si>
-  <si>
-    <t>عبدالوهاب مالك</t>
-  </si>
-  <si>
-    <t>1212874368 / 967777756816</t>
-  </si>
-  <si>
-    <t>ماهر علي دهب</t>
-  </si>
-  <si>
-    <t>الاء ابراهيم عبد العزيز محمد</t>
-  </si>
-  <si>
-    <t>يوسف صديق</t>
-  </si>
-  <si>
-    <t>سجا عامر</t>
-  </si>
-  <si>
-    <t>ليلى حمدي</t>
-  </si>
-  <si>
-    <t>عمر الفاتح</t>
-  </si>
-  <si>
-    <t>لوكا اميل</t>
-  </si>
-  <si>
-    <t>1225392073 / 1550558440</t>
-  </si>
-  <si>
-    <t>يوسف طاهر</t>
-  </si>
-  <si>
-    <t>أسيل سامي</t>
-  </si>
-  <si>
-    <t>يوسف غرانت</t>
-  </si>
-  <si>
-    <t>جاسم أسامة</t>
-  </si>
-  <si>
-    <t>محمد ابوبكر</t>
-  </si>
-  <si>
-    <t>عمر عادل</t>
+    <t>احمد صبحي</t>
+  </si>
+  <si>
+    <t>عبدالله أيمن</t>
+  </si>
+  <si>
+    <t>محمود عاطف</t>
+  </si>
+  <si>
+    <t>تشول بول تشول</t>
+  </si>
+  <si>
+    <t>حبيبة جعفر</t>
   </si>
   <si>
     <t>عبدالله طارق</t>
   </si>
   <si>
-    <t>إياد ياسر</t>
-  </si>
-  <si>
-    <t>مازن اشرف</t>
-  </si>
-  <si>
-    <t>عبد الرؤوف محمود</t>
-  </si>
-  <si>
-    <t>سيف الشامي</t>
-  </si>
-  <si>
-    <t>الجزيره</t>
-  </si>
-  <si>
-    <t>محمد مصطفى</t>
-  </si>
-  <si>
-    <t>ياسين صبري</t>
-  </si>
-  <si>
-    <t>حسام الدين وليد مصطفى</t>
-  </si>
-  <si>
-    <t>1556802729/249966553605</t>
-  </si>
-  <si>
-    <t>محمد نادر عوض</t>
-  </si>
-  <si>
-    <t>مصطفى حازم</t>
-  </si>
-  <si>
-    <t>سعيد الليثي</t>
-  </si>
-  <si>
-    <t>الحي العاشر</t>
-  </si>
-  <si>
-    <t>هبة عثمان أحمد الطاهر</t>
-  </si>
-  <si>
-    <t>ممدوح تبدي</t>
-  </si>
-  <si>
-    <t>عمرو تامر</t>
-  </si>
-  <si>
-    <t>ندى أحمد جاسم</t>
-  </si>
-  <si>
-    <t>دانيا ياسر</t>
-  </si>
-  <si>
-    <t>1128109338_00249901091101</t>
-  </si>
-  <si>
-    <t>كريم الدين امير صلاح</t>
-  </si>
-  <si>
-    <t>مدثر أسامة</t>
-  </si>
-  <si>
-    <t>1559986500/249119446025</t>
-  </si>
-  <si>
-    <t>رائد ياسر</t>
-  </si>
-  <si>
-    <t>1500837996/249929419400</t>
-  </si>
-  <si>
-    <t>احمد عبد العظيم</t>
-  </si>
-  <si>
-    <t>سيف وائل</t>
-  </si>
-  <si>
-    <t>عبدالله غاندي عبدالله النويري</t>
-  </si>
-  <si>
-    <t>أندرو عادل إسحاق</t>
-  </si>
-  <si>
-    <t>حسام محمد نبيل حمدي</t>
-  </si>
-  <si>
-    <t>عبد الله جمال</t>
-  </si>
-  <si>
-    <t>أمل نبيل</t>
-  </si>
-  <si>
-    <t>بسنت أحمد سمير</t>
-  </si>
-  <si>
-    <t>حبيبة خالد</t>
-  </si>
-  <si>
-    <t>مريم ابو بكر</t>
-  </si>
-  <si>
-    <t>دهب محمد</t>
-  </si>
-  <si>
-    <t>بوابة تانية قديمة</t>
-  </si>
-  <si>
-    <t>اسلام وسام</t>
-  </si>
-  <si>
-    <t>محمد عبدون</t>
-  </si>
-  <si>
-    <t>يوسف عامر</t>
-  </si>
-  <si>
-    <t>حسام الامين</t>
-  </si>
-  <si>
-    <t>يمنى امير عبد الله</t>
-  </si>
-  <si>
-    <t>احمد شبل</t>
-  </si>
-  <si>
-    <t>1503323941/ 24911891811</t>
-  </si>
-  <si>
-    <t>خالد وليد</t>
-  </si>
-  <si>
-    <t>فاطمة الزين</t>
-  </si>
-  <si>
-    <t>منتصر الوسيلة</t>
-  </si>
-  <si>
-    <t>ميكائيل عبدالله</t>
-  </si>
-  <si>
-    <t>ميدان الجزيرة</t>
-  </si>
-  <si>
-    <t>آدم منصور</t>
-  </si>
-  <si>
-    <t>مراد مصطفى كمال</t>
-  </si>
-  <si>
-    <t>مازن الباجوري</t>
-  </si>
-  <si>
-    <t>مصطفى مدحت</t>
-  </si>
-  <si>
-    <t>نور الدين</t>
-  </si>
-  <si>
-    <t>روان عصمت</t>
-  </si>
-  <si>
-    <t>ريم عباس</t>
-  </si>
-  <si>
-    <t>ملاك معتصم</t>
-  </si>
-  <si>
-    <t>مريم حسن</t>
-  </si>
-  <si>
-    <t>1158774994/ 1551575778</t>
-  </si>
-  <si>
-    <t>محمد خالد</t>
-  </si>
-  <si>
-    <t>أحمد مصطفى كامل</t>
-  </si>
-  <si>
-    <t>ضحى عامر</t>
-  </si>
-  <si>
-    <t>1273412666/249969118005</t>
-  </si>
-  <si>
-    <t>باسل معتز</t>
-  </si>
-  <si>
-    <t>مريم رشوان</t>
-  </si>
-  <si>
-    <t>محمد ابو بكر</t>
-  </si>
-  <si>
-    <t>محمد علاء</t>
-  </si>
-  <si>
-    <t>1557655853 / 249965691878</t>
-  </si>
-  <si>
-    <t>عبد المنعم خالد</t>
-  </si>
-  <si>
-    <t>249122099066/1551258200</t>
-  </si>
-  <si>
-    <t>عثمان نورالدين</t>
-  </si>
-  <si>
-    <t>هتون ناجي</t>
-  </si>
-  <si>
-    <t>ندى سعد</t>
-  </si>
-  <si>
-    <t>احمد المنياوي</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>مؤمن صلاح</t>
-  </si>
-  <si>
-    <t>محمود حسن</t>
-  </si>
-  <si>
-    <t>احمد صبحي</t>
-  </si>
-  <si>
-    <t>عبدالله أيمن</t>
-  </si>
-  <si>
-    <t>ياسين عمرو</t>
-  </si>
-  <si>
-    <t>محمود عاطف</t>
-  </si>
-  <si>
-    <t>حبيبة جعفر</t>
-  </si>
-  <si>
     <t>رنا شمس الدين</t>
   </si>
   <si>
@@ -2365,13 +2386,7 @@
     <t>الطاهر شمس الدين</t>
   </si>
   <si>
-    <t>فاطمة الزهراء</t>
-  </si>
-  <si>
     <t>يوسف عبد الله</t>
-  </si>
-  <si>
-    <t>مارتن ناير</t>
   </si>
   <si>
     <t>1552409918 / +249966293122</t>
@@ -2652,7 +2667,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2680,6 +2695,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3021,7 +3042,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3045,16 +3066,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3063,85 +3084,85 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -3155,7 +3176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3235,13 +3256,19 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5741,611 +5768,611 @@
     </dxf>
   </dxfs>
   <tableStyles count="152" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{AD8689FC-46F9-4C99-842A-0CA99D106866}">
+    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{6C35261E-7279-48F9-B306-830EE0DBF540}">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{307AAA86-F2A0-4B6D-8329-464C5D33BA04}">
+    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{415C891A-E8B1-43F9-8E80-3C090AAB9072}">
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{BD04AB99-CAD5-45E7-BFFC-185193718C90}">
+    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{B45130AC-CFDE-41AA-937B-CD2193BBAA3B}">
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{88C2FA41-F1AD-41DA-BA6B-63FDDE1B854F}">
+    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{D2CC0FFD-107D-4ECA-A0EB-2C6AFDA3DA4F}">
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{AF8AE476-4B12-4E90-9BE0-BA4421C3C88D}">
+    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{A041C2AB-8FEF-4690-A8B8-8A8577510062}">
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{EA201F21-471C-47BB-AD5C-A50D912FD95F}">
+    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{DAE3E0D1-C27D-4524-A076-3B9ABA48A440}">
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{4F74910C-B5EE-4516-91C7-0463D79F4E6C}">
+    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{80107CCB-93A2-4D00-BCA6-F917E52FE2C1}">
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{A7239B66-AE7B-4FBD-95D5-07A7AFF54075}">
+    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{B16F2809-5C57-4D0B-84AD-64FF0C2C96E7}">
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{C53F1812-9F40-4B58-8BED-20A5D393D99B}">
+    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{D18562E2-9884-4493-B351-8FEA42064DBC}">
       <tableStyleElement type="firstRowStripe" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{E4701F95-F5A2-4C08-A34F-64E7D42ABB0F}">
+    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{191009C3-BEBE-4A7D-B409-41CAB7A08169}">
       <tableStyleElement type="firstRowStripe" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{1EEC40E3-5CB7-437F-B5F6-D14415710944}">
+    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{6DDB253C-D892-4B31-AEF1-DB6DBC937508}">
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
       <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{DD34B354-BE5F-4FCA-9F6D-651EFD5BB500}">
+    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{B4498A66-8F14-4C35-8F1F-CA7DB30589D4}">
       <tableStyleElement type="firstRowStripe" dxfId="23"/>
       <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{ABD979FE-5BAF-4272-8DDC-602FA604B9FE}">
+    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{7C4EF1C9-CFF1-49F3-B52D-788224EC6E16}">
       <tableStyleElement type="firstRowStripe" dxfId="25"/>
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{91FEED9C-1532-4169-B83F-A8C70A6436F0}">
+    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{844F0F59-6C33-4349-81F0-94561EF74CB7}">
       <tableStyleElement type="firstRowStripe" dxfId="27"/>
       <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{AD18A4A5-D67E-4F48-B2FC-6140A6200471}">
+    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{32D84764-BD59-4718-8BB5-C9A6464DB29B}">
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
       <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{B5DE8FB2-5177-46A9-9068-0D6C69565B4F}">
+    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{9D9072E9-7497-4F41-A5FB-DA1A0E0B9E3E}">
       <tableStyleElement type="firstRowStripe" dxfId="31"/>
       <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{5EF035B7-9A8C-4B56-91C2-E57F51CDA817}">
+    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{86925189-E6C2-483B-A71F-5B7C35424096}">
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{D1420BED-20C5-493E-94F3-44DE1053A55D}">
+    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{382BF04A-677F-4146-92FE-6AA7331BE969}">
       <tableStyleElement type="firstRowStripe" dxfId="35"/>
       <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{7736E090-2149-4DD1-8EC0-1670CD302895}">
+    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{B6915F5E-7609-4C10-A668-049041F69839}">
       <tableStyleElement type="firstRowStripe" dxfId="37"/>
       <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{AE7263B3-88FA-4EC5-829F-F6BD5A5A2F91}">
+    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{F95AE95B-C93E-404C-8EEA-F34E2B792895}">
       <tableStyleElement type="firstRowStripe" dxfId="39"/>
       <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{429FBC41-475E-46C3-9307-190A5EB3D460}">
+    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{195862F4-A605-4AA5-B0A4-A37941A401A7}">
       <tableStyleElement type="firstRowStripe" dxfId="41"/>
       <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{E091BF8D-148E-4526-9C1A-E1A7C073F6ED}">
+    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{85BD1E54-54BD-47C1-967C-D2C7E99B6A77}">
       <tableStyleElement type="firstRowStripe" dxfId="43"/>
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{EE60D171-93C2-4DAE-9DBB-C935E913E885}">
+    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{F49C2A55-3E2D-4F99-9E59-045034649E52}">
       <tableStyleElement type="firstRowStripe" dxfId="45"/>
       <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{CAD1ED32-28D7-4DCF-B3BE-EFFF79AD2D3C}">
+    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{BB0E49A4-960B-48F9-A30D-6371FF48C262}">
       <tableStyleElement type="firstRowStripe" dxfId="47"/>
       <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{4D0A6CE2-2873-4304-ACA8-88183BA9C2F0}">
+    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{5F060143-E44B-4198-984A-0DF2FA6625CE}">
       <tableStyleElement type="firstRowStripe" dxfId="49"/>
       <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{818368D4-5796-4128-A64C-864487EC7989}">
+    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{A6790F5C-3A21-4D23-AF0C-F7B4507408BE}">
       <tableStyleElement type="firstRowStripe" dxfId="51"/>
       <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{4BC695DF-4111-4DB8-B96D-ACACADFABB26}">
+    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{6ECAB81C-5AD8-4DC4-BACF-28743F90A2D1}">
       <tableStyleElement type="firstRowStripe" dxfId="53"/>
       <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{0A8DE226-FDA6-4EDD-846E-A32E3A220FE0}">
+    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{3BA7C86E-870D-471C-9BE5-F84FDAE834F1}">
       <tableStyleElement type="firstRowStripe" dxfId="55"/>
       <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{DDA4AD46-C0EE-4D9D-A9A7-1365481D9A50}">
+    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{AF118969-4F72-49A8-8F57-991DA9459735}">
       <tableStyleElement type="firstRowStripe" dxfId="57"/>
       <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{A389E508-AEF2-4426-A365-44AB0766CB6A}">
+    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{835202FD-B308-45EC-ADD4-FC64A68B719C}">
       <tableStyleElement type="firstRowStripe" dxfId="59"/>
       <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{30CA2BB2-2825-41E6-93B7-CC4DB792E29B}">
+    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{A193D01C-AB81-4671-9A7F-D6C79B67DAF8}">
       <tableStyleElement type="firstRowStripe" dxfId="61"/>
       <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{6D2967EC-4FE4-4C1F-8E5E-43091C13B079}">
+    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{5E7ADF00-CB10-4178-AE20-7E8F97968931}">
       <tableStyleElement type="firstRowStripe" dxfId="63"/>
       <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{C1BC29A6-9CD1-4DD1-B7E9-2CEF58BF795B}">
+    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{BA51095F-6EB7-4346-965F-A443A00EF20D}">
       <tableStyleElement type="firstRowStripe" dxfId="65"/>
       <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{E2AB41DF-019F-4883-ACFC-E1C32FA9B467}">
+    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{997F85C3-345D-496C-9E21-136E44274753}">
       <tableStyleElement type="firstRowStripe" dxfId="67"/>
       <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{377D7B4F-3307-45DC-B7D5-B4271502C6A5}">
+    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{499D3F2A-C1F0-47F0-9458-1D7B9873947C}">
       <tableStyleElement type="firstRowStripe" dxfId="69"/>
       <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{1A9ECB5D-F5BE-45AB-A1CA-3A735BC309C4}">
+    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{53B8FC9D-0D4B-48E3-AF8F-7739F14E225E}">
       <tableStyleElement type="firstRowStripe" dxfId="71"/>
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{DE7433B6-0366-4869-8720-5B15F7AA1CDB}">
+    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{68C7E006-6DBD-440E-8062-3F44062D30F2}">
       <tableStyleElement type="firstRowStripe" dxfId="73"/>
       <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{1D390D98-6835-4CC0-AC84-2F64484CAAF8}">
+    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{31900AE5-FCAE-4213-ADA4-C21E9DADE50E}">
       <tableStyleElement type="firstRowStripe" dxfId="75"/>
       <tableStyleElement type="secondRowStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{D1765A81-DA3D-4370-ACBE-CB34FC523517}">
+    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{377CCD90-FA02-4ABC-BA33-9F9F77724CEA}">
       <tableStyleElement type="firstRowStripe" dxfId="77"/>
       <tableStyleElement type="secondRowStripe" dxfId="76"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{A56BDE35-96E5-4C37-83C4-24F7EB7567A0}">
+    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{608FE7F0-F4E1-452E-8C35-0370E9061B29}">
       <tableStyleElement type="firstRowStripe" dxfId="79"/>
       <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{6EB98C6B-27E1-4443-973D-CA9D156C4AD0}">
+    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{C3E29128-3294-47A5-9EF1-AF992332F8FC}">
       <tableStyleElement type="firstRowStripe" dxfId="81"/>
       <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{C44F3EE0-068E-405B-947E-1F7C39C887F7}">
+    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{6CAF08EE-D3C3-4B2E-8E19-EDCB97E8B232}">
       <tableStyleElement type="firstRowStripe" dxfId="83"/>
       <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{ADA12125-4B95-46E0-84F0-5399CDC9F417}">
+    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{0431A41B-F998-49EB-9614-FBEBBF07DB41}">
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
       <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{5FEF8858-AC42-4665-87BB-49295F1709E3}">
+    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{0493D810-E9F8-4605-A631-4A4EC4AF1720}">
       <tableStyleElement type="firstRowStripe" dxfId="87"/>
       <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{F95F5E20-E49A-4C06-BA5C-AB049CF31350}">
+    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{C7768AF8-1522-40F3-9216-0E6FA538C111}">
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{09E7DD32-68E2-444B-9086-882267ABF192}">
+    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{A0BCFEC0-F5D6-4D69-B14A-886B16C8263D}">
       <tableStyleElement type="firstRowStripe" dxfId="91"/>
       <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{3EE7F4CD-9E4A-4EA3-93A4-A2294D8D61F7}">
+    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{E9AC1417-1F51-4C06-8A91-44161E8E07C9}">
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{77D86142-8F62-4DE9-BD67-7A05588F4E4E}">
+    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{D4C37BC8-3E76-4FEC-A54E-938B4D7FD231}">
       <tableStyleElement type="firstRowStripe" dxfId="95"/>
       <tableStyleElement type="secondRowStripe" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{DF00F146-A3AD-413D-8396-2B4EF4E4BC99}">
+    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{20235766-A7AA-43B3-944F-A0A06C5F9838}">
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{14B81F03-F0C8-4596-B224-B1C05A656EAF}">
+    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{AACA69FA-5D39-4F6A-A9D1-F77F7B0CD898}">
       <tableStyleElement type="firstRowStripe" dxfId="99"/>
       <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{71B4C4C9-DB37-431E-AE96-476ECB692033}">
+    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{CAFC36FC-F0B7-4991-B730-46C6303C4FA0}">
       <tableStyleElement type="firstRowStripe" dxfId="101"/>
       <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{BF2B1B35-B1B4-4E30-86F1-DAF8B83A935B}">
+    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{9BA6AF04-722D-4C8E-87B2-7A07A2072DD3}">
       <tableStyleElement type="firstRowStripe" dxfId="103"/>
       <tableStyleElement type="secondRowStripe" dxfId="102"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{3F70C1E7-DAC5-4842-9EF2-233D7F7850FC}">
+    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{9E0B3B32-6921-4FAD-8887-F276E41570DC}">
       <tableStyleElement type="firstRowStripe" dxfId="105"/>
       <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{3FD669AA-B937-464C-8A9A-E78B9CD21E97}">
+    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{8873FD3B-E2B7-43B7-A199-CCBB44AE37F6}">
       <tableStyleElement type="firstRowStripe" dxfId="107"/>
       <tableStyleElement type="secondRowStripe" dxfId="106"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{9E008685-66A2-499B-ACF8-8C4497D5E19C}">
+    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{A07386E3-46B2-4D00-93C3-E5CC9015F137}">
       <tableStyleElement type="firstRowStripe" dxfId="109"/>
       <tableStyleElement type="secondRowStripe" dxfId="108"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{11839320-D7E3-4782-8823-F858AAB7B260}">
+    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{68B08645-BD2F-40A4-8948-6383D30B6A2E}">
       <tableStyleElement type="firstRowStripe" dxfId="111"/>
       <tableStyleElement type="secondRowStripe" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{174225A7-751E-4260-A3C5-0EBF80C29278}">
+    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{BA5909C7-A3E8-4129-9C82-1335AA8C6524}">
       <tableStyleElement type="firstRowStripe" dxfId="113"/>
       <tableStyleElement type="secondRowStripe" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{E52ACAF2-20A2-4DF9-BF04-082783E81EB6}">
+    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{63372B25-F9CB-44DB-BBFA-771B71F17950}">
       <tableStyleElement type="firstRowStripe" dxfId="115"/>
       <tableStyleElement type="secondRowStripe" dxfId="114"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{F69B8ADC-E462-4E9C-B2A6-58D17EC703BC}">
+    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{861D5857-C94E-48B4-848F-87D69EF3B832}">
       <tableStyleElement type="firstRowStripe" dxfId="117"/>
       <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{58965DA2-6124-423D-B581-C72A0E0CF920}">
+    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{46CE14C0-0D9E-4E65-974B-E1569EEF6A38}">
       <tableStyleElement type="firstRowStripe" dxfId="119"/>
       <tableStyleElement type="secondRowStripe" dxfId="118"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{3C5C8F8D-A0FF-4E6E-998F-F6B911BD0BA0}">
+    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{E8B82677-51D5-4C56-933E-60D887CDD735}">
       <tableStyleElement type="firstRowStripe" dxfId="121"/>
       <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{3DD9B516-8745-43DD-9200-00E0F855EA2D}">
+    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{781639A0-8AB7-44A9-834A-1260AD3E5A16}">
       <tableStyleElement type="firstRowStripe" dxfId="123"/>
       <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{D838397C-AB6E-40C2-90A4-4EC7619EC1C0}">
+    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{6469EAA3-D224-499A-8FB3-90A3D80D633F}">
       <tableStyleElement type="firstRowStripe" dxfId="125"/>
       <tableStyleElement type="secondRowStripe" dxfId="124"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{7ECD4648-2EA9-49DE-8C42-4E98AFDCD186}">
+    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{7BF31B44-B23C-4C6C-828F-0A5490B490EB}">
       <tableStyleElement type="firstRowStripe" dxfId="127"/>
       <tableStyleElement type="secondRowStripe" dxfId="126"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{71A31452-A24A-4E01-A545-1A5F50671147}">
+    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{7F03ADDB-1E6E-4D7E-8310-A503182C43C4}">
       <tableStyleElement type="firstRowStripe" dxfId="129"/>
       <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{B65D0E83-A457-457C-AE2B-15F738D239A5}">
+    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{88D120B0-8177-4A35-BD37-02191E160287}">
       <tableStyleElement type="firstRowStripe" dxfId="131"/>
       <tableStyleElement type="secondRowStripe" dxfId="130"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{BD2125EF-80D0-4217-8E11-C37189FC7EF9}">
+    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{37E1E4E6-BF9E-4071-8DF0-77BAF062CD37}">
       <tableStyleElement type="firstRowStripe" dxfId="133"/>
       <tableStyleElement type="secondRowStripe" dxfId="132"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{B1AE97F9-9AC8-48AD-B9CE-577A59D18DB9}">
+    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{81097CA1-BD96-49C8-862D-A04FA77F8C90}">
       <tableStyleElement type="firstRowStripe" dxfId="135"/>
       <tableStyleElement type="secondRowStripe" dxfId="134"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{09FE1474-19AC-41D4-9FC4-2DA811538069}">
+    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{B97DCA63-3381-4BAA-AAE5-322C6BBEA74A}">
       <tableStyleElement type="firstRowStripe" dxfId="137"/>
       <tableStyleElement type="secondRowStripe" dxfId="136"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{98CB25AB-1CBE-4E9D-BECC-672852544424}">
+    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{AD245180-2807-4EDB-BF74-94ED8AC87380}">
       <tableStyleElement type="firstRowStripe" dxfId="139"/>
       <tableStyleElement type="secondRowStripe" dxfId="138"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{BA9E8A09-D021-447C-8821-28BF96F4E82A}">
+    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{9E0036E1-6334-44DA-A815-F6BF25A49505}">
       <tableStyleElement type="firstRowStripe" dxfId="141"/>
       <tableStyleElement type="secondRowStripe" dxfId="140"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{3799C92C-C65B-4DC6-AD37-A7AB348B051B}">
+    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{8A4751D2-3788-45B0-AA14-A77160B194B1}">
       <tableStyleElement type="firstRowStripe" dxfId="143"/>
       <tableStyleElement type="secondRowStripe" dxfId="142"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{6654622B-B385-4B85-AF39-E67952117851}">
+    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{9B7FAF94-25B3-4C98-8C13-A302DE60BDCC}">
       <tableStyleElement type="firstRowStripe" dxfId="145"/>
       <tableStyleElement type="secondRowStripe" dxfId="144"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{C4B7F931-8B5E-49B6-B1CD-9AEBE2C459F8}">
+    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{E81E2FDC-4F51-4CE8-A308-CB3C60B283DC}">
       <tableStyleElement type="firstRowStripe" dxfId="147"/>
       <tableStyleElement type="secondRowStripe" dxfId="146"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{1DD79736-55AA-4D27-A8F8-2EC601BDB10D}">
+    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{BAA3C0EF-AEBE-4DB4-8147-0B830C4A1934}">
       <tableStyleElement type="firstRowStripe" dxfId="149"/>
       <tableStyleElement type="secondRowStripe" dxfId="148"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{26B150B6-26DC-4E83-9702-30D8F1586EA5}">
+    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{F3A52A3B-FF40-41FC-9D28-73428BE04B99}">
       <tableStyleElement type="firstRowStripe" dxfId="151"/>
       <tableStyleElement type="secondRowStripe" dxfId="150"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{D71024F2-FA54-4001-8460-55EA433DE29F}">
+    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{0D0D4688-64A0-4688-929D-039BA461D6F4}">
       <tableStyleElement type="firstRowStripe" dxfId="153"/>
       <tableStyleElement type="secondRowStripe" dxfId="152"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{4F710193-708B-471C-BB7A-A3969087FCAF}">
+    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{46F6D7CA-B01B-4ED8-B183-26EA0B19106E}">
       <tableStyleElement type="firstRowStripe" dxfId="155"/>
       <tableStyleElement type="secondRowStripe" dxfId="154"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{DEA5E298-422E-412D-BCDB-F04966F50142}">
+    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{CCFB220F-535B-4CAC-B2F2-F7A49A50E45E}">
       <tableStyleElement type="firstRowStripe" dxfId="157"/>
       <tableStyleElement type="secondRowStripe" dxfId="156"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{1DCC8611-3A19-480A-BDA2-55246AD2C4A2}">
+    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{784C3365-015A-475E-B407-93DB52C82E63}">
       <tableStyleElement type="firstRowStripe" dxfId="159"/>
       <tableStyleElement type="secondRowStripe" dxfId="158"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{B2EA72B3-E330-4597-B19B-0700E23C7DE6}">
+    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{3237A63D-FEBF-4CE3-9965-7609E539B5B8}">
       <tableStyleElement type="firstRowStripe" dxfId="161"/>
       <tableStyleElement type="secondRowStripe" dxfId="160"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{5AD3B997-8EF8-456F-B3E2-5A1FBE63399E}">
+    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{157DA742-2D3D-4D31-BA1E-168B56D94BC9}">
       <tableStyleElement type="firstRowStripe" dxfId="163"/>
       <tableStyleElement type="secondRowStripe" dxfId="162"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{577565DA-9CC5-47B4-BCE0-137FB6BCF169}">
+    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{D003EF53-5784-4B5F-AB96-801C0BCDE2B3}">
       <tableStyleElement type="firstRowStripe" dxfId="165"/>
       <tableStyleElement type="secondRowStripe" dxfId="164"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{1C83BD27-604E-4318-A17F-E63ADEF8268B}">
+    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{D1B5DA86-1BFA-454B-96DA-D2051EB9DB68}">
       <tableStyleElement type="firstRowStripe" dxfId="167"/>
       <tableStyleElement type="secondRowStripe" dxfId="166"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{27ABE77D-9387-41A8-822C-2CF3AE426452}">
+    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{94D23FD6-8A7A-4DCD-BF31-FD47E5993EF9}">
       <tableStyleElement type="firstRowStripe" dxfId="169"/>
       <tableStyleElement type="secondRowStripe" dxfId="168"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{7988A3C7-49C2-48EF-80F9-0F45B9A07880}">
+    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{591C1F5A-0DAE-4C38-B759-230BFEAEAC78}">
       <tableStyleElement type="firstRowStripe" dxfId="171"/>
       <tableStyleElement type="secondRowStripe" dxfId="170"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{020CBCF9-17A7-4EDF-8DA8-69344209FF54}">
+    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{73CB672B-A999-477D-A668-369CDA9C7308}">
       <tableStyleElement type="firstRowStripe" dxfId="173"/>
       <tableStyleElement type="secondRowStripe" dxfId="172"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{1CD413FA-5CA6-46C9-B6E9-4F7B7718021D}">
+    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{C73AFED8-3EA6-449A-9398-B77E6C4EF794}">
       <tableStyleElement type="firstRowStripe" dxfId="175"/>
       <tableStyleElement type="secondRowStripe" dxfId="174"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{B8A2E2B2-114E-4628-BF45-0309545F1280}">
+    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{6888A1B0-341C-4A35-9C5E-2C9157A71585}">
       <tableStyleElement type="firstRowStripe" dxfId="177"/>
       <tableStyleElement type="secondRowStripe" dxfId="176"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{4AD7CB36-01B9-4D5E-BC6D-6835777B432F}">
+    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{6FA1CDB6-5407-462D-A6FB-BF360034708E}">
       <tableStyleElement type="firstRowStripe" dxfId="179"/>
       <tableStyleElement type="secondRowStripe" dxfId="178"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{BE448962-54F0-462C-AEDE-F345CF31C893}">
+    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{369260D5-920F-489F-9A0E-776AF0BE32F8}">
       <tableStyleElement type="firstRowStripe" dxfId="181"/>
       <tableStyleElement type="secondRowStripe" dxfId="180"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{1BBDA202-1163-422A-8A92-632732F8A563}">
+    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{8F0334B0-CE6A-4F9E-8D4D-4DE0ED688ED0}">
       <tableStyleElement type="firstRowStripe" dxfId="183"/>
       <tableStyleElement type="secondRowStripe" dxfId="182"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{1B2BF91E-3D73-428E-921B-57A191B90937}">
+    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{2445FA12-2C41-42AD-B7BF-A3A455067719}">
       <tableStyleElement type="firstRowStripe" dxfId="185"/>
       <tableStyleElement type="secondRowStripe" dxfId="184"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{75009B56-C576-4755-952B-0B90CA4C5DEC}">
+    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{A8476F19-726D-46F7-B8E3-02D334CD3011}">
       <tableStyleElement type="firstRowStripe" dxfId="187"/>
       <tableStyleElement type="secondRowStripe" dxfId="186"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{347FCE0E-05C3-40DD-B834-A1675C1663DD}">
+    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{E902E77C-D00B-4E07-AD8E-A5781791A64C}">
       <tableStyleElement type="firstRowStripe" dxfId="189"/>
       <tableStyleElement type="secondRowStripe" dxfId="188"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{EF7C73C2-10FD-4D40-B809-F94D641980FE}">
+    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{53A23256-317F-4A6E-A6C0-B696A9F48FEE}">
       <tableStyleElement type="firstRowStripe" dxfId="191"/>
       <tableStyleElement type="secondRowStripe" dxfId="190"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{948D81F3-5BB3-4089-B476-D7E2A9C46EFF}">
+    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{10932E6A-6793-4FC9-B26B-369BE016E5EE}">
       <tableStyleElement type="firstRowStripe" dxfId="193"/>
       <tableStyleElement type="secondRowStripe" dxfId="192"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{BD93EBC7-CBC7-4EB9-B65E-40D8637D16D7}">
+    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{FEAB3576-4551-411B-91C3-6AE9096BCB08}">
       <tableStyleElement type="firstRowStripe" dxfId="195"/>
       <tableStyleElement type="secondRowStripe" dxfId="194"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{AC4D7F14-83BF-42B3-9AA4-12A3E2BFEE8E}">
+    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{40340F20-2F6D-494A-994A-58A3CA62F953}">
       <tableStyleElement type="firstRowStripe" dxfId="197"/>
       <tableStyleElement type="secondRowStripe" dxfId="196"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{6F399B8E-B649-4DCA-8273-8E3CEC8AB6AB}">
+    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{A91A1515-D946-45B5-BD75-2E1852DA9FD0}">
       <tableStyleElement type="firstRowStripe" dxfId="199"/>
       <tableStyleElement type="secondRowStripe" dxfId="198"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{036D66B5-4C15-41F7-8982-89F9B5CD3B72}">
+    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{CECECFE2-E0CE-4669-9D39-4CA2B11A0CA8}">
       <tableStyleElement type="firstRowStripe" dxfId="201"/>
       <tableStyleElement type="secondRowStripe" dxfId="200"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{078B2D73-E676-42EA-BC3F-ABBC685A773D}">
+    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{EFC5815E-5A5D-4D4D-BCBF-A4BDB9DDF0A6}">
       <tableStyleElement type="firstRowStripe" dxfId="203"/>
       <tableStyleElement type="secondRowStripe" dxfId="202"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{6F48590F-AF84-45B8-B065-03436C057DB3}">
+    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{D5778D1F-B8F3-49C6-A4F4-3031720652B4}">
       <tableStyleElement type="firstRowStripe" dxfId="205"/>
       <tableStyleElement type="secondRowStripe" dxfId="204"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{940CDE5D-C322-44BB-8AEB-56E4163ACA83}">
+    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{078D3B9E-2263-4287-86A2-31D4B329053B}">
       <tableStyleElement type="firstRowStripe" dxfId="207"/>
       <tableStyleElement type="secondRowStripe" dxfId="206"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{B743634A-D56A-4864-BD1B-E426711920F3}">
+    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{2689A25B-FE9E-4A76-93E1-E0A348640F5F}">
       <tableStyleElement type="firstRowStripe" dxfId="209"/>
       <tableStyleElement type="secondRowStripe" dxfId="208"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{9F95C7B8-7B09-4E09-BA79-854EED053253}">
+    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{59819B9A-A25C-4337-9930-1C85816170FE}">
       <tableStyleElement type="firstRowStripe" dxfId="211"/>
       <tableStyleElement type="secondRowStripe" dxfId="210"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{FE860C0D-B4AE-4CE1-9BCD-0E928A8E1E45}">
+    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{E5BA8654-FFDD-4E8E-BF3E-67020303E3D9}">
       <tableStyleElement type="firstRowStripe" dxfId="213"/>
       <tableStyleElement type="secondRowStripe" dxfId="212"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{AD57155F-E76C-4EE1-973E-208EB45FFBC7}">
+    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{D489069F-7489-4C7B-969F-A7CF8644AA82}">
       <tableStyleElement type="firstRowStripe" dxfId="215"/>
       <tableStyleElement type="secondRowStripe" dxfId="214"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{D611C962-EF15-41BA-9D1A-6DEECC964115}">
+    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{D1A8F93F-5ABC-42F7-BD11-D35D6184903E}">
       <tableStyleElement type="firstRowStripe" dxfId="217"/>
       <tableStyleElement type="secondRowStripe" dxfId="216"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{0E19AE57-D117-4880-9307-B117F2F35E1C}">
+    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{F7E65DEF-8832-4686-8BC3-DB3C8F2E9074}">
       <tableStyleElement type="firstRowStripe" dxfId="219"/>
       <tableStyleElement type="secondRowStripe" dxfId="218"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{4A29C3FB-BCEA-48DD-B87C-76C032605D39}">
+    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{90C33123-E2B7-4EAA-B349-1EAFC6571E88}">
       <tableStyleElement type="firstRowStripe" dxfId="221"/>
       <tableStyleElement type="secondRowStripe" dxfId="220"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{0DE777EE-9BBE-43F4-A9A1-2BAA4B32620E}">
+    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{9C67B129-E880-42D7-92EB-28C3343677FD}">
       <tableStyleElement type="firstRowStripe" dxfId="223"/>
       <tableStyleElement type="secondRowStripe" dxfId="222"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{333F927C-7B87-4E01-A2E2-F175DFC08511}">
+    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{59730A01-65D9-4601-B07E-CE88AB05DA78}">
       <tableStyleElement type="firstRowStripe" dxfId="225"/>
       <tableStyleElement type="secondRowStripe" dxfId="224"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{A3801D0B-B631-4D28-B26A-CDD37DCBE09E}">
+    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{CE05C039-AE08-48C1-B9B5-4F20E4E02246}">
       <tableStyleElement type="firstRowStripe" dxfId="227"/>
       <tableStyleElement type="secondRowStripe" dxfId="226"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{80DB382F-2901-481D-BCDF-475394ECBD71}">
+    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{AAE8D0C2-2C69-4827-B0D9-D954D4AD7DE0}">
       <tableStyleElement type="firstRowStripe" dxfId="229"/>
       <tableStyleElement type="secondRowStripe" dxfId="228"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{F360167F-91D1-4A44-8C82-16202AB09314}">
+    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{3B2115A9-D9E1-493E-B850-50B318DEBB95}">
       <tableStyleElement type="firstRowStripe" dxfId="231"/>
       <tableStyleElement type="secondRowStripe" dxfId="230"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{66D74055-9C78-4799-8D9E-B4F48E01D252}">
+    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{763A3085-6A81-47A0-8DA1-A759A50AC9C4}">
       <tableStyleElement type="firstRowStripe" dxfId="233"/>
       <tableStyleElement type="secondRowStripe" dxfId="232"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{7ACC2614-63CB-4088-95FD-1E38E469E6D6}">
+    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{186992E6-8FC3-470C-8592-4F33151700EB}">
       <tableStyleElement type="firstRowStripe" dxfId="235"/>
       <tableStyleElement type="secondRowStripe" dxfId="234"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{810EABB6-E1A7-4972-8116-C7DA7092E9E4}">
+    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{17802506-4378-47A9-A113-E8EE4E684788}">
       <tableStyleElement type="firstRowStripe" dxfId="237"/>
       <tableStyleElement type="secondRowStripe" dxfId="236"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{ED1FF03B-C4F3-4F46-B6D0-563238D4E8BE}">
+    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{A94DCDFD-E689-466C-B476-0BE14EB23E0F}">
       <tableStyleElement type="firstRowStripe" dxfId="239"/>
       <tableStyleElement type="secondRowStripe" dxfId="238"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{46C7D6C0-77CD-4D5E-806C-1A7CF32E5CDA}">
+    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{FAB50D4F-82AC-472C-A84A-FBE7826619CF}">
       <tableStyleElement type="firstRowStripe" dxfId="241"/>
       <tableStyleElement type="secondRowStripe" dxfId="240"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{52EDEBF8-7EF5-4765-B2BA-FFECEAAB95C4}">
+    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{E4A71B9A-416C-4A0D-8DD6-89B5A7B0E265}">
       <tableStyleElement type="firstRowStripe" dxfId="243"/>
       <tableStyleElement type="secondRowStripe" dxfId="242"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{6738CF85-FC05-4965-BCD0-CD7F21F07BD9}">
+    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{BDBE8CDB-AD97-44CD-BC27-CA42B28244D3}">
       <tableStyleElement type="firstRowStripe" dxfId="245"/>
       <tableStyleElement type="secondRowStripe" dxfId="244"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{3EB0BD0B-ECF2-4316-A6A0-AACE602A79C2}">
+    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{AA1B7950-DBA5-4435-8CD0-732B1032D124}">
       <tableStyleElement type="firstRowStripe" dxfId="247"/>
       <tableStyleElement type="secondRowStripe" dxfId="246"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{6E759C42-0E71-4AB2-95DE-0371DE610EF7}">
+    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{81E7C414-7BD7-4F96-8A29-E44552A51E27}">
       <tableStyleElement type="firstRowStripe" dxfId="249"/>
       <tableStyleElement type="secondRowStripe" dxfId="248"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{AD0D85D3-22E3-4E7C-BAA2-4596397F63C9}">
+    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{04C1C694-2CEB-4F62-A728-3ADD7A2BADDC}">
       <tableStyleElement type="firstRowStripe" dxfId="251"/>
       <tableStyleElement type="secondRowStripe" dxfId="250"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{3C33E14D-0E66-4792-A10F-8E9771DA6495}">
+    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{4F733491-F27F-42F0-8075-5F54D4353BD3}">
       <tableStyleElement type="firstRowStripe" dxfId="253"/>
       <tableStyleElement type="secondRowStripe" dxfId="252"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{A593F99A-2A02-464F-AE8C-6FA0E07FE2A2}">
+    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{B6DEB6C2-1C36-4E44-BA24-2F842D621A5E}">
       <tableStyleElement type="firstRowStripe" dxfId="255"/>
       <tableStyleElement type="secondRowStripe" dxfId="254"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{7320E8A0-2738-455F-9A38-3FB15F70A1DD}">
+    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{F218F756-3104-4B4A-855C-A060C3CBD64F}">
       <tableStyleElement type="firstRowStripe" dxfId="257"/>
       <tableStyleElement type="secondRowStripe" dxfId="256"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{EDA73352-0205-41AF-B68D-0A026BBD3DFA}">
+    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{B38678AA-1E21-496D-BD77-0B233341D2BC}">
       <tableStyleElement type="firstRowStripe" dxfId="259"/>
       <tableStyleElement type="secondRowStripe" dxfId="258"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{1ADF4FAC-44E5-4128-97CA-FCF4DCBD0705}">
+    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{AC2911E5-B50F-4A6A-8D23-3D8608F84CC6}">
       <tableStyleElement type="firstRowStripe" dxfId="261"/>
       <tableStyleElement type="secondRowStripe" dxfId="260"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{DD56FC98-2CE2-4F2E-A707-86666A4C2612}">
+    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{C3EABEEB-5B70-4F76-BEBA-C071DDD97674}">
       <tableStyleElement type="firstRowStripe" dxfId="263"/>
       <tableStyleElement type="secondRowStripe" dxfId="262"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{21976D7D-9917-425F-A90A-C04F1FD772FB}">
+    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{82901239-0A2F-4077-B5E0-7F53C5EA77E3}">
       <tableStyleElement type="firstRowStripe" dxfId="265"/>
       <tableStyleElement type="secondRowStripe" dxfId="264"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{22389247-66BD-4866-9D2C-9AB3570176E1}">
+    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{2EE9A774-9CE2-4884-82CF-4F6F1D6F4E9C}">
       <tableStyleElement type="firstRowStripe" dxfId="267"/>
       <tableStyleElement type="secondRowStripe" dxfId="266"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{C5D369CC-E821-4E26-8B59-FB1FC259DA05}">
+    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{7A996FE2-5912-4E8D-A823-B70CE7EBF2BC}">
       <tableStyleElement type="firstRowStripe" dxfId="269"/>
       <tableStyleElement type="secondRowStripe" dxfId="268"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{CAC29FEF-5A65-4A76-8B35-CC5A2A6D0C55}">
+    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{D7DECACC-48E2-4F9D-8102-A2D950C62871}">
       <tableStyleElement type="firstRowStripe" dxfId="271"/>
       <tableStyleElement type="secondRowStripe" dxfId="270"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{7E752C4D-371B-461E-A2BF-027F6B5E08CD}">
+    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{296E2AC7-031F-4B0B-9CD9-4852D52C784B}">
       <tableStyleElement type="firstRowStripe" dxfId="273"/>
       <tableStyleElement type="secondRowStripe" dxfId="272"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{EB4B1228-FA82-4BFB-9149-02E0E1E39EB2}">
+    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{8F083AFD-037B-4E09-B2C6-1363D9DFE291}">
       <tableStyleElement type="firstRowStripe" dxfId="275"/>
       <tableStyleElement type="secondRowStripe" dxfId="274"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{4E0B9912-A3D2-487E-A759-FF0389653075}">
+    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{92AACF2F-7BD2-446F-A20C-EC13139DE836}">
       <tableStyleElement type="firstRowStripe" dxfId="277"/>
       <tableStyleElement type="secondRowStripe" dxfId="276"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{3A17402C-8867-4F36-B94F-7BF571627B10}">
+    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{AF1443CA-AFF7-4AD6-AC41-B47EB31485B6}">
       <tableStyleElement type="firstRowStripe" dxfId="279"/>
       <tableStyleElement type="secondRowStripe" dxfId="278"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{2D8CE81C-0D2A-461F-8B64-CE0DE875F6FF}">
+    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{A49F24B9-F93E-46DD-AC25-61A2303C4325}">
       <tableStyleElement type="firstRowStripe" dxfId="281"/>
       <tableStyleElement type="secondRowStripe" dxfId="280"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{4B97651E-82BD-4279-9FDF-BF62A0683E08}">
+    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{FE36A610-C4D5-42B7-B3C7-D9E09D21984C}">
       <tableStyleElement type="firstRowStripe" dxfId="283"/>
       <tableStyleElement type="secondRowStripe" dxfId="282"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{90871204-F037-4898-92AF-315DD6D326A2}">
+    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{693A5562-BED5-4D4D-A745-F51A648E4870}">
       <tableStyleElement type="firstRowStripe" dxfId="285"/>
       <tableStyleElement type="secondRowStripe" dxfId="284"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{78D31C81-CDB0-42B2-A854-F2763EA6A101}">
+    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{716D9BA2-6ECB-415E-B4B1-6BC4859AD33E}">
       <tableStyleElement type="firstRowStripe" dxfId="287"/>
       <tableStyleElement type="secondRowStripe" dxfId="286"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{034AC5C0-58E2-423F-838B-B72413DB5CFB}">
+    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{C1EDEA12-7690-4FB3-B120-6328A62306FC}">
       <tableStyleElement type="firstRowStripe" dxfId="289"/>
       <tableStyleElement type="secondRowStripe" dxfId="288"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{6D3C11EE-C10F-4204-9CA2-599BE6A69327}">
+    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{C9284D54-FFBB-4116-A260-B5BB5AFE561D}">
       <tableStyleElement type="firstRowStripe" dxfId="291"/>
       <tableStyleElement type="secondRowStripe" dxfId="290"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{5CE03CC3-96C7-4C20-909E-91B170926FAA}">
+    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{ED057170-1E6F-4203-ACB5-DD635D488820}">
       <tableStyleElement type="firstRowStripe" dxfId="293"/>
       <tableStyleElement type="secondRowStripe" dxfId="292"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{8E5E798A-9F6E-47CE-B476-77B05738B704}">
+    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{7A8093A2-321E-4B33-ADE9-18C3E40A0125}">
       <tableStyleElement type="firstRowStripe" dxfId="295"/>
       <tableStyleElement type="secondRowStripe" dxfId="294"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{04F52477-4D0A-4B5D-845C-C70F96C70436}">
+    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{53522CBC-A7E7-45B7-9DDC-6D39E3D3B12D}">
       <tableStyleElement type="firstRowStripe" dxfId="297"/>
       <tableStyleElement type="secondRowStripe" dxfId="296"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{DEF1F74E-70C8-41CE-BC48-ADC4506BF683}">
+    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{731AB771-F55F-495C-BA94-5361F8F02738}">
       <tableStyleElement type="firstRowStripe" dxfId="299"/>
       <tableStyleElement type="secondRowStripe" dxfId="298"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{0673516C-3944-4F7D-B336-3D9D20886239}">
+    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{F0E46138-6B18-4057-BD55-0ED2A0936C97}">
       <tableStyleElement type="firstRowStripe" dxfId="301"/>
       <tableStyleElement type="secondRowStripe" dxfId="300"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{545345C7-39EB-4842-96A4-B6DD51DBCE6E}">
+    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{46147D87-B997-4409-BFAC-04077BCE1725}">
       <tableStyleElement type="firstRowStripe" dxfId="303"/>
       <tableStyleElement type="secondRowStripe" dxfId="302"/>
     </tableStyle>
@@ -6616,7 +6643,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG857"/>
+  <dimension ref="A1:AG856"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
@@ -28837,13 +28864,13 @@
         <v>0.625</v>
       </c>
       <c r="C487" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D487" s="15">
-        <v>1145153164</v>
+        <v>1201433368</v>
       </c>
       <c r="E487" s="16">
-        <v>10319094</v>
+        <v>10335592</v>
       </c>
       <c r="F487" s="15" t="s">
         <v>494</v>
@@ -28852,7 +28879,7 @@
         <v>96</v>
       </c>
       <c r="H487" s="15" t="s">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="I487" s="20"/>
       <c r="J487" s="19"/>
@@ -28889,10 +28916,10 @@
         <v>0</v>
       </c>
       <c r="D488" s="15">
-        <v>1201433368</v>
+        <v>1069323958</v>
       </c>
       <c r="E488" s="16">
-        <v>10335592</v>
+        <v>10342602</v>
       </c>
       <c r="F488" s="15" t="s">
         <v>495</v>
@@ -28901,7 +28928,7 @@
         <v>96</v>
       </c>
       <c r="H488" s="15" t="s">
-        <v>97</v>
+        <v>496</v>
       </c>
       <c r="I488" s="20"/>
       <c r="J488" s="19"/>
@@ -28938,19 +28965,19 @@
         <v>0</v>
       </c>
       <c r="D489" s="15">
-        <v>1069323958</v>
+        <v>1155027161</v>
       </c>
       <c r="E489" s="16">
-        <v>10342602</v>
+        <v>10339936</v>
       </c>
       <c r="F489" s="15" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G489" s="15" t="s">
         <v>96</v>
       </c>
       <c r="H489" s="15" t="s">
-        <v>497</v>
+        <v>340</v>
       </c>
       <c r="I489" s="20"/>
       <c r="J489" s="19"/>
@@ -28980,27 +29007,13 @@
     </row>
     <row r="490" ht="43.5" customHeight="1" spans="1:33">
       <c r="A490" s="6"/>
-      <c r="B490" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="C490" s="14">
-        <v>0</v>
-      </c>
-      <c r="D490" s="15">
-        <v>1155027161</v>
-      </c>
-      <c r="E490" s="16">
-        <v>10339936</v>
-      </c>
-      <c r="F490" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="G490" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H490" s="15" t="s">
-        <v>340</v>
-      </c>
+      <c r="B490" s="14"/>
+      <c r="C490" s="14"/>
+      <c r="D490" s="15"/>
+      <c r="E490" s="16"/>
+      <c r="F490" s="15"/>
+      <c r="G490" s="15"/>
+      <c r="H490" s="15"/>
       <c r="I490" s="20"/>
       <c r="J490" s="19"/>
       <c r="K490" s="18"/>
@@ -29029,13 +29042,27 @@
     </row>
     <row r="491" ht="43.5" customHeight="1" spans="1:33">
       <c r="A491" s="6"/>
-      <c r="B491" s="14"/>
-      <c r="C491" s="14"/>
-      <c r="D491" s="15"/>
-      <c r="E491" s="16"/>
-      <c r="F491" s="15"/>
-      <c r="G491" s="15"/>
-      <c r="H491" s="15"/>
+      <c r="B491" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C491" s="14">
+        <v>0</v>
+      </c>
+      <c r="D491" s="15">
+        <v>1012097623</v>
+      </c>
+      <c r="E491" s="16">
+        <v>10337716</v>
+      </c>
+      <c r="F491" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="G491" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H491" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="I491" s="20"/>
       <c r="J491" s="19"/>
       <c r="K491" s="18"/>
@@ -29071,10 +29098,10 @@
         <v>0</v>
       </c>
       <c r="D492" s="15">
-        <v>1012097623</v>
+        <v>1557048892</v>
       </c>
       <c r="E492" s="16">
-        <v>10337716</v>
+        <v>10344704</v>
       </c>
       <c r="F492" s="15" t="s">
         <v>499</v>
@@ -29120,10 +29147,10 @@
         <v>0</v>
       </c>
       <c r="D493" s="15">
-        <v>1557048892</v>
+        <v>1148102330</v>
       </c>
       <c r="E493" s="16">
-        <v>10344704</v>
+        <v>10340036</v>
       </c>
       <c r="F493" s="15" t="s">
         <v>500</v>
@@ -29169,10 +29196,10 @@
         <v>0</v>
       </c>
       <c r="D494" s="15">
-        <v>1148102330</v>
+        <v>1143336949</v>
       </c>
       <c r="E494" s="16">
-        <v>10340036</v>
+        <v>10299512</v>
       </c>
       <c r="F494" s="15" t="s">
         <v>501</v>
@@ -29211,27 +29238,13 @@
     </row>
     <row r="495" ht="43.5" customHeight="1" spans="1:33">
       <c r="A495" s="6"/>
-      <c r="B495" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="C495" s="14">
-        <v>0</v>
-      </c>
-      <c r="D495" s="15">
-        <v>1143336949</v>
-      </c>
-      <c r="E495" s="16">
-        <v>10299512</v>
-      </c>
-      <c r="F495" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="G495" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H495" s="15" t="s">
-        <v>100</v>
-      </c>
+      <c r="B495" s="14"/>
+      <c r="C495" s="14"/>
+      <c r="D495" s="15"/>
+      <c r="E495" s="16"/>
+      <c r="F495" s="15"/>
+      <c r="G495" s="15"/>
+      <c r="H495" s="15"/>
       <c r="I495" s="20"/>
       <c r="J495" s="19"/>
       <c r="K495" s="18"/>
@@ -29260,13 +29273,27 @@
     </row>
     <row r="496" ht="43.5" customHeight="1" spans="1:33">
       <c r="A496" s="6"/>
-      <c r="B496" s="14"/>
-      <c r="C496" s="14"/>
-      <c r="D496" s="15"/>
-      <c r="E496" s="16"/>
-      <c r="F496" s="15"/>
-      <c r="G496" s="15"/>
-      <c r="H496" s="15"/>
+      <c r="B496" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C496" s="14">
+        <v>0</v>
+      </c>
+      <c r="D496" s="15">
+        <v>1550752064</v>
+      </c>
+      <c r="E496" s="16">
+        <v>10260539</v>
+      </c>
+      <c r="F496" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="G496" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H496" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="I496" s="20"/>
       <c r="J496" s="19"/>
       <c r="K496" s="18"/>
@@ -29302,10 +29329,10 @@
         <v>0</v>
       </c>
       <c r="D497" s="15">
-        <v>1550752064</v>
+        <v>1505369674</v>
       </c>
       <c r="E497" s="16">
-        <v>10260539</v>
+        <v>10341782</v>
       </c>
       <c r="F497" s="15" t="s">
         <v>503</v>
@@ -29314,7 +29341,7 @@
         <v>23</v>
       </c>
       <c r="H497" s="15" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="I497" s="20"/>
       <c r="J497" s="19"/>
@@ -29351,10 +29378,10 @@
         <v>0</v>
       </c>
       <c r="D498" s="15">
-        <v>1505369674</v>
+        <v>1124118982</v>
       </c>
       <c r="E498" s="16">
-        <v>10341782</v>
+        <v>10298155</v>
       </c>
       <c r="F498" s="15" t="s">
         <v>504</v>
@@ -29363,7 +29390,7 @@
         <v>23</v>
       </c>
       <c r="H498" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I498" s="20"/>
       <c r="J498" s="19"/>
@@ -29393,27 +29420,13 @@
     </row>
     <row r="499" ht="43.5" customHeight="1" spans="1:33">
       <c r="A499" s="6"/>
-      <c r="B499" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="C499" s="14">
-        <v>0</v>
-      </c>
-      <c r="D499" s="15">
-        <v>1124118982</v>
-      </c>
-      <c r="E499" s="16">
-        <v>10298155</v>
-      </c>
-      <c r="F499" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="G499" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H499" s="15" t="s">
-        <v>108</v>
-      </c>
+      <c r="B499" s="14"/>
+      <c r="C499" s="14"/>
+      <c r="D499" s="15"/>
+      <c r="E499" s="16"/>
+      <c r="F499" s="15"/>
+      <c r="G499" s="15"/>
+      <c r="H499" s="15"/>
       <c r="I499" s="20"/>
       <c r="J499" s="19"/>
       <c r="K499" s="18"/>
@@ -29442,13 +29455,27 @@
     </row>
     <row r="500" ht="43.5" customHeight="1" spans="1:33">
       <c r="A500" s="6"/>
-      <c r="B500" s="14"/>
-      <c r="C500" s="14"/>
-      <c r="D500" s="15"/>
-      <c r="E500" s="16"/>
-      <c r="F500" s="15"/>
-      <c r="G500" s="15"/>
-      <c r="H500" s="15"/>
+      <c r="B500" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C500" s="14">
+        <v>0</v>
+      </c>
+      <c r="D500" s="15">
+        <v>0</v>
+      </c>
+      <c r="E500" s="16">
+        <v>10324552</v>
+      </c>
+      <c r="F500" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="G500" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="H500" s="15" t="s">
+        <v>507</v>
+      </c>
       <c r="I500" s="20"/>
       <c r="J500" s="19"/>
       <c r="K500" s="18"/>
@@ -29481,22 +29508,22 @@
         <v>0.625</v>
       </c>
       <c r="C501" s="14">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="D501" s="15">
-        <v>0</v>
+        <v>1127261406</v>
       </c>
       <c r="E501" s="16">
-        <v>10324552</v>
+        <v>10238619</v>
       </c>
       <c r="F501" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="G501" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="G501" s="15" t="s">
-        <v>507</v>
-      </c>
       <c r="H501" s="15" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I501" s="20"/>
       <c r="J501" s="19"/>
@@ -29526,27 +29553,13 @@
     </row>
     <row r="502" ht="43.5" customHeight="1" spans="1:33">
       <c r="A502" s="6"/>
-      <c r="B502" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="C502" s="14">
-        <v>0.125</v>
-      </c>
-      <c r="D502" s="15">
-        <v>1127261406</v>
-      </c>
-      <c r="E502" s="16">
-        <v>10238619</v>
-      </c>
-      <c r="F502" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="G502" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="H502" s="15" t="s">
-        <v>510</v>
-      </c>
+      <c r="B502" s="14"/>
+      <c r="C502" s="14"/>
+      <c r="D502" s="15"/>
+      <c r="E502" s="16"/>
+      <c r="F502" s="15"/>
+      <c r="G502" s="15"/>
+      <c r="H502" s="15"/>
       <c r="I502" s="20"/>
       <c r="J502" s="19"/>
       <c r="K502" s="18"/>
@@ -29575,13 +29588,27 @@
     </row>
     <row r="503" ht="43.5" customHeight="1" spans="1:33">
       <c r="A503" s="6"/>
-      <c r="B503" s="14"/>
-      <c r="C503" s="14"/>
-      <c r="D503" s="15"/>
-      <c r="E503" s="16"/>
-      <c r="F503" s="15"/>
-      <c r="G503" s="15"/>
-      <c r="H503" s="15"/>
+      <c r="B503" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C503" s="14">
+        <v>0</v>
+      </c>
+      <c r="D503" s="15">
+        <v>1551182622</v>
+      </c>
+      <c r="E503" s="16">
+        <v>10296219</v>
+      </c>
+      <c r="F503" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="G503" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H503" s="15" t="s">
+        <v>265</v>
+      </c>
       <c r="I503" s="20"/>
       <c r="J503" s="19"/>
       <c r="K503" s="18"/>
@@ -29617,10 +29644,10 @@
         <v>0</v>
       </c>
       <c r="D504" s="15">
-        <v>1551182622</v>
+        <v>1271920902</v>
       </c>
       <c r="E504" s="16">
-        <v>10296219</v>
+        <v>10341837</v>
       </c>
       <c r="F504" s="15" t="s">
         <v>511</v>
@@ -29659,27 +29686,13 @@
     </row>
     <row r="505" ht="43.5" customHeight="1" spans="1:33">
       <c r="A505" s="6"/>
-      <c r="B505" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="C505" s="14">
-        <v>0</v>
-      </c>
-      <c r="D505" s="15">
-        <v>1271920902</v>
-      </c>
-      <c r="E505" s="16">
-        <v>10341837</v>
-      </c>
-      <c r="F505" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="G505" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H505" s="15" t="s">
-        <v>265</v>
-      </c>
+      <c r="B505" s="14"/>
+      <c r="C505" s="14"/>
+      <c r="D505" s="15"/>
+      <c r="E505" s="16"/>
+      <c r="F505" s="15"/>
+      <c r="G505" s="15"/>
+      <c r="H505" s="15"/>
       <c r="I505" s="20"/>
       <c r="J505" s="19"/>
       <c r="K505" s="18"/>
@@ -29708,13 +29721,27 @@
     </row>
     <row r="506" ht="43.5" customHeight="1" spans="1:33">
       <c r="A506" s="6"/>
-      <c r="B506" s="14"/>
-      <c r="C506" s="14"/>
-      <c r="D506" s="15"/>
-      <c r="E506" s="16"/>
-      <c r="F506" s="15"/>
-      <c r="G506" s="15"/>
-      <c r="H506" s="15"/>
+      <c r="B506" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C506" s="14">
+        <v>0</v>
+      </c>
+      <c r="D506" s="15">
+        <v>1090527572</v>
+      </c>
+      <c r="E506" s="16">
+        <v>10318910</v>
+      </c>
+      <c r="F506" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="G506" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H506" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="I506" s="20"/>
       <c r="J506" s="19"/>
       <c r="K506" s="18"/>
@@ -29750,10 +29777,10 @@
         <v>0</v>
       </c>
       <c r="D507" s="15">
-        <v>1090527572</v>
+        <v>1145600669</v>
       </c>
       <c r="E507" s="16">
-        <v>10318910</v>
+        <v>10324742</v>
       </c>
       <c r="F507" s="15" t="s">
         <v>513</v>
@@ -29762,7 +29789,7 @@
         <v>46</v>
       </c>
       <c r="H507" s="15" t="s">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="I507" s="20"/>
       <c r="J507" s="19"/>
@@ -29796,13 +29823,13 @@
         <v>0.625</v>
       </c>
       <c r="C508" s="14">
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="D508" s="15">
-        <v>1145600669</v>
+        <v>1148417872</v>
       </c>
       <c r="E508" s="16">
-        <v>10324742</v>
+        <v>10299506</v>
       </c>
       <c r="F508" s="15" t="s">
         <v>514</v>
@@ -29811,7 +29838,7 @@
         <v>46</v>
       </c>
       <c r="H508" s="15" t="s">
-        <v>278</v>
+        <v>140</v>
       </c>
       <c r="I508" s="20"/>
       <c r="J508" s="19"/>
@@ -29845,22 +29872,22 @@
         <v>0.625</v>
       </c>
       <c r="C509" s="14">
-        <v>1.125</v>
-      </c>
-      <c r="D509" s="15">
-        <v>1148417872</v>
+        <v>1.04166666666667</v>
+      </c>
+      <c r="D509" s="15" t="s">
+        <v>515</v>
       </c>
       <c r="E509" s="16">
-        <v>10299506</v>
+        <v>10335392</v>
       </c>
       <c r="F509" s="15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G509" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H509" s="15" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="I509" s="20"/>
       <c r="J509" s="19"/>
@@ -29894,13 +29921,13 @@
         <v>0.625</v>
       </c>
       <c r="C510" s="14">
-        <v>1.04166666666667</v>
-      </c>
-      <c r="D510" s="15" t="s">
-        <v>516</v>
+        <v>1.125</v>
+      </c>
+      <c r="D510" s="15">
+        <v>1098670413</v>
       </c>
       <c r="E510" s="16">
-        <v>10335392</v>
+        <v>10344186</v>
       </c>
       <c r="F510" s="15" t="s">
         <v>517</v>
@@ -29909,7 +29936,7 @@
         <v>46</v>
       </c>
       <c r="H510" s="15" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="I510" s="20"/>
       <c r="J510" s="19"/>
@@ -29943,13 +29970,13 @@
         <v>0.625</v>
       </c>
       <c r="C511" s="14">
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="D511" s="15">
-        <v>1098670413</v>
+        <v>1284234931</v>
       </c>
       <c r="E511" s="16">
-        <v>10344186</v>
+        <v>10344274</v>
       </c>
       <c r="F511" s="15" t="s">
         <v>518</v>
@@ -29958,7 +29985,7 @@
         <v>46</v>
       </c>
       <c r="H511" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I511" s="20"/>
       <c r="J511" s="19"/>
@@ -29992,13 +30019,13 @@
         <v>0.625</v>
       </c>
       <c r="C512" s="14">
-        <v>1</v>
+        <v>1.08333333333333</v>
       </c>
       <c r="D512" s="15">
-        <v>1284234931</v>
+        <v>1507554968</v>
       </c>
       <c r="E512" s="16">
-        <v>10344274</v>
+        <v>10346148</v>
       </c>
       <c r="F512" s="15" t="s">
         <v>519</v>
@@ -30007,7 +30034,7 @@
         <v>46</v>
       </c>
       <c r="H512" s="15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I512" s="20"/>
       <c r="J512" s="19"/>
@@ -30041,13 +30068,13 @@
         <v>0.625</v>
       </c>
       <c r="C513" s="14">
-        <v>1.08333333333333</v>
+        <v>1</v>
       </c>
       <c r="D513" s="15">
-        <v>1507554968</v>
+        <v>1070413418</v>
       </c>
       <c r="E513" s="16">
-        <v>10346148</v>
+        <v>10346282</v>
       </c>
       <c r="F513" s="15" t="s">
         <v>520</v>
@@ -30056,7 +30083,7 @@
         <v>46</v>
       </c>
       <c r="H513" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I513" s="20"/>
       <c r="J513" s="19"/>
@@ -30090,13 +30117,13 @@
         <v>0.625</v>
       </c>
       <c r="C514" s="14">
-        <v>1</v>
+        <v>1.04166666666667</v>
       </c>
       <c r="D514" s="15">
-        <v>1070413418</v>
+        <v>1080652791</v>
       </c>
       <c r="E514" s="16">
-        <v>10346282</v>
+        <v>10346788</v>
       </c>
       <c r="F514" s="15" t="s">
         <v>521</v>
@@ -30105,7 +30132,7 @@
         <v>46</v>
       </c>
       <c r="H514" s="15" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="I514" s="20"/>
       <c r="J514" s="19"/>
@@ -30139,13 +30166,13 @@
         <v>0.625</v>
       </c>
       <c r="C515" s="14">
-        <v>1.04166666666667</v>
+        <v>1</v>
       </c>
       <c r="D515" s="15">
-        <v>1080652791</v>
+        <v>1154442437</v>
       </c>
       <c r="E515" s="16">
-        <v>10346788</v>
+        <v>10348306</v>
       </c>
       <c r="F515" s="15" t="s">
         <v>522</v>
@@ -30154,7 +30181,7 @@
         <v>46</v>
       </c>
       <c r="H515" s="15" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="I515" s="20"/>
       <c r="J515" s="19"/>
@@ -30188,13 +30215,13 @@
         <v>0.625</v>
       </c>
       <c r="C516" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D516" s="15">
-        <v>1154442437</v>
+        <v>1063707011</v>
       </c>
       <c r="E516" s="16">
-        <v>10348306</v>
+        <v>10342599</v>
       </c>
       <c r="F516" s="15" t="s">
         <v>523</v>
@@ -30203,7 +30230,7 @@
         <v>46</v>
       </c>
       <c r="H516" s="15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I516" s="20"/>
       <c r="J516" s="19"/>
@@ -30240,10 +30267,10 @@
         <v>0</v>
       </c>
       <c r="D517" s="15">
-        <v>1063707011</v>
+        <v>1008871412</v>
       </c>
       <c r="E517" s="16">
-        <v>10342599</v>
+        <v>10337665</v>
       </c>
       <c r="F517" s="15" t="s">
         <v>524</v>
@@ -30252,7 +30279,7 @@
         <v>46</v>
       </c>
       <c r="H517" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I517" s="20"/>
       <c r="J517" s="19"/>
@@ -30289,10 +30316,10 @@
         <v>0</v>
       </c>
       <c r="D518" s="15">
-        <v>1008871412</v>
+        <v>1093159095</v>
       </c>
       <c r="E518" s="16">
-        <v>10337665</v>
+        <v>10334699</v>
       </c>
       <c r="F518" s="15" t="s">
         <v>525</v>
@@ -30301,7 +30328,7 @@
         <v>46</v>
       </c>
       <c r="H518" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I518" s="20"/>
       <c r="J518" s="19"/>
@@ -30331,27 +30358,13 @@
     </row>
     <row r="519" ht="43.5" customHeight="1" spans="1:33">
       <c r="A519" s="6"/>
-      <c r="B519" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="C519" s="14">
-        <v>0</v>
-      </c>
-      <c r="D519" s="15">
-        <v>1093159095</v>
-      </c>
-      <c r="E519" s="16">
-        <v>10334699</v>
-      </c>
-      <c r="F519" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="G519" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H519" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="B519" s="14"/>
+      <c r="C519" s="14"/>
+      <c r="D519" s="15"/>
+      <c r="E519" s="16"/>
+      <c r="F519" s="15"/>
+      <c r="G519" s="15"/>
+      <c r="H519" s="15"/>
       <c r="I519" s="20"/>
       <c r="J519" s="19"/>
       <c r="K519" s="18"/>
@@ -30380,13 +30393,27 @@
     </row>
     <row r="520" ht="43.5" customHeight="1" spans="1:33">
       <c r="A520" s="6"/>
-      <c r="B520" s="14"/>
-      <c r="C520" s="14"/>
-      <c r="D520" s="15"/>
-      <c r="E520" s="16"/>
-      <c r="F520" s="15"/>
-      <c r="G520" s="15"/>
-      <c r="H520" s="15"/>
+      <c r="B520" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C520" s="14">
+        <v>1.04166666666667</v>
+      </c>
+      <c r="D520" s="15">
+        <v>1141552649</v>
+      </c>
+      <c r="E520" s="16">
+        <v>10337518</v>
+      </c>
+      <c r="F520" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="G520" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H520" s="15" t="s">
+        <v>152</v>
+      </c>
       <c r="I520" s="20"/>
       <c r="J520" s="19"/>
       <c r="K520" s="18"/>
@@ -30419,13 +30446,13 @@
         <v>0.625</v>
       </c>
       <c r="C521" s="14">
-        <v>1.04166666666667</v>
+        <v>0</v>
       </c>
       <c r="D521" s="15">
-        <v>1141552649</v>
+        <v>1276419181</v>
       </c>
       <c r="E521" s="16">
-        <v>10337518</v>
+        <v>10340032</v>
       </c>
       <c r="F521" s="15" t="s">
         <v>527</v>
@@ -30434,7 +30461,7 @@
         <v>142</v>
       </c>
       <c r="H521" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I521" s="20"/>
       <c r="J521" s="19"/>
@@ -30471,10 +30498,10 @@
         <v>0</v>
       </c>
       <c r="D522" s="15">
-        <v>1276419181</v>
+        <v>1093376062</v>
       </c>
       <c r="E522" s="16">
-        <v>10340032</v>
+        <v>10340038</v>
       </c>
       <c r="F522" s="15" t="s">
         <v>528</v>
@@ -30483,7 +30510,7 @@
         <v>142</v>
       </c>
       <c r="H522" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I522" s="20"/>
       <c r="J522" s="19"/>
@@ -30520,10 +30547,10 @@
         <v>0</v>
       </c>
       <c r="D523" s="15">
-        <v>1093376062</v>
+        <v>1276595561</v>
       </c>
       <c r="E523" s="16">
-        <v>10340038</v>
+        <v>10334832</v>
       </c>
       <c r="F523" s="15" t="s">
         <v>529</v>
@@ -30532,7 +30559,7 @@
         <v>142</v>
       </c>
       <c r="H523" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I523" s="20"/>
       <c r="J523" s="19"/>
@@ -30562,27 +30589,13 @@
     </row>
     <row r="524" ht="43.5" customHeight="1" spans="1:33">
       <c r="A524" s="6"/>
-      <c r="B524" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="C524" s="14">
-        <v>0</v>
-      </c>
-      <c r="D524" s="15">
-        <v>1276595561</v>
-      </c>
-      <c r="E524" s="16">
-        <v>10334832</v>
-      </c>
-      <c r="F524" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="G524" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H524" s="15" t="s">
-        <v>143</v>
-      </c>
+      <c r="B524" s="14"/>
+      <c r="C524" s="14"/>
+      <c r="D524" s="15"/>
+      <c r="E524" s="16"/>
+      <c r="F524" s="15"/>
+      <c r="G524" s="15"/>
+      <c r="H524" s="15"/>
       <c r="I524" s="20"/>
       <c r="J524" s="19"/>
       <c r="K524" s="18"/>
@@ -30611,13 +30624,27 @@
     </row>
     <row r="525" ht="43.5" customHeight="1" spans="1:33">
       <c r="A525" s="6"/>
-      <c r="B525" s="14"/>
-      <c r="C525" s="14"/>
-      <c r="D525" s="15"/>
-      <c r="E525" s="16"/>
-      <c r="F525" s="15"/>
-      <c r="G525" s="15"/>
-      <c r="H525" s="15"/>
+      <c r="B525" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C525" s="14">
+        <v>0</v>
+      </c>
+      <c r="D525" s="15">
+        <v>1281804393</v>
+      </c>
+      <c r="E525" s="16">
+        <v>10331412</v>
+      </c>
+      <c r="F525" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="G525" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H525" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="I525" s="20"/>
       <c r="J525" s="19"/>
       <c r="K525" s="18"/>
@@ -30646,27 +30673,13 @@
     </row>
     <row r="526" ht="43.5" customHeight="1" spans="1:33">
       <c r="A526" s="6"/>
-      <c r="B526" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="C526" s="14">
-        <v>0</v>
-      </c>
-      <c r="D526" s="15">
-        <v>1281804393</v>
-      </c>
-      <c r="E526" s="16">
-        <v>10331412</v>
-      </c>
-      <c r="F526" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="G526" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H526" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="B526" s="14"/>
+      <c r="C526" s="14"/>
+      <c r="D526" s="15"/>
+      <c r="E526" s="16"/>
+      <c r="F526" s="15"/>
+      <c r="G526" s="15"/>
+      <c r="H526" s="15"/>
       <c r="I526" s="20"/>
       <c r="J526" s="19"/>
       <c r="K526" s="18"/>
@@ -30695,13 +30708,27 @@
     </row>
     <row r="527" ht="43.5" customHeight="1" spans="1:33">
       <c r="A527" s="6"/>
-      <c r="B527" s="14"/>
-      <c r="C527" s="14"/>
-      <c r="D527" s="15"/>
-      <c r="E527" s="16"/>
-      <c r="F527" s="15"/>
-      <c r="G527" s="15"/>
-      <c r="H527" s="15"/>
+      <c r="B527" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C527" s="14">
+        <v>0</v>
+      </c>
+      <c r="D527" s="15">
+        <v>1026170107</v>
+      </c>
+      <c r="E527" s="16">
+        <v>10348095</v>
+      </c>
+      <c r="F527" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="G527" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H527" s="15" t="s">
+        <v>415</v>
+      </c>
       <c r="I527" s="20"/>
       <c r="J527" s="19"/>
       <c r="K527" s="18"/>
@@ -30737,10 +30764,10 @@
         <v>0</v>
       </c>
       <c r="D528" s="15">
-        <v>1026170107</v>
+        <v>1271406300</v>
       </c>
       <c r="E528" s="16">
-        <v>10348095</v>
+        <v>10254383</v>
       </c>
       <c r="F528" s="15" t="s">
         <v>532</v>
@@ -30749,7 +30776,7 @@
         <v>51</v>
       </c>
       <c r="H528" s="15" t="s">
-        <v>415</v>
+        <v>164</v>
       </c>
       <c r="I528" s="20"/>
       <c r="J528" s="19"/>
@@ -30783,13 +30810,13 @@
         <v>0.625</v>
       </c>
       <c r="C529" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D529" s="15">
-        <v>1271406300</v>
+        <v>1114918093</v>
       </c>
       <c r="E529" s="16">
-        <v>10254383</v>
+        <v>10291620</v>
       </c>
       <c r="F529" s="15" t="s">
         <v>533</v>
@@ -30798,7 +30825,7 @@
         <v>51</v>
       </c>
       <c r="H529" s="15" t="s">
-        <v>164</v>
+        <v>534</v>
       </c>
       <c r="I529" s="20"/>
       <c r="J529" s="19"/>
@@ -30835,19 +30862,19 @@
         <v>1</v>
       </c>
       <c r="D530" s="15">
-        <v>1114918093</v>
+        <v>1149265144</v>
       </c>
       <c r="E530" s="16">
-        <v>10291620</v>
+        <v>10345543</v>
       </c>
       <c r="F530" s="15" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G530" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H530" s="15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I530" s="20"/>
       <c r="J530" s="19"/>
@@ -30881,22 +30908,22 @@
         <v>0.625</v>
       </c>
       <c r="C531" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D531" s="15">
-        <v>1149265144</v>
+        <v>1155948092</v>
       </c>
       <c r="E531" s="16">
-        <v>10345543</v>
+        <v>10342713</v>
       </c>
       <c r="F531" s="15" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G531" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H531" s="15" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I531" s="20"/>
       <c r="J531" s="19"/>
@@ -30932,20 +30959,20 @@
       <c r="C532" s="14">
         <v>0</v>
       </c>
-      <c r="D532" s="15">
-        <v>1155948092</v>
+      <c r="D532" s="15" t="s">
+        <v>538</v>
       </c>
       <c r="E532" s="16">
-        <v>10342713</v>
+        <v>10337780</v>
       </c>
       <c r="F532" s="15" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G532" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H532" s="15" t="s">
-        <v>535</v>
+        <v>162</v>
       </c>
       <c r="I532" s="20"/>
       <c r="J532" s="19"/>
@@ -30981,11 +31008,11 @@
       <c r="C533" s="14">
         <v>0</v>
       </c>
-      <c r="D533" s="15" t="s">
-        <v>539</v>
+      <c r="D533" s="15">
+        <v>1006463109</v>
       </c>
       <c r="E533" s="16">
-        <v>10337780</v>
+        <v>10337764</v>
       </c>
       <c r="F533" s="15" t="s">
         <v>540</v>
@@ -30994,7 +31021,7 @@
         <v>51</v>
       </c>
       <c r="H533" s="15" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I533" s="20"/>
       <c r="J533" s="19"/>
@@ -31031,10 +31058,10 @@
         <v>0</v>
       </c>
       <c r="D534" s="15">
-        <v>1006463109</v>
+        <v>1143159790</v>
       </c>
       <c r="E534" s="16">
-        <v>10337764</v>
+        <v>10342712</v>
       </c>
       <c r="F534" s="15" t="s">
         <v>541</v>
@@ -31043,7 +31070,7 @@
         <v>51</v>
       </c>
       <c r="H534" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I534" s="20"/>
       <c r="J534" s="19"/>
@@ -31079,20 +31106,20 @@
       <c r="C535" s="14">
         <v>0</v>
       </c>
-      <c r="D535" s="15">
-        <v>1143159790</v>
+      <c r="D535" s="15" t="s">
+        <v>542</v>
       </c>
       <c r="E535" s="16">
-        <v>10342712</v>
+        <v>10341839</v>
       </c>
       <c r="F535" s="15" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G535" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H535" s="15" t="s">
-        <v>164</v>
+        <v>415</v>
       </c>
       <c r="I535" s="20"/>
       <c r="J535" s="19"/>
@@ -31128,11 +31155,11 @@
       <c r="C536" s="14">
         <v>0</v>
       </c>
-      <c r="D536" s="15" t="s">
-        <v>543</v>
+      <c r="D536" s="15">
+        <v>1128181299</v>
       </c>
       <c r="E536" s="16">
-        <v>10341839</v>
+        <v>10344627</v>
       </c>
       <c r="F536" s="15" t="s">
         <v>544</v>
@@ -31141,7 +31168,7 @@
         <v>51</v>
       </c>
       <c r="H536" s="15" t="s">
-        <v>415</v>
+        <v>162</v>
       </c>
       <c r="I536" s="20"/>
       <c r="J536" s="19"/>
@@ -31178,10 +31205,10 @@
         <v>0</v>
       </c>
       <c r="D537" s="15">
-        <v>1128181299</v>
+        <v>1129608136</v>
       </c>
       <c r="E537" s="16">
-        <v>10344627</v>
+        <v>10340040</v>
       </c>
       <c r="F537" s="15" t="s">
         <v>545</v>
@@ -31227,10 +31254,10 @@
         <v>0</v>
       </c>
       <c r="D538" s="15">
-        <v>1129608136</v>
+        <v>1148278594</v>
       </c>
       <c r="E538" s="16">
-        <v>10340040</v>
+        <v>10337744</v>
       </c>
       <c r="F538" s="15" t="s">
         <v>546</v>
@@ -31239,7 +31266,7 @@
         <v>51</v>
       </c>
       <c r="H538" s="15" t="s">
-        <v>162</v>
+        <v>534</v>
       </c>
       <c r="I538" s="20"/>
       <c r="J538" s="19"/>
@@ -31276,10 +31303,10 @@
         <v>0</v>
       </c>
       <c r="D539" s="15">
-        <v>1148278594</v>
+        <v>1152621423</v>
       </c>
       <c r="E539" s="16">
-        <v>10337744</v>
+        <v>10322712</v>
       </c>
       <c r="F539" s="15" t="s">
         <v>547</v>
@@ -31288,7 +31315,7 @@
         <v>51</v>
       </c>
       <c r="H539" s="15" t="s">
-        <v>535</v>
+        <v>52</v>
       </c>
       <c r="I539" s="20"/>
       <c r="J539" s="19"/>
@@ -31325,10 +31352,10 @@
         <v>0</v>
       </c>
       <c r="D540" s="15">
-        <v>1152621423</v>
+        <v>1117915599</v>
       </c>
       <c r="E540" s="16">
-        <v>10322712</v>
+        <v>10333947</v>
       </c>
       <c r="F540" s="15" t="s">
         <v>548</v>
@@ -31337,7 +31364,7 @@
         <v>51</v>
       </c>
       <c r="H540" s="15" t="s">
-        <v>52</v>
+        <v>534</v>
       </c>
       <c r="I540" s="20"/>
       <c r="J540" s="19"/>
@@ -31374,10 +31401,10 @@
         <v>0</v>
       </c>
       <c r="D541" s="15">
-        <v>1117915599</v>
+        <v>1063373593</v>
       </c>
       <c r="E541" s="16">
-        <v>10333947</v>
+        <v>10338960</v>
       </c>
       <c r="F541" s="15" t="s">
         <v>549</v>
@@ -31386,7 +31413,7 @@
         <v>51</v>
       </c>
       <c r="H541" s="15" t="s">
-        <v>535</v>
+        <v>52</v>
       </c>
       <c r="I541" s="20"/>
       <c r="J541" s="19"/>
@@ -31416,27 +31443,13 @@
     </row>
     <row r="542" ht="43.5" customHeight="1" spans="1:33">
       <c r="A542" s="6"/>
-      <c r="B542" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="C542" s="14">
-        <v>0</v>
-      </c>
-      <c r="D542" s="15">
-        <v>1063373593</v>
-      </c>
-      <c r="E542" s="16">
-        <v>10338960</v>
-      </c>
-      <c r="F542" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="G542" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H542" s="15" t="s">
-        <v>52</v>
-      </c>
+      <c r="B542" s="14"/>
+      <c r="C542" s="14"/>
+      <c r="D542" s="15"/>
+      <c r="E542" s="16"/>
+      <c r="F542" s="15"/>
+      <c r="G542" s="15"/>
+      <c r="H542" s="15"/>
       <c r="I542" s="20"/>
       <c r="J542" s="19"/>
       <c r="K542" s="18"/>
@@ -31465,13 +31478,27 @@
     </row>
     <row r="543" ht="43.5" customHeight="1" spans="1:33">
       <c r="A543" s="6"/>
-      <c r="B543" s="14"/>
-      <c r="C543" s="14"/>
-      <c r="D543" s="15"/>
-      <c r="E543" s="16"/>
-      <c r="F543" s="15"/>
-      <c r="G543" s="15"/>
-      <c r="H543" s="15"/>
+      <c r="B543" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C543" s="14">
+        <v>0</v>
+      </c>
+      <c r="D543" s="15">
+        <v>1151536502</v>
+      </c>
+      <c r="E543" s="16">
+        <v>10330144</v>
+      </c>
+      <c r="F543" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="G543" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H543" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="I543" s="20"/>
       <c r="J543" s="19"/>
       <c r="K543" s="18"/>
@@ -31504,13 +31531,13 @@
         <v>0.625</v>
       </c>
       <c r="C544" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D544" s="15">
-        <v>1151536502</v>
+        <v>1091061813</v>
       </c>
       <c r="E544" s="16">
-        <v>10330144</v>
+        <v>10323448</v>
       </c>
       <c r="F544" s="15" t="s">
         <v>551</v>
@@ -31519,7 +31546,7 @@
         <v>29</v>
       </c>
       <c r="H544" s="15" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="I544" s="20"/>
       <c r="J544" s="19"/>
@@ -31553,13 +31580,13 @@
         <v>0.625</v>
       </c>
       <c r="C545" s="14">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="D545" s="15">
-        <v>1091061813</v>
+        <v>1226223707</v>
       </c>
       <c r="E545" s="16">
-        <v>10323448</v>
+        <v>10344485</v>
       </c>
       <c r="F545" s="15" t="s">
         <v>552</v>
@@ -31568,7 +31595,7 @@
         <v>29</v>
       </c>
       <c r="H545" s="15" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="I545" s="20"/>
       <c r="J545" s="19"/>
@@ -31602,13 +31629,13 @@
         <v>0.625</v>
       </c>
       <c r="C546" s="14">
-        <v>1.125</v>
+        <v>1.04166666666667</v>
       </c>
       <c r="D546" s="15">
-        <v>1226223707</v>
+        <v>1144462771</v>
       </c>
       <c r="E546" s="16">
-        <v>10344485</v>
+        <v>10344752</v>
       </c>
       <c r="F546" s="15" t="s">
         <v>553</v>
@@ -31617,7 +31644,7 @@
         <v>29</v>
       </c>
       <c r="H546" s="15" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I546" s="20"/>
       <c r="J546" s="19"/>
@@ -31651,13 +31678,13 @@
         <v>0.625</v>
       </c>
       <c r="C547" s="14">
-        <v>1.04166666666667</v>
+        <v>1</v>
       </c>
       <c r="D547" s="15">
-        <v>1144462771</v>
+        <v>1507947778</v>
       </c>
       <c r="E547" s="16">
-        <v>10344752</v>
+        <v>10346809</v>
       </c>
       <c r="F547" s="15" t="s">
         <v>554</v>
@@ -31666,7 +31693,7 @@
         <v>29</v>
       </c>
       <c r="H547" s="15" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="I547" s="20"/>
       <c r="J547" s="19"/>
@@ -31700,22 +31727,22 @@
         <v>0.625</v>
       </c>
       <c r="C548" s="14">
-        <v>1</v>
-      </c>
-      <c r="D548" s="15">
-        <v>1507947778</v>
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D548" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="E548" s="16">
-        <v>10346809</v>
+        <v>10336050</v>
       </c>
       <c r="F548" s="15" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G548" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H548" s="15" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I548" s="20"/>
       <c r="J548" s="19"/>
@@ -31749,13 +31776,13 @@
         <v>0.625</v>
       </c>
       <c r="C549" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D549" s="15" t="s">
-        <v>556</v>
+        <v>0</v>
+      </c>
+      <c r="D549" s="15">
+        <v>1004594906</v>
       </c>
       <c r="E549" s="16">
-        <v>10336050</v>
+        <v>10342535</v>
       </c>
       <c r="F549" s="15" t="s">
         <v>557</v>
@@ -31764,7 +31791,7 @@
         <v>29</v>
       </c>
       <c r="H549" s="15" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="I549" s="20"/>
       <c r="J549" s="19"/>
@@ -31801,10 +31828,10 @@
         <v>0</v>
       </c>
       <c r="D550" s="15">
-        <v>1004594906</v>
+        <v>1092042039</v>
       </c>
       <c r="E550" s="16">
-        <v>10342535</v>
+        <v>10337753</v>
       </c>
       <c r="F550" s="15" t="s">
         <v>558</v>
@@ -31843,27 +31870,13 @@
     </row>
     <row r="551" ht="43.5" customHeight="1" spans="1:33">
       <c r="A551" s="6"/>
-      <c r="B551" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="C551" s="14">
-        <v>0</v>
-      </c>
-      <c r="D551" s="15">
-        <v>1092042039</v>
-      </c>
-      <c r="E551" s="16">
-        <v>10337753</v>
-      </c>
-      <c r="F551" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="G551" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H551" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="B551" s="14"/>
+      <c r="C551" s="14"/>
+      <c r="D551" s="15"/>
+      <c r="E551" s="16"/>
+      <c r="F551" s="15"/>
+      <c r="G551" s="15"/>
+      <c r="H551" s="15"/>
       <c r="I551" s="20"/>
       <c r="J551" s="19"/>
       <c r="K551" s="18"/>
@@ -31892,13 +31905,27 @@
     </row>
     <row r="552" ht="43.5" customHeight="1" spans="1:33">
       <c r="A552" s="6"/>
-      <c r="B552" s="14"/>
-      <c r="C552" s="14"/>
-      <c r="D552" s="15"/>
-      <c r="E552" s="16"/>
-      <c r="F552" s="15"/>
-      <c r="G552" s="15"/>
-      <c r="H552" s="15"/>
+      <c r="B552" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C552" s="14">
+        <v>1</v>
+      </c>
+      <c r="D552" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="E552" s="16">
+        <v>10344277</v>
+      </c>
+      <c r="F552" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="G552" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H552" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="I552" s="20"/>
       <c r="J552" s="19"/>
       <c r="K552" s="18"/>
@@ -31931,13 +31958,13 @@
         <v>0.625</v>
       </c>
       <c r="C553" s="14">
-        <v>1</v>
-      </c>
-      <c r="D553" s="15" t="s">
-        <v>560</v>
+        <v>0</v>
+      </c>
+      <c r="D553" s="15">
+        <v>1005356050</v>
       </c>
       <c r="E553" s="16">
-        <v>10344277</v>
+        <v>10337898</v>
       </c>
       <c r="F553" s="15" t="s">
         <v>561</v>
@@ -31946,7 +31973,7 @@
         <v>63</v>
       </c>
       <c r="H553" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I553" s="20"/>
       <c r="J553" s="19"/>
@@ -31976,27 +32003,13 @@
     </row>
     <row r="554" ht="43.5" customHeight="1" spans="1:33">
       <c r="A554" s="6"/>
-      <c r="B554" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="C554" s="14">
-        <v>0</v>
-      </c>
-      <c r="D554" s="15">
-        <v>1005356050</v>
-      </c>
-      <c r="E554" s="16">
-        <v>10337898</v>
-      </c>
-      <c r="F554" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="G554" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H554" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B554" s="14"/>
+      <c r="C554" s="14"/>
+      <c r="D554" s="15"/>
+      <c r="E554" s="16"/>
+      <c r="F554" s="15"/>
+      <c r="G554" s="15"/>
+      <c r="H554" s="15"/>
       <c r="I554" s="20"/>
       <c r="J554" s="19"/>
       <c r="K554" s="18"/>
@@ -32025,13 +32038,27 @@
     </row>
     <row r="555" ht="43.5" customHeight="1" spans="1:33">
       <c r="A555" s="6"/>
-      <c r="B555" s="14"/>
-      <c r="C555" s="14"/>
-      <c r="D555" s="15"/>
-      <c r="E555" s="16"/>
-      <c r="F555" s="15"/>
-      <c r="G555" s="15"/>
-      <c r="H555" s="15"/>
+      <c r="B555" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C555" s="14">
+        <v>0</v>
+      </c>
+      <c r="D555" s="15">
+        <v>1109165438</v>
+      </c>
+      <c r="E555" s="16">
+        <v>10347427</v>
+      </c>
+      <c r="F555" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="G555" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H555" s="15" t="s">
+        <v>191</v>
+      </c>
       <c r="I555" s="20"/>
       <c r="J555" s="19"/>
       <c r="K555" s="18"/>
@@ -32067,10 +32094,10 @@
         <v>0</v>
       </c>
       <c r="D556" s="15">
-        <v>1109165438</v>
+        <v>1017913776</v>
       </c>
       <c r="E556" s="16">
-        <v>10347427</v>
+        <v>10347429</v>
       </c>
       <c r="F556" s="15" t="s">
         <v>563</v>
@@ -32113,22 +32140,22 @@
         <v>0.625</v>
       </c>
       <c r="C557" s="14">
-        <v>0</v>
-      </c>
-      <c r="D557" s="15">
-        <v>1017913776</v>
+        <v>1.04166666666667</v>
+      </c>
+      <c r="D557" s="15" t="s">
+        <v>564</v>
       </c>
       <c r="E557" s="16">
-        <v>10347429</v>
+        <v>10332473</v>
       </c>
       <c r="F557" s="15" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G557" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H557" s="15" t="s">
-        <v>191</v>
+        <v>566</v>
       </c>
       <c r="I557" s="20"/>
       <c r="J557" s="19"/>
@@ -32162,22 +32189,22 @@
         <v>0.625</v>
       </c>
       <c r="C558" s="14">
-        <v>1.04166666666667</v>
+        <v>1</v>
       </c>
       <c r="D558" s="15" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E558" s="16">
-        <v>10332473</v>
+        <v>10344192</v>
       </c>
       <c r="F558" s="15" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G558" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H558" s="15" t="s">
-        <v>567</v>
+        <v>197</v>
       </c>
       <c r="I558" s="20"/>
       <c r="J558" s="19"/>
@@ -32213,11 +32240,11 @@
       <c r="C559" s="14">
         <v>1</v>
       </c>
-      <c r="D559" s="15" t="s">
-        <v>568</v>
+      <c r="D559" s="15">
+        <v>1121899603</v>
       </c>
       <c r="E559" s="16">
-        <v>10344192</v>
+        <v>10344278</v>
       </c>
       <c r="F559" s="15" t="s">
         <v>569</v>
@@ -32260,13 +32287,13 @@
         <v>0.625</v>
       </c>
       <c r="C560" s="14">
-        <v>1</v>
+        <v>1.04166666666667</v>
       </c>
       <c r="D560" s="15">
-        <v>1121899603</v>
+        <v>1143585920</v>
       </c>
       <c r="E560" s="16">
-        <v>10344278</v>
+        <v>10346011</v>
       </c>
       <c r="F560" s="15" t="s">
         <v>570</v>
@@ -32311,20 +32338,20 @@
       <c r="C561" s="14">
         <v>1.04166666666667</v>
       </c>
-      <c r="D561" s="15">
-        <v>1143585920</v>
+      <c r="D561" s="15" t="s">
+        <v>571</v>
       </c>
       <c r="E561" s="16">
-        <v>10346011</v>
+        <v>10346149</v>
       </c>
       <c r="F561" s="15" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G561" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H561" s="15" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="I561" s="20"/>
       <c r="J561" s="19"/>
@@ -32358,13 +32385,13 @@
         <v>0.625</v>
       </c>
       <c r="C562" s="14">
-        <v>1.04166666666667</v>
-      </c>
-      <c r="D562" s="15" t="s">
-        <v>572</v>
+        <v>0</v>
+      </c>
+      <c r="D562" s="15">
+        <v>1050882233</v>
       </c>
       <c r="E562" s="16">
-        <v>10346149</v>
+        <v>10342600</v>
       </c>
       <c r="F562" s="15" t="s">
         <v>573</v>
@@ -32373,7 +32400,7 @@
         <v>32</v>
       </c>
       <c r="H562" s="15" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="I562" s="20"/>
       <c r="J562" s="19"/>
@@ -32410,19 +32437,19 @@
         <v>0</v>
       </c>
       <c r="D563" s="15">
-        <v>1050882233</v>
+        <v>1116092120</v>
       </c>
       <c r="E563" s="16">
-        <v>10342600</v>
+        <v>10341802</v>
       </c>
       <c r="F563" s="15" t="s">
-        <v>574</v>
+        <v>103</v>
       </c>
       <c r="G563" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H563" s="15" t="s">
-        <v>33</v>
+        <v>312</v>
       </c>
       <c r="I563" s="20"/>
       <c r="J563" s="19"/>
@@ -32459,19 +32486,19 @@
         <v>0</v>
       </c>
       <c r="D564" s="15">
-        <v>1116092120</v>
+        <v>1061453502</v>
       </c>
       <c r="E564" s="16">
-        <v>10341802</v>
+        <v>10338973</v>
       </c>
       <c r="F564" s="15" t="s">
-        <v>103</v>
+        <v>574</v>
       </c>
       <c r="G564" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H564" s="15" t="s">
-        <v>312</v>
+        <v>186</v>
       </c>
       <c r="I564" s="20"/>
       <c r="J564" s="19"/>
@@ -32508,10 +32535,10 @@
         <v>0</v>
       </c>
       <c r="D565" s="15">
-        <v>1061453502</v>
+        <v>1060778921</v>
       </c>
       <c r="E565" s="16">
-        <v>10338973</v>
+        <v>10337730</v>
       </c>
       <c r="F565" s="15" t="s">
         <v>575</v>
@@ -32557,10 +32584,10 @@
         <v>0</v>
       </c>
       <c r="D566" s="15">
-        <v>1060778921</v>
+        <v>1149238079</v>
       </c>
       <c r="E566" s="16">
-        <v>10337730</v>
+        <v>10341212</v>
       </c>
       <c r="F566" s="15" t="s">
         <v>576</v>
@@ -32606,10 +32633,10 @@
         <v>0</v>
       </c>
       <c r="D567" s="15">
-        <v>1149238079</v>
+        <v>1150177584</v>
       </c>
       <c r="E567" s="16">
-        <v>10341212</v>
+        <v>10334738</v>
       </c>
       <c r="F567" s="15" t="s">
         <v>577</v>
@@ -32655,10 +32682,10 @@
         <v>0</v>
       </c>
       <c r="D568" s="15">
-        <v>1150177584</v>
+        <v>1200098880</v>
       </c>
       <c r="E568" s="16">
-        <v>10334738</v>
+        <v>10339003</v>
       </c>
       <c r="F568" s="15" t="s">
         <v>578</v>
@@ -32667,7 +32694,7 @@
         <v>32</v>
       </c>
       <c r="H568" s="15" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="I568" s="20"/>
       <c r="J568" s="19"/>
@@ -32704,10 +32731,10 @@
         <v>0</v>
       </c>
       <c r="D569" s="15">
-        <v>1200098880</v>
+        <v>1281887573</v>
       </c>
       <c r="E569" s="16">
-        <v>10339003</v>
+        <v>10346088</v>
       </c>
       <c r="F569" s="15" t="s">
         <v>579</v>
@@ -32715,11 +32742,13 @@
       <c r="G569" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H569" s="15" t="s">
-        <v>33</v>
+      <c r="H569" s="27" t="s">
+        <v>186</v>
       </c>
       <c r="I569" s="20"/>
-      <c r="J569" s="19"/>
+      <c r="J569" s="19" t="s">
+        <v>332</v>
+      </c>
       <c r="K569" s="18"/>
       <c r="L569" s="18"/>
       <c r="M569" s="18"/>
@@ -33742,10 +33771,10 @@
         <v>1.16666666666667</v>
       </c>
       <c r="D593" s="26">
-        <v>1032492021</v>
+        <v>1152380728</v>
       </c>
       <c r="E593" s="16">
-        <v>10341611</v>
+        <v>10346564</v>
       </c>
       <c r="F593" s="26" t="s">
         <v>593</v>
@@ -33754,7 +33783,7 @@
         <v>46</v>
       </c>
       <c r="H593" s="26" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="I593" s="20"/>
       <c r="J593" s="19"/>
@@ -33784,27 +33813,13 @@
     </row>
     <row r="594" ht="48.75" customHeight="1" spans="1:33">
       <c r="A594" s="6"/>
-      <c r="B594" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C594" s="25">
-        <v>1.16666666666667</v>
-      </c>
-      <c r="D594" s="26">
-        <v>1152380728</v>
-      </c>
-      <c r="E594" s="16">
-        <v>10346564</v>
-      </c>
-      <c r="F594" s="26" t="s">
-        <v>594</v>
-      </c>
-      <c r="G594" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H594" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="B594" s="25"/>
+      <c r="C594" s="25"/>
+      <c r="D594" s="26"/>
+      <c r="E594" s="16"/>
+      <c r="F594" s="26"/>
+      <c r="G594" s="26"/>
+      <c r="H594" s="26"/>
       <c r="I594" s="20"/>
       <c r="J594" s="19"/>
       <c r="K594" s="18"/>
@@ -33833,13 +33848,27 @@
     </row>
     <row r="595" ht="48.75" customHeight="1" spans="1:33">
       <c r="A595" s="6"/>
-      <c r="B595" s="25"/>
-      <c r="C595" s="25"/>
-      <c r="D595" s="26"/>
-      <c r="E595" s="16"/>
-      <c r="F595" s="26"/>
-      <c r="G595" s="26"/>
-      <c r="H595" s="26"/>
+      <c r="B595" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C595" s="25">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D595" s="26">
+        <v>1115409972</v>
+      </c>
+      <c r="E595" s="16">
+        <v>10281227</v>
+      </c>
+      <c r="F595" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="G595" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H595" s="26" t="s">
+        <v>152</v>
+      </c>
       <c r="I595" s="20"/>
       <c r="J595" s="19"/>
       <c r="K595" s="18"/>
@@ -33868,27 +33897,13 @@
     </row>
     <row r="596" ht="48.75" customHeight="1" spans="1:33">
       <c r="A596" s="6"/>
-      <c r="B596" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C596" s="25">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D596" s="26">
-        <v>1115409972</v>
-      </c>
-      <c r="E596" s="16">
-        <v>10281227</v>
-      </c>
-      <c r="F596" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="G596" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H596" s="26" t="s">
-        <v>152</v>
-      </c>
+      <c r="B596" s="25"/>
+      <c r="C596" s="25"/>
+      <c r="D596" s="26"/>
+      <c r="E596" s="16"/>
+      <c r="F596" s="26"/>
+      <c r="G596" s="26"/>
+      <c r="H596" s="26"/>
       <c r="I596" s="20"/>
       <c r="J596" s="19"/>
       <c r="K596" s="18"/>
@@ -33917,13 +33932,27 @@
     </row>
     <row r="597" ht="48.75" customHeight="1" spans="1:33">
       <c r="A597" s="6"/>
-      <c r="B597" s="25"/>
-      <c r="C597" s="25"/>
-      <c r="D597" s="26"/>
-      <c r="E597" s="16"/>
-      <c r="F597" s="26"/>
-      <c r="G597" s="26"/>
-      <c r="H597" s="26"/>
+      <c r="B597" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C597" s="25">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="D597" s="26">
+        <v>1283104485</v>
+      </c>
+      <c r="E597" s="16">
+        <v>10332548</v>
+      </c>
+      <c r="F597" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="G597" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H597" s="26" t="s">
+        <v>162</v>
+      </c>
       <c r="I597" s="20"/>
       <c r="J597" s="19"/>
       <c r="K597" s="18"/>
@@ -33959,10 +33988,10 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="D598" s="26">
-        <v>1283104485</v>
+        <v>1550184789</v>
       </c>
       <c r="E598" s="16">
-        <v>10332548</v>
+        <v>10335058</v>
       </c>
       <c r="F598" s="26" t="s">
         <v>596</v>
@@ -33971,7 +34000,7 @@
         <v>51</v>
       </c>
       <c r="H598" s="26" t="s">
-        <v>162</v>
+        <v>536</v>
       </c>
       <c r="I598" s="20"/>
       <c r="J598" s="19"/>
@@ -34001,27 +34030,13 @@
     </row>
     <row r="599" ht="48.75" customHeight="1" spans="1:33">
       <c r="A599" s="6"/>
-      <c r="B599" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C599" s="25">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="D599" s="26">
-        <v>1550184789</v>
-      </c>
-      <c r="E599" s="16">
-        <v>10335058</v>
-      </c>
-      <c r="F599" s="26" t="s">
-        <v>597</v>
-      </c>
-      <c r="G599" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H599" s="26" t="s">
-        <v>537</v>
-      </c>
+      <c r="B599" s="25"/>
+      <c r="C599" s="25"/>
+      <c r="D599" s="26"/>
+      <c r="E599" s="16"/>
+      <c r="F599" s="26"/>
+      <c r="G599" s="26"/>
+      <c r="H599" s="26"/>
       <c r="I599" s="20"/>
       <c r="J599" s="19"/>
       <c r="K599" s="18"/>
@@ -34050,13 +34065,27 @@
     </row>
     <row r="600" ht="48.75" customHeight="1" spans="1:33">
       <c r="A600" s="6"/>
-      <c r="B600" s="25"/>
-      <c r="C600" s="25"/>
-      <c r="D600" s="26"/>
-      <c r="E600" s="16"/>
-      <c r="F600" s="26"/>
-      <c r="G600" s="26"/>
-      <c r="H600" s="26"/>
+      <c r="B600" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C600" s="25">
+        <v>1.16666666666667</v>
+      </c>
+      <c r="D600" s="26">
+        <v>1144811677</v>
+      </c>
+      <c r="E600" s="16">
+        <v>10337070</v>
+      </c>
+      <c r="F600" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="G600" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H600" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="I600" s="20"/>
       <c r="J600" s="19"/>
       <c r="K600" s="18"/>
@@ -34092,10 +34121,10 @@
         <v>1.16666666666667</v>
       </c>
       <c r="D601" s="26">
-        <v>1144811677</v>
+        <v>1093443771</v>
       </c>
       <c r="E601" s="16">
-        <v>10337070</v>
+        <v>10344757</v>
       </c>
       <c r="F601" s="26" t="s">
         <v>598</v>
@@ -34104,7 +34133,7 @@
         <v>29</v>
       </c>
       <c r="H601" s="26" t="s">
-        <v>60</v>
+        <v>436</v>
       </c>
       <c r="I601" s="20"/>
       <c r="J601" s="19"/>
@@ -34141,10 +34170,10 @@
         <v>1.16666666666667</v>
       </c>
       <c r="D602" s="26">
-        <v>1093443771</v>
+        <v>1090598043</v>
       </c>
       <c r="E602" s="16">
-        <v>10344757</v>
+        <v>10344902</v>
       </c>
       <c r="F602" s="26" t="s">
         <v>599</v>
@@ -34153,7 +34182,7 @@
         <v>29</v>
       </c>
       <c r="H602" s="26" t="s">
-        <v>436</v>
+        <v>176</v>
       </c>
       <c r="I602" s="20"/>
       <c r="J602" s="19"/>
@@ -34187,13 +34216,13 @@
         <v>0.666666666666667</v>
       </c>
       <c r="C603" s="25">
-        <v>1.16666666666667</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="D603" s="26">
-        <v>1090598043</v>
+        <v>1017405291</v>
       </c>
       <c r="E603" s="16">
-        <v>10344902</v>
+        <v>10335052</v>
       </c>
       <c r="F603" s="26" t="s">
         <v>600</v>
@@ -34202,7 +34231,7 @@
         <v>29</v>
       </c>
       <c r="H603" s="26" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="I603" s="20"/>
       <c r="J603" s="19"/>
@@ -34232,27 +34261,13 @@
     </row>
     <row r="604" ht="48.75" customHeight="1" spans="1:33">
       <c r="A604" s="6"/>
-      <c r="B604" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C604" s="25">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="D604" s="26">
-        <v>1017405291</v>
-      </c>
-      <c r="E604" s="16">
-        <v>10335052</v>
-      </c>
-      <c r="F604" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="G604" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H604" s="26" t="s">
-        <v>55</v>
-      </c>
+      <c r="B604" s="25"/>
+      <c r="C604" s="25"/>
+      <c r="D604" s="26"/>
+      <c r="E604" s="16"/>
+      <c r="F604" s="26"/>
+      <c r="G604" s="26"/>
+      <c r="H604" s="26"/>
       <c r="I604" s="20"/>
       <c r="J604" s="19"/>
       <c r="K604" s="18"/>
@@ -34281,13 +34296,27 @@
     </row>
     <row r="605" ht="48.75" customHeight="1" spans="1:33">
       <c r="A605" s="6"/>
-      <c r="B605" s="25"/>
-      <c r="C605" s="25"/>
-      <c r="D605" s="26"/>
-      <c r="E605" s="16"/>
-      <c r="F605" s="26"/>
-      <c r="G605" s="26"/>
-      <c r="H605" s="26"/>
+      <c r="B605" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C605" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="D605" s="26">
+        <v>1009533599</v>
+      </c>
+      <c r="E605" s="16">
+        <v>10271468</v>
+      </c>
+      <c r="F605" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="G605" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H605" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="I605" s="20"/>
       <c r="J605" s="19"/>
       <c r="K605" s="18"/>
@@ -34316,27 +34345,13 @@
     </row>
     <row r="606" ht="48.75" customHeight="1" spans="1:33">
       <c r="A606" s="6"/>
-      <c r="B606" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C606" s="25">
-        <v>1.25</v>
-      </c>
-      <c r="D606" s="26">
-        <v>1009533599</v>
-      </c>
-      <c r="E606" s="16">
-        <v>10271468</v>
-      </c>
-      <c r="F606" s="26" t="s">
-        <v>602</v>
-      </c>
-      <c r="G606" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="H606" s="26" t="s">
-        <v>64</v>
-      </c>
+      <c r="B606" s="25"/>
+      <c r="C606" s="25"/>
+      <c r="D606" s="26"/>
+      <c r="E606" s="16"/>
+      <c r="F606" s="26"/>
+      <c r="G606" s="26"/>
+      <c r="H606" s="26"/>
       <c r="I606" s="20"/>
       <c r="J606" s="19"/>
       <c r="K606" s="18"/>
@@ -34365,13 +34380,27 @@
     </row>
     <row r="607" ht="48.75" customHeight="1" spans="1:33">
       <c r="A607" s="6"/>
-      <c r="B607" s="25"/>
-      <c r="C607" s="25"/>
-      <c r="D607" s="26"/>
-      <c r="E607" s="16"/>
-      <c r="F607" s="26"/>
-      <c r="G607" s="26"/>
-      <c r="H607" s="26"/>
+      <c r="B607" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C607" s="25">
+        <v>1.16666666666667</v>
+      </c>
+      <c r="D607" s="26">
+        <v>0</v>
+      </c>
+      <c r="E607" s="16">
+        <v>10337109</v>
+      </c>
+      <c r="F607" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="G607" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H607" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="I607" s="20"/>
       <c r="J607" s="19"/>
       <c r="K607" s="18"/>
@@ -34407,10 +34436,10 @@
         <v>1.16666666666667</v>
       </c>
       <c r="D608" s="26">
-        <v>0</v>
+        <v>1080445221</v>
       </c>
       <c r="E608" s="16">
-        <v>10337109</v>
+        <v>10342331</v>
       </c>
       <c r="F608" s="26" t="s">
         <v>603</v>
@@ -34419,7 +34448,7 @@
         <v>32</v>
       </c>
       <c r="H608" s="26" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="I608" s="20"/>
       <c r="J608" s="19"/>
@@ -34456,10 +34485,10 @@
         <v>1.16666666666667</v>
       </c>
       <c r="D609" s="26">
-        <v>1080445221</v>
+        <v>1153210480</v>
       </c>
       <c r="E609" s="16">
-        <v>10342331</v>
+        <v>10344865</v>
       </c>
       <c r="F609" s="26" t="s">
         <v>604</v>
@@ -34468,7 +34497,7 @@
         <v>32</v>
       </c>
       <c r="H609" s="26" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I609" s="20"/>
       <c r="J609" s="19"/>
@@ -34505,10 +34534,10 @@
         <v>1.16666666666667</v>
       </c>
       <c r="D610" s="26">
-        <v>1153210480</v>
+        <v>1023850840</v>
       </c>
       <c r="E610" s="16">
-        <v>10344865</v>
+        <v>10344883</v>
       </c>
       <c r="F610" s="26" t="s">
         <v>605</v>
@@ -34517,7 +34546,7 @@
         <v>32</v>
       </c>
       <c r="H610" s="26" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I610" s="20"/>
       <c r="J610" s="19"/>
@@ -34554,10 +34583,10 @@
         <v>1.16666666666667</v>
       </c>
       <c r="D611" s="26">
-        <v>1023850840</v>
+        <v>1099361043</v>
       </c>
       <c r="E611" s="16">
-        <v>10344883</v>
+        <v>10344884</v>
       </c>
       <c r="F611" s="26" t="s">
         <v>606</v>
@@ -34566,7 +34595,7 @@
         <v>32</v>
       </c>
       <c r="H611" s="26" t="s">
-        <v>191</v>
+        <v>312</v>
       </c>
       <c r="I611" s="20"/>
       <c r="J611" s="19"/>
@@ -34603,10 +34632,10 @@
         <v>1.16666666666667</v>
       </c>
       <c r="D612" s="26">
-        <v>1099361043</v>
+        <v>1116231956</v>
       </c>
       <c r="E612" s="16">
-        <v>10344884</v>
+        <v>10344885</v>
       </c>
       <c r="F612" s="26" t="s">
         <v>607</v>
@@ -34615,7 +34644,7 @@
         <v>32</v>
       </c>
       <c r="H612" s="26" t="s">
-        <v>312</v>
+        <v>186</v>
       </c>
       <c r="I612" s="20"/>
       <c r="J612" s="19"/>
@@ -34651,20 +34680,20 @@
       <c r="C613" s="25">
         <v>1.16666666666667</v>
       </c>
-      <c r="D613" s="26">
-        <v>1116231956</v>
+      <c r="D613" s="26" t="s">
+        <v>608</v>
       </c>
       <c r="E613" s="16">
-        <v>10344885</v>
+        <v>10344900</v>
       </c>
       <c r="F613" s="26" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G613" s="26" t="s">
         <v>32</v>
       </c>
       <c r="H613" s="26" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="I613" s="20"/>
       <c r="J613" s="19"/>
@@ -34698,13 +34727,13 @@
         <v>0.666666666666667</v>
       </c>
       <c r="C614" s="25">
-        <v>1.16666666666667</v>
-      </c>
-      <c r="D614" s="26" t="s">
-        <v>609</v>
+        <v>0.25</v>
+      </c>
+      <c r="D614" s="26">
+        <v>1118972534</v>
       </c>
       <c r="E614" s="16">
-        <v>10344900</v>
+        <v>10331702</v>
       </c>
       <c r="F614" s="26" t="s">
         <v>610</v>
@@ -34741,31 +34770,33 @@
       <c r="AF614" s="18"/>
       <c r="AG614" s="18"/>
     </row>
-    <row r="615" ht="48.75" customHeight="1" spans="1:33">
+    <row r="615" ht="47.25" customHeight="1" spans="1:33">
       <c r="A615" s="6"/>
-      <c r="B615" s="25">
+      <c r="B615" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="C615" s="25">
-        <v>0.25</v>
-      </c>
-      <c r="D615" s="26">
-        <v>1118972534</v>
+      <c r="C615" s="14">
+        <v>1.16666666666667</v>
+      </c>
+      <c r="D615" s="15">
+        <v>1153235087</v>
       </c>
       <c r="E615" s="16">
-        <v>10331702</v>
-      </c>
-      <c r="F615" s="26" t="s">
+        <v>10341020</v>
+      </c>
+      <c r="F615" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="G615" s="26" t="s">
+      <c r="G615" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H615" s="26" t="s">
-        <v>33</v>
+      <c r="H615" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="I615" s="20"/>
-      <c r="J615" s="19"/>
+      <c r="J615" s="19" t="s">
+        <v>612</v>
+      </c>
       <c r="K615" s="18"/>
       <c r="L615" s="18"/>
       <c r="M615" s="18"/>
@@ -34834,19 +34865,19 @@
         <v>1.16666666666667</v>
       </c>
       <c r="D617" s="26" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E617" s="16">
         <v>10342889</v>
       </c>
       <c r="F617" s="26" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G617" s="26" t="s">
         <v>203</v>
       </c>
       <c r="H617" s="26" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I617" s="20"/>
       <c r="J617" s="19"/>
@@ -34889,7 +34920,7 @@
         <v>10344855</v>
       </c>
       <c r="F618" s="26" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G618" s="26" t="s">
         <v>13</v>
@@ -34938,7 +34969,7 @@
         <v>10292490</v>
       </c>
       <c r="F619" s="26" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G619" s="26" t="s">
         <v>13</v>
@@ -34987,7 +35018,7 @@
         <v>10332555</v>
       </c>
       <c r="F620" s="26" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G620" s="26" t="s">
         <v>13</v>
@@ -35036,7 +35067,7 @@
         <v>10335120</v>
       </c>
       <c r="F621" s="26" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G621" s="26" t="s">
         <v>13</v>
@@ -35085,7 +35116,7 @@
         <v>10335024</v>
       </c>
       <c r="F622" s="26" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G622" s="26" t="s">
         <v>13</v>
@@ -35169,7 +35200,7 @@
         <v>10331021</v>
       </c>
       <c r="F624" s="26" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G624" s="26" t="s">
         <v>35</v>
@@ -35253,7 +35284,7 @@
         <v>10345744</v>
       </c>
       <c r="F626" s="26" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G626" s="26" t="s">
         <v>362</v>
@@ -35458,7 +35489,7 @@
         <v>8</v>
       </c>
       <c r="F631" s="15" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G631" s="15" t="s">
         <v>19</v>
@@ -35507,7 +35538,7 @@
         <v>10291155</v>
       </c>
       <c r="F632" s="15" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G632" s="15" t="s">
         <v>19</v>
@@ -35591,7 +35622,7 @@
         <v>10282873</v>
       </c>
       <c r="F634" s="15" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G634" s="15" t="s">
         <v>120</v>
@@ -35669,13 +35700,13 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D636" s="15" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E636" s="16">
         <v>10329382</v>
       </c>
       <c r="F636" s="15" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G636" s="15" t="s">
         <v>142</v>
@@ -35759,7 +35790,7 @@
         <v>10212362</v>
       </c>
       <c r="F638" s="15" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G638" s="15" t="s">
         <v>32</v>
@@ -35843,7 +35874,7 @@
         <v>10331020</v>
       </c>
       <c r="F640" s="15" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G640" s="15" t="s">
         <v>203</v>
@@ -35892,7 +35923,7 @@
         <v>10287534</v>
       </c>
       <c r="F641" s="15" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G641" s="15" t="s">
         <v>13</v>
@@ -35976,7 +36007,7 @@
         <v>10311872</v>
       </c>
       <c r="F643" s="15" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G643" s="15" t="s">
         <v>35</v>
@@ -36181,13 +36212,13 @@
         <v>10348215</v>
       </c>
       <c r="F648" s="26" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G648" s="26" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H648" s="26" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I648" s="20"/>
       <c r="J648" s="19"/>
@@ -36265,7 +36296,7 @@
         <v>10308019</v>
       </c>
       <c r="F650" s="26" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G650" s="26" t="s">
         <v>19</v>
@@ -36343,13 +36374,13 @@
         <v>0.125</v>
       </c>
       <c r="D652" s="26" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E652" s="16">
         <v>10329910</v>
       </c>
       <c r="F652" s="26" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G652" s="26" t="s">
         <v>99</v>
@@ -36433,7 +36464,7 @@
         <v>10347418</v>
       </c>
       <c r="F654" s="26" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G654" s="26" t="s">
         <v>23</v>
@@ -36517,13 +36548,13 @@
         <v>10282876</v>
       </c>
       <c r="F656" s="26" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G656" s="26" t="s">
         <v>117</v>
       </c>
       <c r="H656" s="26" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I656" s="20"/>
       <c r="J656" s="19"/>
@@ -36601,7 +36632,7 @@
         <v>10334215</v>
       </c>
       <c r="F658" s="26" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G658" s="26" t="s">
         <v>120</v>
@@ -36679,13 +36710,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D660" s="26" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E660" s="16">
         <v>10340369</v>
       </c>
       <c r="F660" s="26" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G660" s="26" t="s">
         <v>46</v>
@@ -36734,7 +36765,7 @@
         <v>10344856</v>
       </c>
       <c r="F661" s="26" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G661" s="26" t="s">
         <v>46</v>
@@ -36818,7 +36849,7 @@
         <v>10338474</v>
       </c>
       <c r="F663" s="26" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G663" s="26" t="s">
         <v>29</v>
@@ -36867,7 +36898,7 @@
         <v>10341595</v>
       </c>
       <c r="F664" s="26" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G664" s="26" t="s">
         <v>29</v>
@@ -36916,7 +36947,7 @@
         <v>10344279</v>
       </c>
       <c r="F665" s="26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G665" s="26" t="s">
         <v>29</v>
@@ -36965,7 +36996,7 @@
         <v>10346644</v>
       </c>
       <c r="F666" s="26" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G666" s="26" t="s">
         <v>29</v>
@@ -37014,7 +37045,7 @@
         <v>10322714</v>
       </c>
       <c r="F667" s="15" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G667" s="15" t="s">
         <v>29</v>
@@ -37024,7 +37055,7 @@
       </c>
       <c r="I667" s="20"/>
       <c r="J667" s="19" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K667" s="18"/>
       <c r="L667" s="18"/>
@@ -37100,7 +37131,7 @@
         <v>10339759</v>
       </c>
       <c r="F669" s="26" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G669" s="26" t="s">
         <v>63</v>
@@ -37149,7 +37180,7 @@
         <v>10314812</v>
       </c>
       <c r="F670" s="26" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G670" s="26" t="s">
         <v>63</v>
@@ -37233,7 +37264,7 @@
         <v>10344250</v>
       </c>
       <c r="F672" s="26" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G672" s="26" t="s">
         <v>32</v>
@@ -37272,8 +37303,8 @@
       <c r="B673" s="25">
         <v>0.75</v>
       </c>
-      <c r="C673" s="25">
-        <v>0.25</v>
+      <c r="C673" s="28">
+        <v>0.333333333333333</v>
       </c>
       <c r="D673" s="26">
         <v>1102766064</v>
@@ -37282,7 +37313,7 @@
         <v>10327950</v>
       </c>
       <c r="F673" s="26" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G673" s="26" t="s">
         <v>32</v>
@@ -37316,17 +37347,33 @@
       <c r="AF673" s="18"/>
       <c r="AG673" s="18"/>
     </row>
-    <row r="674" ht="43.5" customHeight="1" spans="1:33">
+    <row r="674" ht="47.25" customHeight="1" spans="1:33">
       <c r="A674" s="6"/>
-      <c r="B674" s="25"/>
-      <c r="C674" s="25"/>
-      <c r="D674" s="26"/>
-      <c r="E674" s="16"/>
-      <c r="F674" s="26"/>
-      <c r="G674" s="26"/>
-      <c r="H674" s="26"/>
+      <c r="B674" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="C674" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D674" s="15">
+        <v>1050623708</v>
+      </c>
+      <c r="E674" s="16">
+        <v>10306605</v>
+      </c>
+      <c r="F674" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="G674" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H674" s="27" t="s">
+        <v>186</v>
+      </c>
       <c r="I674" s="20"/>
-      <c r="J674" s="19"/>
+      <c r="J674" s="19" t="s">
+        <v>654</v>
+      </c>
       <c r="K674" s="18"/>
       <c r="L674" s="18"/>
       <c r="M674" s="18"/>
@@ -37353,27 +37400,13 @@
     </row>
     <row r="675" ht="43.5" customHeight="1" spans="1:33">
       <c r="A675" s="6"/>
-      <c r="B675" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="C675" s="25">
-        <v>1.25</v>
-      </c>
-      <c r="D675" s="26">
-        <v>1007614330</v>
-      </c>
-      <c r="E675" s="16">
-        <v>10348293</v>
-      </c>
-      <c r="F675" s="26" t="s">
-        <v>652</v>
-      </c>
-      <c r="G675" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="H675" s="26" t="s">
-        <v>614</v>
-      </c>
+      <c r="B675" s="25"/>
+      <c r="C675" s="25"/>
+      <c r="D675" s="26"/>
+      <c r="E675" s="16"/>
+      <c r="F675" s="26"/>
+      <c r="G675" s="26"/>
+      <c r="H675" s="26"/>
       <c r="I675" s="20"/>
       <c r="J675" s="19"/>
       <c r="K675" s="18"/>
@@ -37409,19 +37442,19 @@
         <v>1.25</v>
       </c>
       <c r="D676" s="26">
-        <v>1123084929</v>
+        <v>1007614330</v>
       </c>
       <c r="E676" s="16">
-        <v>10331204</v>
+        <v>10348293</v>
       </c>
       <c r="F676" s="26" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G676" s="26" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="H676" s="26" t="s">
-        <v>14</v>
+        <v>615</v>
       </c>
       <c r="I676" s="20"/>
       <c r="J676" s="19"/>
@@ -37493,13 +37526,13 @@
         <v>0.125</v>
       </c>
       <c r="D678" s="26" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E678" s="16">
         <v>10347420</v>
       </c>
       <c r="F678" s="26" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G678" s="26" t="s">
         <v>35</v>
@@ -37573,8 +37606,8 @@
       <c r="B680" s="25">
         <v>0.75</v>
       </c>
-      <c r="C680" s="25">
-        <v>0.333333333333333</v>
+      <c r="C680" s="28">
+        <v>0.25</v>
       </c>
       <c r="D680" s="26">
         <v>1555773066</v>
@@ -37583,7 +37616,7 @@
         <v>10335909</v>
       </c>
       <c r="F680" s="26" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G680" s="26" t="s">
         <v>362</v>
@@ -37788,13 +37821,13 @@
         <v>10282243</v>
       </c>
       <c r="F685" s="15" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G685" s="15" t="s">
         <v>77</v>
       </c>
       <c r="H685" s="15" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="I685" s="20"/>
       <c r="J685" s="19"/>
@@ -37872,7 +37905,7 @@
         <v>10346573</v>
       </c>
       <c r="F687" s="15" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G687" s="15" t="s">
         <v>46</v>
@@ -37956,7 +37989,7 @@
         <v>10348552</v>
       </c>
       <c r="F689" s="15" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G689" s="15" t="s">
         <v>142</v>
@@ -38040,7 +38073,7 @@
         <v>10344242</v>
       </c>
       <c r="F691" s="15" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="G691" s="15" t="s">
         <v>29</v>
@@ -38124,7 +38157,7 @@
         <v>10333590</v>
       </c>
       <c r="F693" s="15" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G693" s="15" t="s">
         <v>32</v>
@@ -38173,7 +38206,7 @@
         <v>10333447</v>
       </c>
       <c r="F694" s="15" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G694" s="15" t="s">
         <v>32</v>
@@ -38222,7 +38255,7 @@
         <v>10344860</v>
       </c>
       <c r="F695" s="15" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G695" s="15" t="s">
         <v>32</v>
@@ -38427,7 +38460,7 @@
         <v>10270497</v>
       </c>
       <c r="F700" s="15" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="G700" s="15" t="s">
         <v>16</v>
@@ -38511,7 +38544,7 @@
         <v>10320445</v>
       </c>
       <c r="F702" s="15" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G702" s="15" t="s">
         <v>46</v>
@@ -38560,13 +38593,13 @@
         <v>10212383</v>
       </c>
       <c r="F703" s="15" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G703" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H703" s="15" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="I703" s="20"/>
       <c r="J703" s="19"/>
@@ -38609,7 +38642,7 @@
         <v>10325898</v>
       </c>
       <c r="F704" s="15" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G704" s="15" t="s">
         <v>46</v>
@@ -38693,7 +38726,7 @@
         <v>10344236</v>
       </c>
       <c r="F706" s="15" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G706" s="15" t="s">
         <v>29</v>
@@ -38742,7 +38775,7 @@
         <v>10334359</v>
       </c>
       <c r="F707" s="15" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G707" s="15" t="s">
         <v>29</v>
@@ -38826,7 +38859,7 @@
         <v>10335911</v>
       </c>
       <c r="F709" s="15" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G709" s="15" t="s">
         <v>32</v>
@@ -38869,13 +38902,13 @@
         <v>0.208333333333333</v>
       </c>
       <c r="D710" s="15" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E710" s="16">
         <v>10333435</v>
       </c>
       <c r="F710" s="15" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G710" s="15" t="s">
         <v>32</v>
@@ -38924,7 +38957,7 @@
         <v>10334370</v>
       </c>
       <c r="F711" s="15" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G711" s="15" t="s">
         <v>32</v>
@@ -39008,7 +39041,7 @@
         <v>10316787</v>
       </c>
       <c r="F713" s="15" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G713" s="15" t="s">
         <v>13</v>
@@ -39092,7 +39125,7 @@
         <v>10344261</v>
       </c>
       <c r="F715" s="15" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G715" s="15" t="s">
         <v>362</v>
@@ -39297,7 +39330,7 @@
         <v>10347015</v>
       </c>
       <c r="F720" s="15" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G720" s="15" t="s">
         <v>71</v>
@@ -39346,13 +39379,13 @@
         <v>10348308</v>
       </c>
       <c r="F721" s="15" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G721" s="15" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H721" s="15" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I721" s="20"/>
       <c r="J721" s="19"/>
@@ -39430,7 +39463,7 @@
         <v>10344755</v>
       </c>
       <c r="F723" s="15" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G723" s="15" t="s">
         <v>19</v>
@@ -39473,13 +39506,13 @@
         <v>1.25</v>
       </c>
       <c r="D724" s="15" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E724" s="16">
         <v>10348044</v>
       </c>
       <c r="F724" s="15" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G724" s="15" t="s">
         <v>19</v>
@@ -39528,7 +39561,7 @@
         <v>10348249</v>
       </c>
       <c r="F725" s="15" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G725" s="15" t="s">
         <v>19</v>
@@ -39577,7 +39610,7 @@
         <v>10348485</v>
       </c>
       <c r="F726" s="15" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G726" s="15" t="s">
         <v>19</v>
@@ -39661,7 +39694,7 @@
         <v>10348045</v>
       </c>
       <c r="F728" s="15" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G728" s="15" t="s">
         <v>99</v>
@@ -39745,7 +39778,7 @@
         <v>10347991</v>
       </c>
       <c r="F730" s="15" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G730" s="15" t="s">
         <v>26</v>
@@ -39829,7 +39862,7 @@
         <v>10348216</v>
       </c>
       <c r="F732" s="15" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G732" s="15" t="s">
         <v>46</v>
@@ -39863,17 +39896,33 @@
       <c r="AF732" s="18"/>
       <c r="AG732" s="18"/>
     </row>
-    <row r="733" ht="47.25" customHeight="1" spans="1:33">
+    <row r="733" ht="43.5" customHeight="1" spans="1:33">
       <c r="A733" s="6"/>
-      <c r="B733" s="14"/>
-      <c r="C733" s="14"/>
-      <c r="D733" s="15"/>
-      <c r="E733" s="16"/>
-      <c r="F733" s="15"/>
-      <c r="G733" s="15"/>
-      <c r="H733" s="15"/>
+      <c r="B733" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C733" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D733" s="15">
+        <v>1285622455</v>
+      </c>
+      <c r="E733" s="16">
+        <v>10344307</v>
+      </c>
+      <c r="F733" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="G733" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H733" s="27" t="s">
+        <v>278</v>
+      </c>
       <c r="I733" s="20"/>
-      <c r="J733" s="19"/>
+      <c r="J733" s="19" t="s">
+        <v>332</v>
+      </c>
       <c r="K733" s="18"/>
       <c r="L733" s="18"/>
       <c r="M733" s="18"/>
@@ -39900,27 +39949,13 @@
     </row>
     <row r="734" ht="47.25" customHeight="1" spans="1:33">
       <c r="A734" s="6"/>
-      <c r="B734" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C734" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D734" s="15">
-        <v>1002894384</v>
-      </c>
-      <c r="E734" s="16">
-        <v>10347165</v>
-      </c>
-      <c r="F734" s="15" t="s">
-        <v>688</v>
-      </c>
-      <c r="G734" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H734" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="B734" s="14"/>
+      <c r="C734" s="14"/>
+      <c r="D734" s="15"/>
+      <c r="E734" s="16"/>
+      <c r="F734" s="15"/>
+      <c r="G734" s="15"/>
+      <c r="H734" s="15"/>
       <c r="I734" s="20"/>
       <c r="J734" s="19"/>
       <c r="K734" s="18"/>
@@ -39949,13 +39984,27 @@
     </row>
     <row r="735" ht="47.25" customHeight="1" spans="1:33">
       <c r="A735" s="6"/>
-      <c r="B735" s="14"/>
-      <c r="C735" s="14"/>
-      <c r="D735" s="15"/>
-      <c r="E735" s="16"/>
-      <c r="F735" s="15"/>
-      <c r="G735" s="15"/>
-      <c r="H735" s="15"/>
+      <c r="B735" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C735" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D735" s="15">
+        <v>1099884506</v>
+      </c>
+      <c r="E735" s="16">
+        <v>10346886</v>
+      </c>
+      <c r="F735" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="G735" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H735" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="I735" s="20"/>
       <c r="J735" s="19"/>
       <c r="K735" s="18"/>
@@ -39988,22 +40037,22 @@
         <v>0.875</v>
       </c>
       <c r="C736" s="14">
-        <v>0.333333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="D736" s="15">
-        <v>1099884506</v>
+        <v>1004919775</v>
       </c>
       <c r="E736" s="16">
-        <v>10346886</v>
+        <v>10347219</v>
       </c>
       <c r="F736" s="15" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="G736" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H736" s="15" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="I736" s="20"/>
       <c r="J736" s="19"/>
@@ -40040,19 +40089,19 @@
         <v>1.25</v>
       </c>
       <c r="D737" s="15">
-        <v>1004919775</v>
+        <v>1155829737</v>
       </c>
       <c r="E737" s="16">
-        <v>10347219</v>
+        <v>10347259</v>
       </c>
       <c r="F737" s="15" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="G737" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H737" s="15" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="I737" s="20"/>
       <c r="J737" s="19"/>
@@ -40089,19 +40138,19 @@
         <v>1.25</v>
       </c>
       <c r="D738" s="15">
-        <v>1155829737</v>
+        <v>1222749900</v>
       </c>
       <c r="E738" s="16">
-        <v>10347259</v>
+        <v>10347280</v>
       </c>
       <c r="F738" s="15" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="G738" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H738" s="15" t="s">
-        <v>55</v>
+        <v>695</v>
       </c>
       <c r="I738" s="20"/>
       <c r="J738" s="19"/>
@@ -40138,19 +40187,19 @@
         <v>1.25</v>
       </c>
       <c r="D739" s="15">
-        <v>1222749900</v>
+        <v>1013996057</v>
       </c>
       <c r="E739" s="16">
-        <v>10347280</v>
+        <v>10347993</v>
       </c>
       <c r="F739" s="15" t="s">
-        <v>692</v>
+        <v>239</v>
       </c>
       <c r="G739" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H739" s="15" t="s">
-        <v>693</v>
+        <v>57</v>
       </c>
       <c r="I739" s="20"/>
       <c r="J739" s="19"/>
@@ -40187,19 +40236,19 @@
         <v>1.25</v>
       </c>
       <c r="D740" s="15">
-        <v>1013996057</v>
+        <v>11567115272</v>
       </c>
       <c r="E740" s="16">
-        <v>10347993</v>
+        <v>10348227</v>
       </c>
       <c r="F740" s="15" t="s">
-        <v>239</v>
+        <v>696</v>
       </c>
       <c r="G740" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H740" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I740" s="20"/>
       <c r="J740" s="19"/>
@@ -40229,27 +40278,13 @@
     </row>
     <row r="741" ht="47.25" customHeight="1" spans="1:33">
       <c r="A741" s="6"/>
-      <c r="B741" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C741" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D741" s="15">
-        <v>11567115272</v>
-      </c>
-      <c r="E741" s="16">
-        <v>10348227</v>
-      </c>
-      <c r="F741" s="15" t="s">
-        <v>694</v>
-      </c>
-      <c r="G741" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H741" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="B741" s="14"/>
+      <c r="C741" s="14"/>
+      <c r="D741" s="15"/>
+      <c r="E741" s="16"/>
+      <c r="F741" s="15"/>
+      <c r="G741" s="15"/>
+      <c r="H741" s="15"/>
       <c r="I741" s="20"/>
       <c r="J741" s="19"/>
       <c r="K741" s="18"/>
@@ -40278,13 +40313,27 @@
     </row>
     <row r="742" ht="47.25" customHeight="1" spans="1:33">
       <c r="A742" s="6"/>
-      <c r="B742" s="14"/>
-      <c r="C742" s="14"/>
-      <c r="D742" s="15"/>
-      <c r="E742" s="16"/>
-      <c r="F742" s="15"/>
-      <c r="G742" s="15"/>
-      <c r="H742" s="15"/>
+      <c r="B742" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C742" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D742" s="15">
+        <v>1091324859</v>
+      </c>
+      <c r="E742" s="16">
+        <v>10347007</v>
+      </c>
+      <c r="F742" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="G742" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H742" s="15" t="s">
+        <v>186</v>
+      </c>
       <c r="I742" s="20"/>
       <c r="J742" s="19"/>
       <c r="K742" s="18"/>
@@ -40319,20 +40368,20 @@
       <c r="C743" s="14">
         <v>1.25</v>
       </c>
-      <c r="D743" s="15">
-        <v>1050623708</v>
+      <c r="D743" s="15" t="s">
+        <v>698</v>
       </c>
       <c r="E743" s="16">
-        <v>10306605</v>
+        <v>10347325</v>
       </c>
       <c r="F743" s="15" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="G743" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H743" s="15" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="I743" s="20"/>
       <c r="J743" s="19"/>
@@ -40366,22 +40415,22 @@
         <v>0.875</v>
       </c>
       <c r="C744" s="14">
-        <v>1.25</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D744" s="15">
-        <v>1091324859</v>
+        <v>1228798735</v>
       </c>
       <c r="E744" s="16">
-        <v>10347007</v>
+        <v>10347758</v>
       </c>
       <c r="F744" s="15" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="G744" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H744" s="15" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="I744" s="20"/>
       <c r="J744" s="19"/>
@@ -40417,20 +40466,20 @@
       <c r="C745" s="14">
         <v>1.25</v>
       </c>
-      <c r="D745" s="15" t="s">
-        <v>697</v>
+      <c r="D745" s="15">
+        <v>1270864338</v>
       </c>
       <c r="E745" s="16">
-        <v>10347325</v>
+        <v>10347997</v>
       </c>
       <c r="F745" s="15" t="s">
-        <v>698</v>
+        <v>498</v>
       </c>
       <c r="G745" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H745" s="15" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="I745" s="20"/>
       <c r="J745" s="19"/>
@@ -40464,22 +40513,22 @@
         <v>0.875</v>
       </c>
       <c r="C746" s="14">
-        <v>0.333333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="D746" s="15">
-        <v>1228798735</v>
+        <v>1500087789</v>
       </c>
       <c r="E746" s="16">
-        <v>10347758</v>
+        <v>10348054</v>
       </c>
       <c r="F746" s="15" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G746" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H746" s="15" t="s">
-        <v>197</v>
+        <v>702</v>
       </c>
       <c r="I746" s="20"/>
       <c r="J746" s="19"/>
@@ -40516,19 +40565,19 @@
         <v>1.25</v>
       </c>
       <c r="D747" s="15">
-        <v>1270864338</v>
+        <v>1210789851</v>
       </c>
       <c r="E747" s="16">
-        <v>10347997</v>
+        <v>10348269</v>
       </c>
       <c r="F747" s="15" t="s">
-        <v>499</v>
+        <v>703</v>
       </c>
       <c r="G747" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H747" s="15" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="I747" s="20"/>
       <c r="J747" s="19"/>
@@ -40562,22 +40611,22 @@
         <v>0.875</v>
       </c>
       <c r="C748" s="14">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="D748" s="15">
-        <v>1500087789</v>
+        <v>1110689559</v>
       </c>
       <c r="E748" s="16">
-        <v>10348054</v>
+        <v>10316740</v>
       </c>
       <c r="F748" s="15" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G748" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H748" s="15" t="s">
-        <v>701</v>
+        <v>191</v>
       </c>
       <c r="I748" s="20"/>
       <c r="J748" s="19"/>
@@ -40607,27 +40656,13 @@
     </row>
     <row r="749" ht="47.25" customHeight="1" spans="1:33">
       <c r="A749" s="6"/>
-      <c r="B749" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C749" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D749" s="15">
-        <v>1210789851</v>
-      </c>
-      <c r="E749" s="16">
-        <v>10348269</v>
-      </c>
-      <c r="F749" s="15" t="s">
-        <v>702</v>
-      </c>
-      <c r="G749" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H749" s="15" t="s">
-        <v>186</v>
-      </c>
+      <c r="B749" s="14"/>
+      <c r="C749" s="14"/>
+      <c r="D749" s="15"/>
+      <c r="E749" s="16"/>
+      <c r="F749" s="15"/>
+      <c r="G749" s="15"/>
+      <c r="H749" s="15"/>
       <c r="I749" s="20"/>
       <c r="J749" s="19"/>
       <c r="K749" s="18"/>
@@ -40660,22 +40695,22 @@
         <v>0.875</v>
       </c>
       <c r="C750" s="14">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="D750" s="15">
-        <v>1110689559</v>
+        <v>1031695970</v>
       </c>
       <c r="E750" s="16">
-        <v>10316740</v>
+        <v>10347183</v>
       </c>
       <c r="F750" s="15" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G750" s="15" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="H750" s="15" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="I750" s="20"/>
       <c r="J750" s="19"/>
@@ -40705,13 +40740,27 @@
     </row>
     <row r="751" ht="47.25" customHeight="1" spans="1:33">
       <c r="A751" s="6"/>
-      <c r="B751" s="14"/>
-      <c r="C751" s="14"/>
-      <c r="D751" s="15"/>
-      <c r="E751" s="16"/>
-      <c r="F751" s="15"/>
-      <c r="G751" s="15"/>
-      <c r="H751" s="15"/>
+      <c r="B751" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C751" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D751" s="15">
+        <v>1558595142</v>
+      </c>
+      <c r="E751" s="16">
+        <v>10348055</v>
+      </c>
+      <c r="F751" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="G751" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H751" s="15" t="s">
+        <v>615</v>
+      </c>
       <c r="I751" s="20"/>
       <c r="J751" s="19"/>
       <c r="K751" s="18"/>
@@ -40747,19 +40796,19 @@
         <v>1.25</v>
       </c>
       <c r="D752" s="15">
-        <v>1031695970</v>
+        <v>1146188508</v>
       </c>
       <c r="E752" s="16">
-        <v>10347183</v>
+        <v>10347234</v>
       </c>
       <c r="F752" s="15" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="G752" s="15" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="H752" s="15" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="I752" s="20"/>
       <c r="J752" s="19"/>
@@ -40795,20 +40844,20 @@
       <c r="C753" s="14">
         <v>1.25</v>
       </c>
-      <c r="D753" s="15">
-        <v>1558595142</v>
+      <c r="D753" s="15" t="s">
+        <v>708</v>
       </c>
       <c r="E753" s="16">
-        <v>10348055</v>
+        <v>10347261</v>
       </c>
       <c r="F753" s="15" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="G753" s="15" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="H753" s="15" t="s">
-        <v>614</v>
+        <v>14</v>
       </c>
       <c r="I753" s="20"/>
       <c r="J753" s="19"/>
@@ -40845,13 +40894,13 @@
         <v>1.25</v>
       </c>
       <c r="D754" s="15">
-        <v>1146188508</v>
+        <v>1129422164</v>
       </c>
       <c r="E754" s="16">
-        <v>10347234</v>
+        <v>10347324</v>
       </c>
       <c r="F754" s="15" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="G754" s="15" t="s">
         <v>13</v>
@@ -40894,13 +40943,13 @@
         <v>1.25</v>
       </c>
       <c r="D755" s="15" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="E755" s="16">
-        <v>10347261</v>
+        <v>10348300</v>
       </c>
       <c r="F755" s="15" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="G755" s="15" t="s">
         <v>13</v>
@@ -40942,14 +40991,14 @@
       <c r="C756" s="14">
         <v>1.25</v>
       </c>
-      <c r="D756" s="15">
-        <v>1129422164</v>
+      <c r="D756" s="15" t="s">
+        <v>713</v>
       </c>
       <c r="E756" s="16">
-        <v>10347324</v>
+        <v>10348303</v>
       </c>
       <c r="F756" s="15" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="G756" s="15" t="s">
         <v>13</v>
@@ -40983,31 +41032,33 @@
       <c r="AF756" s="18"/>
       <c r="AG756" s="18"/>
     </row>
-    <row r="757" ht="47.25" customHeight="1" spans="1:33">
+    <row r="757" ht="43.5" customHeight="1" spans="1:33">
       <c r="A757" s="6"/>
-      <c r="B757" s="14">
+      <c r="B757" s="25">
         <v>0.875</v>
       </c>
-      <c r="C757" s="14">
+      <c r="C757" s="25">
         <v>1.25</v>
       </c>
-      <c r="D757" s="15" t="s">
-        <v>710</v>
+      <c r="D757" s="26">
+        <v>1123084929</v>
       </c>
       <c r="E757" s="16">
-        <v>10348300</v>
-      </c>
-      <c r="F757" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="G757" s="15" t="s">
+        <v>10331204</v>
+      </c>
+      <c r="F757" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="G757" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H757" s="15" t="s">
+      <c r="H757" s="27" t="s">
         <v>14</v>
       </c>
       <c r="I757" s="20"/>
-      <c r="J757" s="19"/>
+      <c r="J757" s="19" t="s">
+        <v>493</v>
+      </c>
       <c r="K757" s="18"/>
       <c r="L757" s="18"/>
       <c r="M757" s="18"/>
@@ -41034,27 +41085,13 @@
     </row>
     <row r="758" ht="47.25" customHeight="1" spans="1:33">
       <c r="A758" s="6"/>
-      <c r="B758" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C758" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D758" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="E758" s="16">
-        <v>10348303</v>
-      </c>
-      <c r="F758" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="G758" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H758" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="B758" s="14"/>
+      <c r="C758" s="14"/>
+      <c r="D758" s="15"/>
+      <c r="E758" s="16"/>
+      <c r="F758" s="15"/>
+      <c r="G758" s="15"/>
+      <c r="H758" s="15"/>
       <c r="I758" s="20"/>
       <c r="J758" s="19"/>
       <c r="K758" s="18"/>
@@ -41083,13 +41120,27 @@
     </row>
     <row r="759" ht="47.25" customHeight="1" spans="1:33">
       <c r="A759" s="6"/>
-      <c r="B759" s="14"/>
-      <c r="C759" s="14"/>
-      <c r="D759" s="15"/>
-      <c r="E759" s="16"/>
-      <c r="F759" s="15"/>
-      <c r="G759" s="15"/>
-      <c r="H759" s="15"/>
+      <c r="B759" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C759" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D759" s="15">
+        <v>1024271525</v>
+      </c>
+      <c r="E759" s="16">
+        <v>10347004</v>
+      </c>
+      <c r="F759" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="G759" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H759" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="I759" s="20"/>
       <c r="J759" s="19"/>
       <c r="K759" s="18"/>
@@ -41118,27 +41169,13 @@
     </row>
     <row r="760" ht="47.25" customHeight="1" spans="1:33">
       <c r="A760" s="6"/>
-      <c r="B760" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C760" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D760" s="15">
-        <v>1024271525</v>
-      </c>
-      <c r="E760" s="16">
-        <v>10347004</v>
-      </c>
-      <c r="F760" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="G760" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H760" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="B760" s="14"/>
+      <c r="C760" s="14"/>
+      <c r="D760" s="15"/>
+      <c r="E760" s="16"/>
+      <c r="F760" s="15"/>
+      <c r="G760" s="15"/>
+      <c r="H760" s="15"/>
       <c r="I760" s="20"/>
       <c r="J760" s="19"/>
       <c r="K760" s="18"/>
@@ -41167,13 +41204,27 @@
     </row>
     <row r="761" ht="47.25" customHeight="1" spans="1:33">
       <c r="A761" s="6"/>
-      <c r="B761" s="14"/>
-      <c r="C761" s="14"/>
-      <c r="D761" s="15"/>
-      <c r="E761" s="16"/>
-      <c r="F761" s="15"/>
-      <c r="G761" s="15"/>
-      <c r="H761" s="15"/>
+      <c r="B761" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C761" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D761" s="15">
+        <v>1080545669</v>
+      </c>
+      <c r="E761" s="16">
+        <v>10320297</v>
+      </c>
+      <c r="F761" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="G761" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="H761" s="15" t="s">
+        <v>363</v>
+      </c>
       <c r="I761" s="20"/>
       <c r="J761" s="19"/>
       <c r="K761" s="18"/>
@@ -41202,27 +41253,13 @@
     </row>
     <row r="762" ht="47.25" customHeight="1" spans="1:33">
       <c r="A762" s="6"/>
-      <c r="B762" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C762" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D762" s="15">
-        <v>1080545669</v>
-      </c>
-      <c r="E762" s="16">
-        <v>10320297</v>
-      </c>
-      <c r="F762" s="15" t="s">
-        <v>715</v>
-      </c>
-      <c r="G762" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="H762" s="15" t="s">
-        <v>363</v>
-      </c>
+      <c r="B762" s="14"/>
+      <c r="C762" s="14"/>
+      <c r="D762" s="15"/>
+      <c r="E762" s="16"/>
+      <c r="F762" s="15"/>
+      <c r="G762" s="15"/>
+      <c r="H762" s="15"/>
       <c r="I762" s="20"/>
       <c r="J762" s="19"/>
       <c r="K762" s="18"/>
@@ -41249,15 +41286,17 @@
       <c r="AF762" s="18"/>
       <c r="AG762" s="18"/>
     </row>
-    <row r="763" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A763" s="6"/>
-      <c r="B763" s="14"/>
-      <c r="C763" s="14"/>
-      <c r="D763" s="15"/>
-      <c r="E763" s="16"/>
-      <c r="F763" s="15"/>
-      <c r="G763" s="15"/>
-      <c r="H763" s="15"/>
+    <row r="763" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A763" s="9">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="B763" s="10"/>
+      <c r="C763" s="10"/>
+      <c r="D763" s="10"/>
+      <c r="E763" s="11"/>
+      <c r="F763" s="10"/>
+      <c r="G763" s="10"/>
+      <c r="H763" s="10"/>
       <c r="I763" s="20"/>
       <c r="J763" s="19"/>
       <c r="K763" s="18"/>
@@ -41284,17 +41323,29 @@
       <c r="AF763" s="18"/>
       <c r="AG763" s="18"/>
     </row>
-    <row r="764" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A764" s="9">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="B764" s="10"/>
-      <c r="C764" s="10"/>
-      <c r="D764" s="10"/>
-      <c r="E764" s="11"/>
-      <c r="F764" s="10"/>
-      <c r="G764" s="10"/>
-      <c r="H764" s="10"/>
+    <row r="764" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A764" s="9"/>
+      <c r="B764" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C764" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D764" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E764" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F764" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G764" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H764" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I764" s="20"/>
       <c r="J764" s="19"/>
       <c r="K764" s="18"/>
@@ -41321,29 +41372,15 @@
       <c r="AF764" s="18"/>
       <c r="AG764" s="18"/>
     </row>
-    <row r="765" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A765" s="9"/>
-      <c r="B765" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C765" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D765" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E765" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F765" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G765" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H765" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="765" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A765" s="6"/>
+      <c r="B765" s="14"/>
+      <c r="C765" s="14"/>
+      <c r="D765" s="15"/>
+      <c r="E765" s="16"/>
+      <c r="F765" s="15"/>
+      <c r="G765" s="15"/>
+      <c r="H765" s="15"/>
       <c r="I765" s="20"/>
       <c r="J765" s="19"/>
       <c r="K765" s="18"/>
@@ -41372,13 +41409,27 @@
     </row>
     <row r="766" ht="47.25" customHeight="1" spans="1:33">
       <c r="A766" s="6"/>
-      <c r="B766" s="14"/>
-      <c r="C766" s="14"/>
-      <c r="D766" s="15"/>
-      <c r="E766" s="16"/>
-      <c r="F766" s="15"/>
-      <c r="G766" s="15"/>
-      <c r="H766" s="15"/>
+      <c r="B766" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C766" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D766" s="15">
+        <v>0</v>
+      </c>
+      <c r="E766" s="16">
+        <v>10347347</v>
+      </c>
+      <c r="F766" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="G766" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H766" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="I766" s="20"/>
       <c r="J766" s="19"/>
       <c r="K766" s="18"/>
@@ -41407,27 +41458,13 @@
     </row>
     <row r="767" ht="47.25" customHeight="1" spans="1:33">
       <c r="A767" s="6"/>
-      <c r="B767" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C767" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D767" s="15">
-        <v>0</v>
-      </c>
-      <c r="E767" s="16">
-        <v>10347347</v>
-      </c>
-      <c r="F767" s="15" t="s">
-        <v>687</v>
-      </c>
-      <c r="G767" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H767" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="B767" s="14"/>
+      <c r="C767" s="14"/>
+      <c r="D767" s="15"/>
+      <c r="E767" s="16"/>
+      <c r="F767" s="15"/>
+      <c r="G767" s="15"/>
+      <c r="H767" s="15"/>
       <c r="I767" s="20"/>
       <c r="J767" s="19"/>
       <c r="K767" s="18"/>
@@ -41456,13 +41493,27 @@
     </row>
     <row r="768" ht="47.25" customHeight="1" spans="1:33">
       <c r="A768" s="6"/>
-      <c r="B768" s="14"/>
-      <c r="C768" s="14"/>
-      <c r="D768" s="15"/>
-      <c r="E768" s="16"/>
-      <c r="F768" s="15"/>
-      <c r="G768" s="15"/>
-      <c r="H768" s="15"/>
+      <c r="B768" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C768" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D768" s="15">
+        <v>1281239426</v>
+      </c>
+      <c r="E768" s="16">
+        <v>10347530</v>
+      </c>
+      <c r="F768" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="G768" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H768" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="I768" s="20"/>
       <c r="J768" s="19"/>
       <c r="K768" s="18"/>
@@ -41498,19 +41549,19 @@
         <v>1.29166666666667</v>
       </c>
       <c r="D769" s="15">
-        <v>1281239426</v>
+        <v>1091172333</v>
       </c>
       <c r="E769" s="16">
-        <v>10347530</v>
+        <v>10347609</v>
       </c>
       <c r="F769" s="15" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="G769" s="15" t="s">
         <v>19</v>
       </c>
       <c r="H769" s="15" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I769" s="20"/>
       <c r="J769" s="19"/>
@@ -41547,19 +41598,19 @@
         <v>1.29166666666667</v>
       </c>
       <c r="D770" s="15">
-        <v>1091172333</v>
+        <v>1020340671</v>
       </c>
       <c r="E770" s="16">
-        <v>10347609</v>
+        <v>10347646</v>
       </c>
       <c r="F770" s="15" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="G770" s="15" t="s">
         <v>19</v>
       </c>
       <c r="H770" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I770" s="20"/>
       <c r="J770" s="19"/>
@@ -41596,13 +41647,13 @@
         <v>1.29166666666667</v>
       </c>
       <c r="D771" s="15">
-        <v>1020340671</v>
+        <v>1111993596</v>
       </c>
       <c r="E771" s="16">
-        <v>10347646</v>
+        <v>10348040</v>
       </c>
       <c r="F771" s="15" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="G771" s="15" t="s">
         <v>19</v>
@@ -41642,21 +41693,21 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C772" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D772" s="15">
-        <v>1111993596</v>
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D772" s="15" t="s">
+        <v>722</v>
       </c>
       <c r="E772" s="16">
-        <v>10348040</v>
+        <v>10346150</v>
       </c>
       <c r="F772" s="15" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="G772" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H772" s="15" t="s">
+      <c r="H772" s="27" t="s">
         <v>39</v>
       </c>
       <c r="I772" s="20"/>
@@ -41735,7 +41786,7 @@
         <v>10333416</v>
       </c>
       <c r="F774" s="15" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="G774" s="15" t="s">
         <v>96</v>
@@ -41819,7 +41870,7 @@
         <v>10347589</v>
       </c>
       <c r="F776" s="15" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="G776" s="15" t="s">
         <v>99</v>
@@ -41868,7 +41919,7 @@
         <v>10333417</v>
       </c>
       <c r="F777" s="15" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="G777" s="15" t="s">
         <v>99</v>
@@ -41952,13 +42003,13 @@
         <v>10336631</v>
       </c>
       <c r="F779" s="15" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="G779" s="15" t="s">
         <v>120</v>
       </c>
       <c r="H779" s="15" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="I779" s="20"/>
       <c r="J779" s="19"/>
@@ -42001,7 +42052,7 @@
         <v>10326498</v>
       </c>
       <c r="F780" s="15" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="G780" s="15" t="s">
         <v>120</v>
@@ -42085,7 +42136,7 @@
         <v>10349056</v>
       </c>
       <c r="F782" s="15" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="G782" s="15" t="s">
         <v>46</v>
@@ -42134,7 +42185,7 @@
         <v>10245223</v>
       </c>
       <c r="F783" s="15" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="G783" s="15" t="s">
         <v>46</v>
@@ -42183,7 +42234,7 @@
         <v>10330150</v>
       </c>
       <c r="F784" s="15" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="G784" s="15" t="s">
         <v>46</v>
@@ -42267,7 +42318,7 @@
         <v>10349032</v>
       </c>
       <c r="F786" s="15" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="G786" s="15" t="s">
         <v>142</v>
@@ -42342,22 +42393,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C788" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D788" s="15">
-        <v>1055980976</v>
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D788" s="15" t="s">
+        <v>734</v>
       </c>
       <c r="E788" s="16">
-        <v>10348043</v>
+        <v>10349033</v>
       </c>
       <c r="F788" s="15" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="G788" s="15" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="H788" s="15" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="I788" s="20"/>
       <c r="J788" s="19"/>
@@ -42387,13 +42438,27 @@
     </row>
     <row r="789" ht="47.25" customHeight="1" spans="1:33">
       <c r="A789" s="6"/>
-      <c r="B789" s="14"/>
-      <c r="C789" s="14"/>
-      <c r="D789" s="15"/>
-      <c r="E789" s="16"/>
-      <c r="F789" s="15"/>
-      <c r="G789" s="15"/>
-      <c r="H789" s="15"/>
+      <c r="B789" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C789" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D789" s="15">
+        <v>1155645885</v>
+      </c>
+      <c r="E789" s="16">
+        <v>10348986</v>
+      </c>
+      <c r="F789" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="G789" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H789" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="I789" s="20"/>
       <c r="J789" s="19"/>
       <c r="K789" s="18"/>
@@ -42428,20 +42493,20 @@
       <c r="C790" s="14">
         <v>0.791666666666667</v>
       </c>
-      <c r="D790" s="15" t="s">
-        <v>731</v>
+      <c r="D790" s="15">
+        <v>1061512549</v>
       </c>
       <c r="E790" s="16">
-        <v>10349033</v>
+        <v>10349013</v>
       </c>
       <c r="F790" s="15" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="G790" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H790" s="15" t="s">
-        <v>52</v>
+        <v>536</v>
       </c>
       <c r="I790" s="20"/>
       <c r="J790" s="19"/>
@@ -42471,27 +42536,13 @@
     </row>
     <row r="791" ht="47.25" customHeight="1" spans="1:33">
       <c r="A791" s="6"/>
-      <c r="B791" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C791" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D791" s="15">
-        <v>1155645885</v>
-      </c>
-      <c r="E791" s="16">
-        <v>10348986</v>
-      </c>
-      <c r="F791" s="15" t="s">
-        <v>733</v>
-      </c>
-      <c r="G791" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H791" s="15" t="s">
-        <v>52</v>
-      </c>
+      <c r="B791" s="14"/>
+      <c r="C791" s="14"/>
+      <c r="D791" s="15"/>
+      <c r="E791" s="16"/>
+      <c r="F791" s="15"/>
+      <c r="G791" s="15"/>
+      <c r="H791" s="15"/>
       <c r="I791" s="20"/>
       <c r="J791" s="19"/>
       <c r="K791" s="18"/>
@@ -42524,22 +42575,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C792" s="14">
-        <v>0.791666666666667</v>
+        <v>1.29166666666667</v>
       </c>
       <c r="D792" s="15">
-        <v>1061512549</v>
+        <v>1092636192</v>
       </c>
       <c r="E792" s="16">
-        <v>10349013</v>
+        <v>10274975</v>
       </c>
       <c r="F792" s="15" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="G792" s="15" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H792" s="15" t="s">
-        <v>537</v>
+        <v>739</v>
       </c>
       <c r="I792" s="20"/>
       <c r="J792" s="19"/>
@@ -42569,13 +42620,27 @@
     </row>
     <row r="793" ht="47.25" customHeight="1" spans="1:33">
       <c r="A793" s="6"/>
-      <c r="B793" s="14"/>
-      <c r="C793" s="14"/>
-      <c r="D793" s="15"/>
-      <c r="E793" s="16"/>
-      <c r="F793" s="15"/>
-      <c r="G793" s="15"/>
-      <c r="H793" s="15"/>
+      <c r="B793" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C793" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D793" s="15">
+        <v>1013249320</v>
+      </c>
+      <c r="E793" s="16">
+        <v>10292085</v>
+      </c>
+      <c r="F793" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="G793" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H793" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="I793" s="20"/>
       <c r="J793" s="19"/>
       <c r="K793" s="18"/>
@@ -42611,19 +42676,19 @@
         <v>1.29166666666667</v>
       </c>
       <c r="D794" s="15">
-        <v>1092636192</v>
+        <v>1555693374</v>
       </c>
       <c r="E794" s="16">
-        <v>10274975</v>
+        <v>10347601</v>
       </c>
       <c r="F794" s="15" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="G794" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H794" s="15" t="s">
-        <v>736</v>
+        <v>55</v>
       </c>
       <c r="I794" s="20"/>
       <c r="J794" s="19"/>
@@ -42660,13 +42725,13 @@
         <v>1.29166666666667</v>
       </c>
       <c r="D795" s="15">
-        <v>1013249320</v>
+        <v>1093300936</v>
       </c>
       <c r="E795" s="16">
-        <v>10292085</v>
+        <v>10347607</v>
       </c>
       <c r="F795" s="15" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="G795" s="15" t="s">
         <v>29</v>
@@ -42709,19 +42774,19 @@
         <v>1.29166666666667</v>
       </c>
       <c r="D796" s="15">
-        <v>1555693374</v>
+        <v>1144418499</v>
       </c>
       <c r="E796" s="16">
-        <v>10347601</v>
+        <v>10347630</v>
       </c>
       <c r="F796" s="15" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="G796" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H796" s="15" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="I796" s="20"/>
       <c r="J796" s="19"/>
@@ -42755,22 +42820,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C797" s="14">
-        <v>1.29166666666667</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="D797" s="15">
-        <v>1093300936</v>
+        <v>1002924890</v>
       </c>
       <c r="E797" s="16">
-        <v>10347607</v>
+        <v>10330597</v>
       </c>
       <c r="F797" s="15" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="G797" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H797" s="15" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="I797" s="20"/>
       <c r="J797" s="19"/>
@@ -42804,22 +42869,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C798" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D798" s="15">
-        <v>1144418499</v>
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D798" s="15" t="s">
+        <v>745</v>
       </c>
       <c r="E798" s="16">
-        <v>10347630</v>
+        <v>10348000</v>
       </c>
       <c r="F798" s="15" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="G798" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H798" s="15" t="s">
-        <v>176</v>
+      <c r="H798" s="27" t="s">
+        <v>747</v>
       </c>
       <c r="I798" s="20"/>
       <c r="J798" s="19"/>
@@ -42849,27 +42914,13 @@
     </row>
     <row r="799" ht="47.25" customHeight="1" spans="1:33">
       <c r="A799" s="6"/>
-      <c r="B799" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C799" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D799" s="15">
-        <v>1002924890</v>
-      </c>
-      <c r="E799" s="16">
-        <v>10330597</v>
-      </c>
-      <c r="F799" s="15" t="s">
-        <v>741</v>
-      </c>
-      <c r="G799" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H799" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="B799" s="14"/>
+      <c r="C799" s="14"/>
+      <c r="D799" s="15"/>
+      <c r="E799" s="16"/>
+      <c r="F799" s="15"/>
+      <c r="G799" s="15"/>
+      <c r="H799" s="15"/>
       <c r="I799" s="20"/>
       <c r="J799" s="19"/>
       <c r="K799" s="18"/>
@@ -42898,13 +42949,27 @@
     </row>
     <row r="800" ht="47.25" customHeight="1" spans="1:33">
       <c r="A800" s="6"/>
-      <c r="B800" s="14"/>
-      <c r="C800" s="14"/>
-      <c r="D800" s="15"/>
-      <c r="E800" s="16"/>
-      <c r="F800" s="15"/>
-      <c r="G800" s="15"/>
-      <c r="H800" s="15"/>
+      <c r="B800" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C800" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D800" s="15">
+        <v>1558822005</v>
+      </c>
+      <c r="E800" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F800" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="G800" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H800" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="I800" s="20"/>
       <c r="J800" s="19"/>
       <c r="K800" s="18"/>
@@ -42940,13 +43005,13 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D801" s="15">
-        <v>1558822005</v>
-      </c>
-      <c r="E801" s="16" t="s">
-        <v>221</v>
+        <v>1555119737</v>
+      </c>
+      <c r="E801" s="16">
+        <v>10348989</v>
       </c>
       <c r="F801" s="15" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="G801" s="15" t="s">
         <v>32</v>
@@ -42986,22 +43051,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C802" s="14">
-        <v>0.791666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D802" s="15">
-        <v>1555119737</v>
+        <v>1280323963</v>
       </c>
       <c r="E802" s="16">
-        <v>10348989</v>
+        <v>10346560</v>
       </c>
       <c r="F802" s="15" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="G802" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H802" s="15" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="I802" s="20"/>
       <c r="J802" s="19"/>
@@ -43035,22 +43100,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C803" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D803" s="15">
-        <v>1153235087</v>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D803" s="15" t="s">
+        <v>751</v>
       </c>
       <c r="E803" s="16">
-        <v>10341020</v>
+        <v>10346796</v>
       </c>
       <c r="F803" s="15" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="G803" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H803" s="15" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="I803" s="20"/>
       <c r="J803" s="19"/>
@@ -43084,22 +43149,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C804" s="14">
-        <v>0.333333333333333</v>
+        <v>1.29166666666667</v>
       </c>
       <c r="D804" s="15">
-        <v>1280323963</v>
+        <v>1222696146</v>
       </c>
       <c r="E804" s="16">
-        <v>10346560</v>
+        <v>10347605</v>
       </c>
       <c r="F804" s="15" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="G804" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H804" s="15" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="I804" s="20"/>
       <c r="J804" s="19"/>
@@ -43133,22 +43198,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C805" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D805" s="15" t="s">
-        <v>746</v>
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D805" s="15">
+        <v>1097424636</v>
       </c>
       <c r="E805" s="16">
-        <v>10346796</v>
+        <v>10347983</v>
       </c>
       <c r="F805" s="15" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="G805" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H805" s="15" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="I805" s="20"/>
       <c r="J805" s="19"/>
@@ -43184,20 +43249,20 @@
       <c r="C806" s="14">
         <v>1.29166666666667</v>
       </c>
-      <c r="D806" s="15">
-        <v>1222696146</v>
+      <c r="D806" s="15" t="s">
+        <v>755</v>
       </c>
       <c r="E806" s="16">
-        <v>10347605</v>
+        <v>10348015</v>
       </c>
       <c r="F806" s="15" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="G806" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H806" s="15" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
       <c r="I806" s="20"/>
       <c r="J806" s="19"/>
@@ -43231,22 +43296,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C807" s="14">
-        <v>1.29166666666667</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="D807" s="15">
-        <v>1097424636</v>
+        <v>1005741195</v>
       </c>
       <c r="E807" s="16">
-        <v>10347983</v>
+        <v>10335060</v>
       </c>
       <c r="F807" s="15" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="G807" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H807" s="15" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="I807" s="20"/>
       <c r="J807" s="19"/>
@@ -43276,27 +43341,13 @@
     </row>
     <row r="808" ht="47.25" customHeight="1" spans="1:33">
       <c r="A808" s="6"/>
-      <c r="B808" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C808" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D808" s="15" t="s">
-        <v>750</v>
-      </c>
-      <c r="E808" s="16">
-        <v>10348015</v>
-      </c>
-      <c r="F808" s="15" t="s">
-        <v>751</v>
-      </c>
-      <c r="G808" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H808" s="15" t="s">
-        <v>312</v>
-      </c>
+      <c r="B808" s="14"/>
+      <c r="C808" s="14"/>
+      <c r="D808" s="15"/>
+      <c r="E808" s="16"/>
+      <c r="F808" s="15"/>
+      <c r="G808" s="15"/>
+      <c r="H808" s="15"/>
       <c r="I808" s="20"/>
       <c r="J808" s="19"/>
       <c r="K808" s="18"/>
@@ -43329,22 +43380,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C809" s="14">
-        <v>0.291666666666667</v>
+        <v>1.29166666666667</v>
       </c>
       <c r="D809" s="15">
-        <v>1005741195</v>
+        <v>1559633455</v>
       </c>
       <c r="E809" s="16">
-        <v>10335060</v>
+        <v>10343475</v>
       </c>
       <c r="F809" s="15" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="G809" s="15" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="H809" s="15" t="s">
-        <v>33</v>
+        <v>615</v>
       </c>
       <c r="I809" s="20"/>
       <c r="J809" s="19"/>
@@ -43374,13 +43425,27 @@
     </row>
     <row r="810" ht="47.25" customHeight="1" spans="1:33">
       <c r="A810" s="6"/>
-      <c r="B810" s="14"/>
-      <c r="C810" s="14"/>
-      <c r="D810" s="15"/>
-      <c r="E810" s="16"/>
-      <c r="F810" s="15"/>
-      <c r="G810" s="15"/>
-      <c r="H810" s="15"/>
+      <c r="B810" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C810" s="14">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="D810" s="15">
+        <v>1096062793</v>
+      </c>
+      <c r="E810" s="16">
+        <v>10347754</v>
+      </c>
+      <c r="F810" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="G810" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H810" s="15" t="s">
+        <v>204</v>
+      </c>
       <c r="I810" s="20"/>
       <c r="J810" s="19"/>
       <c r="K810" s="18"/>
@@ -43415,20 +43480,20 @@
       <c r="C811" s="14">
         <v>1.29166666666667</v>
       </c>
-      <c r="D811" s="15">
-        <v>1559633455</v>
+      <c r="D811" s="15" t="s">
+        <v>760</v>
       </c>
       <c r="E811" s="16">
-        <v>10343475</v>
+        <v>10348008</v>
       </c>
       <c r="F811" s="15" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="G811" s="15" t="s">
         <v>203</v>
       </c>
       <c r="H811" s="15" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I811" s="20"/>
       <c r="J811" s="19"/>
@@ -43464,20 +43529,20 @@
       <c r="C812" s="14">
         <v>1.29166666666667</v>
       </c>
-      <c r="D812" s="15">
-        <v>1096062793</v>
+      <c r="D812" s="15" t="s">
+        <v>762</v>
       </c>
       <c r="E812" s="16">
-        <v>10347754</v>
+        <v>10348014</v>
       </c>
       <c r="F812" s="15" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="G812" s="15" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="H812" s="15" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="I812" s="20"/>
       <c r="J812" s="19"/>
@@ -43511,22 +43576,22 @@
         <v>0.916666666666667</v>
       </c>
       <c r="C813" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D813" s="15" t="s">
-        <v>755</v>
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D813" s="15">
+        <v>1505499876</v>
       </c>
       <c r="E813" s="16">
-        <v>10348008</v>
+        <v>10333845</v>
       </c>
       <c r="F813" s="15" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="G813" s="15" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="H813" s="15" t="s">
-        <v>614</v>
+        <v>14</v>
       </c>
       <c r="I813" s="20"/>
       <c r="J813" s="19"/>
@@ -43556,27 +43621,13 @@
     </row>
     <row r="814" ht="47.25" customHeight="1" spans="1:33">
       <c r="A814" s="6"/>
-      <c r="B814" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C814" s="14">
-        <v>1.29166666666667</v>
-      </c>
-      <c r="D814" s="15" t="s">
-        <v>757</v>
-      </c>
-      <c r="E814" s="16">
-        <v>10348014</v>
-      </c>
-      <c r="F814" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="G814" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H814" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="B814" s="14"/>
+      <c r="C814" s="14"/>
+      <c r="D814" s="15"/>
+      <c r="E814" s="16"/>
+      <c r="F814" s="15"/>
+      <c r="G814" s="15"/>
+      <c r="H814" s="15"/>
       <c r="I814" s="20"/>
       <c r="J814" s="19"/>
       <c r="K814" s="18"/>
@@ -43603,29 +43654,17 @@
       <c r="AF814" s="18"/>
       <c r="AG814" s="18"/>
     </row>
-    <row r="815" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A815" s="6"/>
-      <c r="B815" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C815" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D815" s="15">
-        <v>1505499876</v>
-      </c>
-      <c r="E815" s="16">
-        <v>10333845</v>
-      </c>
-      <c r="F815" s="15" t="s">
-        <v>759</v>
-      </c>
-      <c r="G815" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H815" s="15" t="s">
-        <v>14</v>
-      </c>
+    <row r="815" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A815" s="9">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="B815" s="10"/>
+      <c r="C815" s="10"/>
+      <c r="D815" s="10"/>
+      <c r="E815" s="11"/>
+      <c r="F815" s="10"/>
+      <c r="G815" s="10"/>
+      <c r="H815" s="10"/>
       <c r="I815" s="20"/>
       <c r="J815" s="19"/>
       <c r="K815" s="18"/>
@@ -43652,15 +43691,29 @@
       <c r="AF815" s="18"/>
       <c r="AG815" s="18"/>
     </row>
-    <row r="816" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A816" s="6"/>
-      <c r="B816" s="14"/>
-      <c r="C816" s="14"/>
-      <c r="D816" s="15"/>
-      <c r="E816" s="16"/>
-      <c r="F816" s="15"/>
-      <c r="G816" s="15"/>
-      <c r="H816" s="15"/>
+    <row r="816" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A816" s="12"/>
+      <c r="B816" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C816" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D816" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E816" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F816" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G816" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H816" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I816" s="20"/>
       <c r="J816" s="19"/>
       <c r="K816" s="18"/>
@@ -43687,17 +43740,15 @@
       <c r="AF816" s="18"/>
       <c r="AG816" s="18"/>
     </row>
-    <row r="817" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A817" s="9">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="B817" s="10"/>
-      <c r="C817" s="10"/>
-      <c r="D817" s="10"/>
-      <c r="E817" s="11"/>
-      <c r="F817" s="10"/>
-      <c r="G817" s="10"/>
-      <c r="H817" s="10"/>
+    <row r="817" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A817" s="6"/>
+      <c r="B817" s="14"/>
+      <c r="C817" s="14"/>
+      <c r="D817" s="15"/>
+      <c r="E817" s="16"/>
+      <c r="F817" s="15"/>
+      <c r="G817" s="15"/>
+      <c r="H817" s="15"/>
       <c r="I817" s="20"/>
       <c r="J817" s="19"/>
       <c r="K817" s="18"/>
@@ -43725,27 +43776,27 @@
       <c r="AG817" s="18"/>
     </row>
     <row r="818" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A818" s="12"/>
-      <c r="B818" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C818" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D818" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E818" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F818" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G818" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H818" s="8" t="s">
-        <v>6</v>
+      <c r="A818" s="6"/>
+      <c r="B818" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C818" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D818" s="15">
+        <v>1005018561</v>
+      </c>
+      <c r="E818" s="16">
+        <v>10347014</v>
+      </c>
+      <c r="F818" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="G818" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H818" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="I818" s="20"/>
       <c r="J818" s="19"/>
@@ -43775,13 +43826,27 @@
     </row>
     <row r="819" ht="43.5" customHeight="1" spans="1:33">
       <c r="A819" s="6"/>
-      <c r="B819" s="14"/>
-      <c r="C819" s="14"/>
-      <c r="D819" s="15"/>
-      <c r="E819" s="16"/>
-      <c r="F819" s="15"/>
-      <c r="G819" s="15"/>
-      <c r="H819" s="15"/>
+      <c r="B819" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C819" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D819" s="15">
+        <v>1092831999</v>
+      </c>
+      <c r="E819" s="16">
+        <v>10344167</v>
+      </c>
+      <c r="F819" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="G819" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="H819" s="15" t="s">
+        <v>767</v>
+      </c>
       <c r="I819" s="20"/>
       <c r="J819" s="19"/>
       <c r="K819" s="18"/>
@@ -43810,27 +43875,13 @@
     </row>
     <row r="820" ht="43.5" customHeight="1" spans="1:33">
       <c r="A820" s="6"/>
-      <c r="B820" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C820" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D820" s="15">
-        <v>1005018561</v>
-      </c>
-      <c r="E820" s="16">
-        <v>10347014</v>
-      </c>
-      <c r="F820" s="15" t="s">
-        <v>760</v>
-      </c>
-      <c r="G820" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H820" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="B820" s="14"/>
+      <c r="C820" s="14"/>
+      <c r="D820" s="15"/>
+      <c r="E820" s="16"/>
+      <c r="F820" s="15"/>
+      <c r="G820" s="15"/>
+      <c r="H820" s="15"/>
       <c r="I820" s="20"/>
       <c r="J820" s="19"/>
       <c r="K820" s="18"/>
@@ -43866,19 +43917,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D821" s="15">
-        <v>1092831999</v>
+        <v>1024731489</v>
       </c>
       <c r="E821" s="16">
-        <v>10344167</v>
+        <v>10344861</v>
       </c>
       <c r="F821" s="15" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="G821" s="15" t="s">
-        <v>762</v>
+        <v>19</v>
       </c>
       <c r="H821" s="15" t="s">
-        <v>762</v>
+        <v>39</v>
       </c>
       <c r="I821" s="20"/>
       <c r="J821" s="19"/>
@@ -43908,13 +43959,27 @@
     </row>
     <row r="822" ht="43.5" customHeight="1" spans="1:33">
       <c r="A822" s="6"/>
-      <c r="B822" s="14"/>
-      <c r="C822" s="14"/>
-      <c r="D822" s="15"/>
-      <c r="E822" s="16"/>
-      <c r="F822" s="15"/>
-      <c r="G822" s="15"/>
-      <c r="H822" s="15"/>
+      <c r="B822" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C822" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D822" s="15">
+        <v>1280325265</v>
+      </c>
+      <c r="E822" s="16">
+        <v>10346556</v>
+      </c>
+      <c r="F822" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="G822" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H822" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="I822" s="20"/>
       <c r="J822" s="19"/>
       <c r="K822" s="18"/>
@@ -43943,27 +44008,13 @@
     </row>
     <row r="823" ht="43.5" customHeight="1" spans="1:33">
       <c r="A823" s="6"/>
-      <c r="B823" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C823" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D823" s="15">
-        <v>1024731489</v>
-      </c>
-      <c r="E823" s="16">
-        <v>10344861</v>
-      </c>
-      <c r="F823" s="15" t="s">
-        <v>763</v>
-      </c>
-      <c r="G823" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H823" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="B823" s="14"/>
+      <c r="C823" s="14"/>
+      <c r="D823" s="15"/>
+      <c r="E823" s="16"/>
+      <c r="F823" s="15"/>
+      <c r="G823" s="15"/>
+      <c r="H823" s="15"/>
       <c r="I823" s="20"/>
       <c r="J823" s="19"/>
       <c r="K823" s="18"/>
@@ -43999,22 +44050,24 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D824" s="15">
-        <v>1280325265</v>
+        <v>1145153164</v>
       </c>
       <c r="E824" s="16">
-        <v>10346556</v>
+        <v>10319094</v>
       </c>
       <c r="F824" s="15" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="G824" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H824" s="15" t="s">
-        <v>20</v>
+        <v>96</v>
+      </c>
+      <c r="H824" s="27" t="s">
+        <v>340</v>
       </c>
       <c r="I824" s="20"/>
-      <c r="J824" s="19"/>
+      <c r="J824" s="19" t="s">
+        <v>648</v>
+      </c>
       <c r="K824" s="18"/>
       <c r="L824" s="18"/>
       <c r="M824" s="18"/>
@@ -44089,7 +44142,7 @@
         <v>10322837</v>
       </c>
       <c r="F826" s="15" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="G826" s="15" t="s">
         <v>26</v>
@@ -44173,7 +44226,7 @@
         <v>10336453</v>
       </c>
       <c r="F828" s="15" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="G828" s="15" t="s">
         <v>46</v>
@@ -44216,19 +44269,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D829" s="15">
-        <v>1285622455</v>
+        <v>1122706070</v>
       </c>
       <c r="E829" s="16">
-        <v>10344307</v>
+        <v>10344863</v>
       </c>
       <c r="F829" s="15" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="G829" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H829" s="15" t="s">
-        <v>278</v>
+        <v>140</v>
       </c>
       <c r="I829" s="20"/>
       <c r="J829" s="19"/>
@@ -44265,19 +44318,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D830" s="15">
-        <v>1122706070</v>
+        <v>1021293302</v>
       </c>
       <c r="E830" s="16">
-        <v>10344863</v>
+        <v>10344866</v>
       </c>
       <c r="F830" s="15" t="s">
-        <v>768</v>
+        <v>655</v>
       </c>
       <c r="G830" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H830" s="15" t="s">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="I830" s="20"/>
       <c r="J830" s="19"/>
@@ -44314,19 +44367,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D831" s="15">
-        <v>1021293302</v>
+        <v>1126128951</v>
       </c>
       <c r="E831" s="16">
-        <v>10344866</v>
+        <v>10344185</v>
       </c>
       <c r="F831" s="15" t="s">
-        <v>652</v>
+        <v>774</v>
       </c>
       <c r="G831" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H831" s="15" t="s">
-        <v>278</v>
+      <c r="H831" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="I831" s="20"/>
       <c r="J831" s="19"/>
@@ -44404,7 +44457,7 @@
         <v>10347593</v>
       </c>
       <c r="F833" s="15" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="G833" s="15" t="s">
         <v>10</v>
@@ -44438,17 +44491,33 @@
       <c r="AF833" s="18"/>
       <c r="AG833" s="18"/>
     </row>
-    <row r="834" ht="43.5" customHeight="1" spans="1:33">
+    <row r="834" ht="47.25" customHeight="1" spans="1:33">
       <c r="A834" s="6"/>
-      <c r="B834" s="14"/>
-      <c r="C834" s="14"/>
-      <c r="D834" s="15"/>
-      <c r="E834" s="16"/>
-      <c r="F834" s="15"/>
-      <c r="G834" s="15"/>
-      <c r="H834" s="15"/>
+      <c r="B834" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C834" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D834" s="15">
+        <v>1002894384</v>
+      </c>
+      <c r="E834" s="16">
+        <v>10347165</v>
+      </c>
+      <c r="F834" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="G834" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H834" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="I834" s="20"/>
-      <c r="J834" s="19"/>
+      <c r="J834" s="19" t="s">
+        <v>654</v>
+      </c>
       <c r="K834" s="18"/>
       <c r="L834" s="18"/>
       <c r="M834" s="18"/>
@@ -44475,27 +44544,13 @@
     </row>
     <row r="835" ht="43.5" customHeight="1" spans="1:33">
       <c r="A835" s="6"/>
-      <c r="B835" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C835" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D835" s="15">
-        <v>1552032039</v>
-      </c>
-      <c r="E835" s="16">
-        <v>10313972</v>
-      </c>
-      <c r="F835" s="15" t="s">
-        <v>770</v>
-      </c>
-      <c r="G835" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H835" s="15" t="s">
-        <v>52</v>
-      </c>
+      <c r="B835" s="14"/>
+      <c r="C835" s="14"/>
+      <c r="D835" s="15"/>
+      <c r="E835" s="16"/>
+      <c r="F835" s="15"/>
+      <c r="G835" s="15"/>
+      <c r="H835" s="15"/>
       <c r="I835" s="20"/>
       <c r="J835" s="19"/>
       <c r="K835" s="18"/>
@@ -44524,13 +44579,27 @@
     </row>
     <row r="836" ht="43.5" customHeight="1" spans="1:33">
       <c r="A836" s="6"/>
-      <c r="B836" s="14"/>
-      <c r="C836" s="14"/>
-      <c r="D836" s="15"/>
-      <c r="E836" s="16"/>
-      <c r="F836" s="15"/>
-      <c r="G836" s="15"/>
-      <c r="H836" s="15"/>
+      <c r="B836" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C836" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D836" s="15">
+        <v>1552032039</v>
+      </c>
+      <c r="E836" s="16">
+        <v>10313972</v>
+      </c>
+      <c r="F836" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="G836" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H836" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="I836" s="20"/>
       <c r="J836" s="19"/>
       <c r="K836" s="18"/>
@@ -44559,27 +44628,13 @@
     </row>
     <row r="837" ht="43.5" customHeight="1" spans="1:33">
       <c r="A837" s="6"/>
-      <c r="B837" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C837" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D837" s="15">
-        <v>1552456793</v>
-      </c>
-      <c r="E837" s="16">
-        <v>10344749</v>
-      </c>
-      <c r="F837" s="15" t="s">
-        <v>771</v>
-      </c>
-      <c r="G837" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H837" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="B837" s="14"/>
+      <c r="C837" s="14"/>
+      <c r="D837" s="15"/>
+      <c r="E837" s="16"/>
+      <c r="F837" s="15"/>
+      <c r="G837" s="15"/>
+      <c r="H837" s="15"/>
       <c r="I837" s="20"/>
       <c r="J837" s="19"/>
       <c r="K837" s="18"/>
@@ -44615,19 +44670,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D838" s="15">
-        <v>1044237280</v>
+        <v>1552456793</v>
       </c>
       <c r="E838" s="16">
-        <v>10346789</v>
+        <v>10344749</v>
       </c>
       <c r="F838" s="15" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="G838" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H838" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I838" s="20"/>
       <c r="J838" s="19"/>
@@ -44664,19 +44719,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D839" s="15">
-        <v>1117228732</v>
+        <v>1044237280</v>
       </c>
       <c r="E839" s="16">
-        <v>10285481</v>
+        <v>10346789</v>
       </c>
       <c r="F839" s="15" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="G839" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H839" s="15" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="I839" s="20"/>
       <c r="J839" s="19"/>
@@ -44706,13 +44761,27 @@
     </row>
     <row r="840" ht="43.5" customHeight="1" spans="1:33">
       <c r="A840" s="6"/>
-      <c r="B840" s="14"/>
-      <c r="C840" s="14"/>
-      <c r="D840" s="15"/>
-      <c r="E840" s="16"/>
-      <c r="F840" s="15"/>
-      <c r="G840" s="15"/>
-      <c r="H840" s="15"/>
+      <c r="B840" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C840" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D840" s="15">
+        <v>1117228732</v>
+      </c>
+      <c r="E840" s="16">
+        <v>10285481</v>
+      </c>
+      <c r="F840" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="G840" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H840" s="15" t="s">
+        <v>182</v>
+      </c>
       <c r="I840" s="20"/>
       <c r="J840" s="19"/>
       <c r="K840" s="18"/>
@@ -44741,27 +44810,13 @@
     </row>
     <row r="841" ht="43.5" customHeight="1" spans="1:33">
       <c r="A841" s="6"/>
-      <c r="B841" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C841" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D841" s="15">
-        <v>1555036873</v>
-      </c>
-      <c r="E841" s="16">
-        <v>10317235</v>
-      </c>
-      <c r="F841" s="15" t="s">
-        <v>774</v>
-      </c>
-      <c r="G841" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H841" s="15" t="s">
-        <v>191</v>
-      </c>
+      <c r="B841" s="14"/>
+      <c r="C841" s="14"/>
+      <c r="D841" s="15"/>
+      <c r="E841" s="16"/>
+      <c r="F841" s="15"/>
+      <c r="G841" s="15"/>
+      <c r="H841" s="15"/>
       <c r="I841" s="20"/>
       <c r="J841" s="19"/>
       <c r="K841" s="18"/>
@@ -44797,19 +44852,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D842" s="15">
-        <v>1555097529</v>
+        <v>1555036873</v>
       </c>
       <c r="E842" s="16">
-        <v>10344175</v>
+        <v>10317235</v>
       </c>
       <c r="F842" s="15" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="G842" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H842" s="15" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="I842" s="20"/>
       <c r="J842" s="19"/>
@@ -44852,7 +44907,7 @@
         <v>10345545</v>
       </c>
       <c r="F843" s="15" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="G843" s="15" t="s">
         <v>32</v>
@@ -44894,20 +44949,20 @@
       <c r="C844" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D844" s="15">
-        <v>1281887573</v>
+      <c r="D844" s="15" t="s">
+        <v>783</v>
       </c>
       <c r="E844" s="16">
-        <v>10346088</v>
+        <v>10331002</v>
       </c>
       <c r="F844" s="15" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="G844" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H844" s="15" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I844" s="20"/>
       <c r="J844" s="19"/>
@@ -44943,20 +44998,20 @@
       <c r="C845" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D845" s="15" t="s">
-        <v>778</v>
+      <c r="D845" s="15">
+        <v>1204108343</v>
       </c>
       <c r="E845" s="16">
-        <v>10331002</v>
+        <v>10331008</v>
       </c>
       <c r="F845" s="15" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="G845" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H845" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I845" s="20"/>
       <c r="J845" s="19"/>
@@ -44986,27 +45041,13 @@
     </row>
     <row r="846" ht="43.5" customHeight="1" spans="1:33">
       <c r="A846" s="6"/>
-      <c r="B846" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C846" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D846" s="15">
-        <v>1204108343</v>
-      </c>
-      <c r="E846" s="16">
-        <v>10331008</v>
-      </c>
-      <c r="F846" s="15" t="s">
-        <v>780</v>
-      </c>
-      <c r="G846" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H846" s="15" t="s">
-        <v>186</v>
-      </c>
+      <c r="B846" s="14"/>
+      <c r="C846" s="14"/>
+      <c r="D846" s="15"/>
+      <c r="E846" s="16"/>
+      <c r="F846" s="15"/>
+      <c r="G846" s="15"/>
+      <c r="H846" s="15"/>
       <c r="I846" s="20"/>
       <c r="J846" s="19"/>
       <c r="K846" s="18"/>
@@ -45035,13 +45076,27 @@
     </row>
     <row r="847" ht="43.5" customHeight="1" spans="1:33">
       <c r="A847" s="6"/>
-      <c r="B847" s="14"/>
-      <c r="C847" s="14"/>
-      <c r="D847" s="15"/>
-      <c r="E847" s="16"/>
-      <c r="F847" s="15"/>
-      <c r="G847" s="15"/>
-      <c r="H847" s="15"/>
+      <c r="B847" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C847" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D847" s="15">
+        <v>1115460558</v>
+      </c>
+      <c r="E847" s="16">
+        <v>10338462</v>
+      </c>
+      <c r="F847" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="G847" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H847" s="15" t="s">
+        <v>615</v>
+      </c>
       <c r="I847" s="20"/>
       <c r="J847" s="19"/>
       <c r="K847" s="18"/>
@@ -45077,19 +45132,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D848" s="15">
-        <v>1115460558</v>
+        <v>1509946439</v>
       </c>
       <c r="E848" s="16">
-        <v>10338462</v>
+        <v>10344252</v>
       </c>
       <c r="F848" s="15" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="G848" s="15" t="s">
         <v>203</v>
       </c>
       <c r="H848" s="15" t="s">
-        <v>614</v>
+        <v>204</v>
       </c>
       <c r="I848" s="20"/>
       <c r="J848" s="19"/>
@@ -45126,13 +45181,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D849" s="15">
-        <v>1509946439</v>
+        <v>1090642201</v>
       </c>
       <c r="E849" s="16">
-        <v>10344252</v>
+        <v>10344770</v>
       </c>
       <c r="F849" s="15" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="G849" s="15" t="s">
         <v>203</v>
@@ -45174,20 +45229,20 @@
       <c r="C850" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D850" s="15">
-        <v>1090642201</v>
+      <c r="D850" s="15" t="s">
+        <v>789</v>
       </c>
       <c r="E850" s="16">
-        <v>10344770</v>
+        <v>10344214</v>
       </c>
       <c r="F850" s="15" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="G850" s="15" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="H850" s="15" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="I850" s="20"/>
       <c r="J850" s="19"/>
@@ -45224,13 +45279,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D851" s="15" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="E851" s="16">
-        <v>10344214</v>
+        <v>10346285</v>
       </c>
       <c r="F851" s="15" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="G851" s="15" t="s">
         <v>13</v>
@@ -45272,14 +45327,14 @@
       <c r="C852" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D852" s="15" t="s">
-        <v>786</v>
+      <c r="D852" s="15">
+        <v>1020488691</v>
       </c>
       <c r="E852" s="16">
-        <v>10346285</v>
+        <v>10346474</v>
       </c>
       <c r="F852" s="15" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="G852" s="15" t="s">
         <v>13</v>
@@ -45315,27 +45370,13 @@
     </row>
     <row r="853" ht="43.5" customHeight="1" spans="1:33">
       <c r="A853" s="6"/>
-      <c r="B853" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C853" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D853" s="15">
-        <v>1020488691</v>
-      </c>
-      <c r="E853" s="16">
-        <v>10346474</v>
-      </c>
-      <c r="F853" s="15" t="s">
-        <v>788</v>
-      </c>
-      <c r="G853" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H853" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="B853" s="14"/>
+      <c r="C853" s="14"/>
+      <c r="D853" s="15"/>
+      <c r="E853" s="16"/>
+      <c r="F853" s="15"/>
+      <c r="G853" s="15"/>
+      <c r="H853" s="15"/>
       <c r="I853" s="20"/>
       <c r="J853" s="19"/>
       <c r="K853" s="18"/>
@@ -45364,13 +45405,27 @@
     </row>
     <row r="854" ht="43.5" customHeight="1" spans="1:33">
       <c r="A854" s="6"/>
-      <c r="B854" s="14"/>
-      <c r="C854" s="14"/>
-      <c r="D854" s="15"/>
-      <c r="E854" s="16"/>
-      <c r="F854" s="15"/>
-      <c r="G854" s="15"/>
-      <c r="H854" s="15"/>
+      <c r="B854" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C854" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D854" s="15">
+        <v>1501002468</v>
+      </c>
+      <c r="E854" s="16">
+        <v>10346555</v>
+      </c>
+      <c r="F854" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="G854" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H854" s="15" t="s">
+        <v>211</v>
+      </c>
       <c r="I854" s="20"/>
       <c r="J854" s="19"/>
       <c r="K854" s="18"/>
@@ -45399,27 +45454,13 @@
     </row>
     <row r="855" ht="43.5" customHeight="1" spans="1:33">
       <c r="A855" s="6"/>
-      <c r="B855" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C855" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D855" s="15">
-        <v>1501002468</v>
-      </c>
-      <c r="E855" s="16">
-        <v>10346555</v>
-      </c>
-      <c r="F855" s="15" t="s">
-        <v>789</v>
-      </c>
-      <c r="G855" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H855" s="15" t="s">
-        <v>211</v>
-      </c>
+      <c r="B855" s="14"/>
+      <c r="C855" s="14"/>
+      <c r="D855" s="15"/>
+      <c r="E855" s="16"/>
+      <c r="F855" s="15"/>
+      <c r="G855" s="15"/>
+      <c r="H855" s="15"/>
       <c r="I855" s="20"/>
       <c r="J855" s="19"/>
       <c r="K855" s="18"/>
@@ -45446,15 +45487,15 @@
       <c r="AF855" s="18"/>
       <c r="AG855" s="18"/>
     </row>
-    <row r="856" ht="43.5" customHeight="1" spans="1:33">
+    <row r="856" ht="15" customHeight="1" spans="1:33">
       <c r="A856" s="6"/>
-      <c r="B856" s="14"/>
-      <c r="C856" s="14"/>
-      <c r="D856" s="15"/>
-      <c r="E856" s="16"/>
-      <c r="F856" s="15"/>
-      <c r="G856" s="15"/>
-      <c r="H856" s="15"/>
+      <c r="B856" s="29"/>
+      <c r="C856" s="29"/>
+      <c r="D856" s="30"/>
+      <c r="E856" s="31"/>
+      <c r="F856" s="30"/>
+      <c r="G856" s="30"/>
+      <c r="H856" s="30"/>
       <c r="I856" s="20"/>
       <c r="J856" s="19"/>
       <c r="K856" s="18"/>
@@ -45481,41 +45522,6 @@
       <c r="AF856" s="18"/>
       <c r="AG856" s="18"/>
     </row>
-    <row r="857" ht="15" customHeight="1" spans="1:33">
-      <c r="A857" s="6"/>
-      <c r="B857" s="27"/>
-      <c r="C857" s="27"/>
-      <c r="D857" s="28"/>
-      <c r="E857" s="29"/>
-      <c r="F857" s="28"/>
-      <c r="G857" s="28"/>
-      <c r="H857" s="28"/>
-      <c r="I857" s="20"/>
-      <c r="J857" s="19"/>
-      <c r="K857" s="18"/>
-      <c r="L857" s="18"/>
-      <c r="M857" s="18"/>
-      <c r="N857" s="18"/>
-      <c r="O857" s="18"/>
-      <c r="P857" s="18"/>
-      <c r="Q857" s="18"/>
-      <c r="R857" s="18"/>
-      <c r="S857" s="18"/>
-      <c r="T857" s="18"/>
-      <c r="U857" s="18"/>
-      <c r="V857" s="18"/>
-      <c r="W857" s="18"/>
-      <c r="X857" s="18"/>
-      <c r="Y857" s="18"/>
-      <c r="Z857" s="18"/>
-      <c r="AA857" s="18"/>
-      <c r="AB857" s="18"/>
-      <c r="AC857" s="18"/>
-      <c r="AD857" s="18"/>
-      <c r="AE857" s="18"/>
-      <c r="AF857" s="18"/>
-      <c r="AG857" s="18"/>
-    </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A2:A3"/>
@@ -45534,8 +45540,8 @@
     <mergeCell ref="A682:A683"/>
     <mergeCell ref="A697:A698"/>
     <mergeCell ref="A717:A718"/>
-    <mergeCell ref="A764:A765"/>
-    <mergeCell ref="A817:A818"/>
+    <mergeCell ref="A763:A764"/>
+    <mergeCell ref="A815:A816"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
